--- a/AAII_Financials/Quarterly/LIZI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LIZI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>47200</v>
+        <v>51100</v>
       </c>
       <c r="E8" s="3">
-        <v>32300</v>
+        <v>46000</v>
       </c>
       <c r="F8" s="3">
-        <v>37500</v>
+        <v>31500</v>
       </c>
       <c r="G8" s="3">
-        <v>34400</v>
+        <v>36600</v>
       </c>
       <c r="H8" s="3">
-        <v>27400</v>
+        <v>33600</v>
       </c>
       <c r="I8" s="3">
-        <v>26700</v>
+        <v>26800</v>
       </c>
       <c r="J8" s="3">
+        <v>26100</v>
+      </c>
+      <c r="K8" s="3">
         <v>26000</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>38000</v>
+        <v>42100</v>
       </c>
       <c r="E9" s="3">
-        <v>23100</v>
+        <v>37000</v>
       </c>
       <c r="F9" s="3">
-        <v>26400</v>
+        <v>22500</v>
       </c>
       <c r="G9" s="3">
-        <v>24300</v>
+        <v>25800</v>
       </c>
       <c r="H9" s="3">
-        <v>18900</v>
+        <v>23700</v>
       </c>
       <c r="I9" s="3">
-        <v>18800</v>
+        <v>18400</v>
       </c>
       <c r="J9" s="3">
+        <v>18400</v>
+      </c>
+      <c r="K9" s="3">
         <v>19100</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>9200</v>
+        <v>9000</v>
       </c>
       <c r="E10" s="3">
-        <v>9200</v>
+        <v>9000</v>
       </c>
       <c r="F10" s="3">
-        <v>11100</v>
+        <v>9000</v>
       </c>
       <c r="G10" s="3">
-        <v>10100</v>
+        <v>10900</v>
       </c>
       <c r="H10" s="3">
-        <v>8500</v>
+        <v>9900</v>
       </c>
       <c r="I10" s="3">
-        <v>7900</v>
+        <v>8300</v>
       </c>
       <c r="J10" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K10" s="3">
         <v>6900</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>6300</v>
+        <v>7300</v>
       </c>
       <c r="E12" s="3">
-        <v>4700</v>
+        <v>6100</v>
       </c>
       <c r="F12" s="3">
-        <v>4200</v>
+        <v>4600</v>
       </c>
       <c r="G12" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="H12" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I12" s="3">
         <v>2900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K12" s="3">
         <v>2400</v>
       </c>
-      <c r="J12" s="3">
-        <v>2400</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>54600</v>
+        <v>55600</v>
       </c>
       <c r="E17" s="3">
-        <v>39200</v>
+        <v>53200</v>
       </c>
       <c r="F17" s="3">
-        <v>39000</v>
+        <v>38200</v>
       </c>
       <c r="G17" s="3">
-        <v>34000</v>
+        <v>38100</v>
       </c>
       <c r="H17" s="3">
-        <v>28200</v>
+        <v>33200</v>
       </c>
       <c r="I17" s="3">
-        <v>27200</v>
+        <v>27500</v>
       </c>
       <c r="J17" s="3">
+        <v>26600</v>
+      </c>
+      <c r="K17" s="3">
         <v>26900</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-7400</v>
+        <v>-4400</v>
       </c>
       <c r="E18" s="3">
-        <v>-6900</v>
+        <v>-7200</v>
       </c>
       <c r="F18" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,66 +1042,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
-      </c>
-      <c r="E20" s="3">
-        <v>600</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
       </c>
       <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+        <v>-3500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-6300</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>600</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,37 +1136,43 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-7000</v>
+        <v>-4100</v>
       </c>
       <c r="E23" s="3">
-        <v>-6300</v>
+        <v>-6800</v>
       </c>
       <c r="F23" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-200</v>
       </c>
       <c r="I23" s="3">
         <v>-200</v>
       </c>
       <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-7000</v>
+        <v>-4100</v>
       </c>
       <c r="E26" s="3">
-        <v>-6300</v>
+        <v>-6800</v>
       </c>
       <c r="F26" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-200</v>
       </c>
       <c r="I26" s="3">
         <v>-200</v>
       </c>
       <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-73100</v>
+        <v>-42400</v>
       </c>
       <c r="E27" s="3">
-        <v>-16600</v>
+        <v>-71300</v>
       </c>
       <c r="F27" s="3">
-        <v>-20800</v>
+        <v>-16200</v>
       </c>
       <c r="G27" s="3">
-        <v>-8400</v>
+        <v>-20300</v>
       </c>
       <c r="H27" s="3">
-        <v>-12800</v>
+        <v>-8200</v>
       </c>
       <c r="I27" s="3">
-        <v>-2000</v>
+        <v>-12500</v>
       </c>
       <c r="J27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-9200</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-600</v>
-      </c>
-      <c r="F32" s="3">
-        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
       </c>
       <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-73100</v>
+        <v>-42400</v>
       </c>
       <c r="E33" s="3">
-        <v>-16600</v>
+        <v>-71300</v>
       </c>
       <c r="F33" s="3">
-        <v>-20800</v>
+        <v>-16200</v>
       </c>
       <c r="G33" s="3">
-        <v>-8400</v>
+        <v>-20300</v>
       </c>
       <c r="H33" s="3">
-        <v>-12800</v>
+        <v>-8200</v>
       </c>
       <c r="I33" s="3">
-        <v>-2000</v>
+        <v>-12500</v>
       </c>
       <c r="J33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-9200</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-73100</v>
+        <v>-42400</v>
       </c>
       <c r="E35" s="3">
-        <v>-16600</v>
+        <v>-71300</v>
       </c>
       <c r="F35" s="3">
-        <v>-20800</v>
+        <v>-16200</v>
       </c>
       <c r="G35" s="3">
-        <v>-8400</v>
+        <v>-20300</v>
       </c>
       <c r="H35" s="3">
-        <v>-12800</v>
+        <v>-8200</v>
       </c>
       <c r="I35" s="3">
-        <v>-2000</v>
+        <v>-12500</v>
       </c>
       <c r="J35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-9200</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,19 +1619,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>18000</v>
+        <v>11600</v>
       </c>
       <c r="E41" s="3">
-        <v>23200</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>17500</v>
+      </c>
+      <c r="F41" s="3">
+        <v>22600</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1563,8 +1649,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,20 +1681,23 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="E43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F43" s="3">
         <v>1000</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1621,8 +1713,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,19 +1745,22 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E45" s="3">
         <v>2000</v>
       </c>
-      <c r="E45" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+      <c r="F45" s="3">
+        <v>1100</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1679,19 +1777,22 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>21200</v>
+        <v>14600</v>
       </c>
       <c r="E46" s="3">
-        <v>25300</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>20700</v>
+      </c>
+      <c r="F46" s="3">
+        <v>24700</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1708,8 +1809,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,19 +1841,22 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="E48" s="3">
-        <v>3200</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>4600</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3100</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1766,8 +1873,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1775,11 +1885,11 @@
         <v>200</v>
       </c>
       <c r="E49" s="3">
+        <v>200</v>
+      </c>
+      <c r="F49" s="3">
         <v>300</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1795,8 +1905,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,20 +1969,23 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1882,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,19 +2033,22 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26600</v>
+        <v>19700</v>
       </c>
       <c r="E54" s="3">
-        <v>29100</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>26000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>28400</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1940,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,19 +2095,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="E57" s="3">
-        <v>8900</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>9900</v>
+      </c>
+      <c r="F57" s="3">
+        <v>8600</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1995,8 +2125,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2024,19 +2157,22 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19500</v>
+        <v>16800</v>
       </c>
       <c r="E59" s="3">
-        <v>16600</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>19100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>16200</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2053,19 +2189,22 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>29700</v>
+        <v>26900</v>
       </c>
       <c r="E60" s="3">
-        <v>25500</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>29000</v>
+      </c>
+      <c r="F60" s="3">
+        <v>24800</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2082,8 +2221,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,8 +2253,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2140,8 +2285,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,19 +2381,22 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>29700</v>
+        <v>26900</v>
       </c>
       <c r="E66" s="3">
-        <v>25500</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>29000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>24800</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2256,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,19 +2491,22 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>240100</v>
+        <v>272500</v>
       </c>
       <c r="E70" s="3">
-        <v>173900</v>
+        <v>234200</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>169600</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,19 +2555,22 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-244000</v>
+        <v>-280300</v>
       </c>
       <c r="E72" s="3">
-        <v>-170800</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>-238000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-166700</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2414,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,19 +2683,22 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-243200</v>
+        <v>-279700</v>
       </c>
       <c r="E76" s="3">
-        <v>-170300</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>-237200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-166100</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2530,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-73100</v>
+        <v>-42400</v>
       </c>
       <c r="E81" s="3">
-        <v>-16600</v>
+        <v>-71300</v>
       </c>
       <c r="F81" s="3">
-        <v>-20800</v>
+        <v>-16200</v>
       </c>
       <c r="G81" s="3">
-        <v>-8400</v>
+        <v>-20300</v>
       </c>
       <c r="H81" s="3">
-        <v>-12800</v>
+        <v>-8200</v>
       </c>
       <c r="I81" s="3">
-        <v>-2000</v>
+        <v>-12500</v>
       </c>
       <c r="J81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-9200</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,26 +2832,27 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>600</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3">
         <v>400</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2664,8 +2862,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,25 +3022,28 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
+        <v>-5300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3700</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G89" s="3">
-        <v>6800</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3">
+        <v>6600</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2838,8 +3054,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,26 +3070,27 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1700</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2880,8 +3100,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,26 +3164,29 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1800</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3196,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,8 +3338,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3125,25 +3370,28 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3154,25 +3402,28 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
+        <v>-5900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-5100</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G102" s="3">
-        <v>6300</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3">
+        <v>6100</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3181,6 +3432,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LIZI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LIZI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
   <si>
     <t>LIZI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,168 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>51100</v>
+        <v>53800</v>
       </c>
       <c r="E8" s="3">
-        <v>46000</v>
+        <v>53100</v>
       </c>
       <c r="F8" s="3">
-        <v>31500</v>
+        <v>47700</v>
       </c>
       <c r="G8" s="3">
-        <v>36600</v>
+        <v>32700</v>
       </c>
       <c r="H8" s="3">
-        <v>33600</v>
+        <v>38000</v>
       </c>
       <c r="I8" s="3">
-        <v>26800</v>
+        <v>34900</v>
       </c>
       <c r="J8" s="3">
+        <v>27800</v>
+      </c>
+      <c r="K8" s="3">
         <v>26100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26000</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>42100</v>
+        <v>43200</v>
       </c>
       <c r="E9" s="3">
-        <v>37000</v>
+        <v>43700</v>
       </c>
       <c r="F9" s="3">
-        <v>22500</v>
+        <v>38400</v>
       </c>
       <c r="G9" s="3">
-        <v>25800</v>
+        <v>23300</v>
       </c>
       <c r="H9" s="3">
-        <v>23700</v>
+        <v>26700</v>
       </c>
       <c r="I9" s="3">
+        <v>24600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K9" s="3">
         <v>18400</v>
       </c>
-      <c r="J9" s="3">
-        <v>18400</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19100</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>9000</v>
+        <v>10600</v>
       </c>
       <c r="E10" s="3">
-        <v>9000</v>
+        <v>9400</v>
       </c>
       <c r="F10" s="3">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="G10" s="3">
-        <v>10900</v>
+        <v>9300</v>
       </c>
       <c r="H10" s="3">
-        <v>9900</v>
+        <v>11300</v>
       </c>
       <c r="I10" s="3">
-        <v>8300</v>
+        <v>10200</v>
       </c>
       <c r="J10" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K10" s="3">
         <v>7700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6900</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,40 +839,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>7300</v>
+        <v>8500</v>
       </c>
       <c r="E12" s="3">
-        <v>6100</v>
+        <v>7600</v>
       </c>
       <c r="F12" s="3">
-        <v>4600</v>
+        <v>6300</v>
       </c>
       <c r="G12" s="3">
-        <v>4100</v>
+        <v>4800</v>
       </c>
       <c r="H12" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="I12" s="3">
-        <v>2900</v>
+        <v>4300</v>
       </c>
       <c r="J12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K12" s="3">
         <v>2300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2400</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +942,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>55600</v>
+        <v>60700</v>
       </c>
       <c r="E17" s="3">
-        <v>53200</v>
+        <v>57700</v>
       </c>
       <c r="F17" s="3">
-        <v>38200</v>
+        <v>55200</v>
       </c>
       <c r="G17" s="3">
-        <v>38100</v>
+        <v>39700</v>
       </c>
       <c r="H17" s="3">
-        <v>33200</v>
+        <v>39500</v>
       </c>
       <c r="I17" s="3">
-        <v>27500</v>
+        <v>34500</v>
       </c>
       <c r="J17" s="3">
+        <v>28500</v>
+      </c>
+      <c r="K17" s="3">
         <v>26600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26900</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-4400</v>
+        <v>-6900</v>
       </c>
       <c r="E18" s="3">
-        <v>-7200</v>
+        <v>-4600</v>
       </c>
       <c r="F18" s="3">
-        <v>-6700</v>
+        <v>-7500</v>
       </c>
       <c r="G18" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,13 +1076,14 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>400</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>400</v>
@@ -1058,57 +1092,63 @@
         <v>500</v>
       </c>
       <c r="G20" s="3">
-        <v>-100</v>
+        <v>600</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
       </c>
       <c r="I20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-3500</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+        <v>-3600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-6600</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
-        <v>600</v>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J21" s="3">
+        <v>800</v>
+      </c>
+      <c r="K21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,40 +1179,46 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4100</v>
+        <v>-7000</v>
       </c>
       <c r="E23" s="3">
-        <v>-6800</v>
+        <v>-4200</v>
       </c>
       <c r="F23" s="3">
-        <v>-6200</v>
+        <v>-7000</v>
       </c>
       <c r="G23" s="3">
-        <v>-1600</v>
+        <v>-6400</v>
       </c>
       <c r="H23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I23" s="3">
         <v>300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-200</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
         <v>-1300</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1249,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4100</v>
+        <v>-7000</v>
       </c>
       <c r="E26" s="3">
-        <v>-6800</v>
+        <v>-4200</v>
       </c>
       <c r="F26" s="3">
-        <v>-6200</v>
+        <v>-7000</v>
       </c>
       <c r="G26" s="3">
-        <v>-1600</v>
+        <v>-6400</v>
       </c>
       <c r="H26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I26" s="3">
         <v>300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-200</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-1300</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-42400</v>
+        <v>-29400</v>
       </c>
       <c r="E27" s="3">
-        <v>-71300</v>
+        <v>-44000</v>
       </c>
       <c r="F27" s="3">
-        <v>-16200</v>
+        <v>-74000</v>
       </c>
       <c r="G27" s="3">
-        <v>-20300</v>
+        <v>-16800</v>
       </c>
       <c r="H27" s="3">
-        <v>-8200</v>
+        <v>-21100</v>
       </c>
       <c r="I27" s="3">
-        <v>-12500</v>
+        <v>-8500</v>
       </c>
       <c r="J27" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9200</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,13 +1494,16 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-400</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>-400</v>
@@ -1442,57 +1512,63 @@
         <v>-500</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>-600</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
       </c>
       <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-42400</v>
+        <v>-29400</v>
       </c>
       <c r="E33" s="3">
-        <v>-71300</v>
+        <v>-44000</v>
       </c>
       <c r="F33" s="3">
-        <v>-16200</v>
+        <v>-74000</v>
       </c>
       <c r="G33" s="3">
-        <v>-20300</v>
+        <v>-16800</v>
       </c>
       <c r="H33" s="3">
-        <v>-8200</v>
+        <v>-21100</v>
       </c>
       <c r="I33" s="3">
-        <v>-12500</v>
+        <v>-8500</v>
       </c>
       <c r="J33" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9200</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-42400</v>
+        <v>-29400</v>
       </c>
       <c r="E35" s="3">
-        <v>-71300</v>
+        <v>-44000</v>
       </c>
       <c r="F35" s="3">
-        <v>-16200</v>
+        <v>-74000</v>
       </c>
       <c r="G35" s="3">
-        <v>-20300</v>
+        <v>-16800</v>
       </c>
       <c r="H35" s="3">
-        <v>-8200</v>
+        <v>-21100</v>
       </c>
       <c r="I35" s="3">
-        <v>-12500</v>
+        <v>-8500</v>
       </c>
       <c r="J35" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9200</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,22 +1706,23 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>11600</v>
+        <v>35000</v>
       </c>
       <c r="E41" s="3">
-        <v>17500</v>
+        <v>12000</v>
       </c>
       <c r="F41" s="3">
-        <v>22600</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>18200</v>
+      </c>
+      <c r="G41" s="3">
+        <v>23500</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1652,31 +1739,34 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>12500</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1684,23 +1774,26 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3">
-        <v>1200</v>
-      </c>
       <c r="F43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1809,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,22 +1844,25 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2100</v>
+        <v>3600</v>
       </c>
       <c r="E45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F45" s="3">
         <v>2000</v>
       </c>
-      <c r="F45" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+      <c r="G45" s="3">
+        <v>1200</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1780,22 +1879,25 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14600</v>
+        <v>51700</v>
       </c>
       <c r="E46" s="3">
-        <v>20700</v>
+        <v>15200</v>
       </c>
       <c r="F46" s="3">
-        <v>24700</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>21500</v>
+      </c>
+      <c r="G46" s="3">
+        <v>25600</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1812,8 +1914,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,22 +1949,25 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4500</v>
+        <v>6200</v>
       </c>
       <c r="E48" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="F48" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>4800</v>
+      </c>
+      <c r="G48" s="3">
+        <v>3200</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1876,23 +1984,26 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E49" s="3">
         <v>200</v>
       </c>
       <c r="F49" s="3">
+        <v>200</v>
+      </c>
+      <c r="G49" s="3">
         <v>300</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2089,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1981,14 +2101,14 @@
         <v>300</v>
       </c>
       <c r="E52" s="3">
+        <v>300</v>
+      </c>
+      <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2004,8 +2124,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,22 +2159,25 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19700</v>
+        <v>58500</v>
       </c>
       <c r="E54" s="3">
-        <v>26000</v>
+        <v>20400</v>
       </c>
       <c r="F54" s="3">
-        <v>28400</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>26900</v>
+      </c>
+      <c r="G54" s="3">
+        <v>29500</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2068,8 +2194,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,22 +2226,23 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10100</v>
+        <v>9600</v>
       </c>
       <c r="E57" s="3">
-        <v>9900</v>
+        <v>10500</v>
       </c>
       <c r="F57" s="3">
-        <v>8600</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>10300</v>
+      </c>
+      <c r="G57" s="3">
+        <v>9000</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2128,31 +2259,34 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>2900</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2160,23 +2294,26 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>17400</v>
+      </c>
+      <c r="F59" s="3">
+        <v>19800</v>
+      </c>
+      <c r="G59" s="3">
         <v>16800</v>
       </c>
-      <c r="E59" s="3">
-        <v>19100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>16200</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,22 +2329,25 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>26900</v>
+        <v>31800</v>
       </c>
       <c r="E60" s="3">
-        <v>29000</v>
+        <v>27900</v>
       </c>
       <c r="F60" s="3">
-        <v>24800</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>30100</v>
+      </c>
+      <c r="G60" s="3">
+        <v>25800</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2224,8 +2364,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,31 +2399,34 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2288,8 +2434,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,22 +2539,25 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>26900</v>
+        <v>32100</v>
       </c>
       <c r="E66" s="3">
-        <v>29000</v>
+        <v>27900</v>
       </c>
       <c r="F66" s="3">
-        <v>24800</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>30100</v>
+      </c>
+      <c r="G66" s="3">
+        <v>25800</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2416,8 +2574,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,22 +2659,25 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>272500</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>234200</v>
+        <v>282800</v>
       </c>
       <c r="F70" s="3">
-        <v>169600</v>
+        <v>243000</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>176000</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,22 +2729,25 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-280300</v>
+        <v>-320300</v>
       </c>
       <c r="E72" s="3">
-        <v>-238000</v>
+        <v>-290900</v>
       </c>
       <c r="F72" s="3">
-        <v>-166700</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-246900</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-172900</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2590,8 +2764,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,22 +2869,25 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-279700</v>
+        <v>26300</v>
       </c>
       <c r="E76" s="3">
-        <v>-237200</v>
+        <v>-290200</v>
       </c>
       <c r="F76" s="3">
-        <v>-166100</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>-246100</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-172300</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2718,8 +2904,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-42400</v>
+        <v>-29400</v>
       </c>
       <c r="E81" s="3">
-        <v>-71300</v>
+        <v>-44000</v>
       </c>
       <c r="F81" s="3">
-        <v>-16200</v>
+        <v>-74000</v>
       </c>
       <c r="G81" s="3">
-        <v>-20300</v>
+        <v>-16800</v>
       </c>
       <c r="H81" s="3">
-        <v>-8200</v>
+        <v>-21100</v>
       </c>
       <c r="I81" s="3">
-        <v>-12500</v>
+        <v>-8500</v>
       </c>
       <c r="J81" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9200</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,25 +3031,26 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3">
         <v>600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>500</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="3">
-        <v>400</v>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,25 +3239,28 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-5300</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+        <v>-5500</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-3800</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H89" s="3">
-        <v>6600</v>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3057,8 +3274,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,25 +3291,26 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-500</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+        <v>-600</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-1800</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H91" s="3">
-        <v>-500</v>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3103,8 +3324,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,25 +3394,28 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-500</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1800</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="3">
-        <v>-500</v>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3199,8 +3429,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,8 +3584,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3373,25 +3619,28 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3405,25 +3654,28 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-5900</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+        <v>-6200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-5300</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="3">
-        <v>6100</v>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3435,6 +3687,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LIZI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LIZI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
   <si>
     <t>LIZI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>53800</v>
+        <v>53400</v>
       </c>
       <c r="E8" s="3">
-        <v>53100</v>
+        <v>56300</v>
       </c>
       <c r="F8" s="3">
-        <v>47700</v>
+        <v>55600</v>
       </c>
       <c r="G8" s="3">
-        <v>32700</v>
+        <v>50000</v>
       </c>
       <c r="H8" s="3">
-        <v>38000</v>
+        <v>34200</v>
       </c>
       <c r="I8" s="3">
-        <v>34900</v>
+        <v>39800</v>
       </c>
       <c r="J8" s="3">
+        <v>36500</v>
+      </c>
+      <c r="K8" s="3">
         <v>27800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26000</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>43200</v>
+        <v>40300</v>
       </c>
       <c r="E9" s="3">
-        <v>43700</v>
+        <v>45200</v>
       </c>
       <c r="F9" s="3">
-        <v>38400</v>
+        <v>45800</v>
       </c>
       <c r="G9" s="3">
-        <v>23300</v>
+        <v>40300</v>
       </c>
       <c r="H9" s="3">
-        <v>26700</v>
+        <v>24400</v>
       </c>
       <c r="I9" s="3">
-        <v>24600</v>
+        <v>28000</v>
       </c>
       <c r="J9" s="3">
+        <v>25800</v>
+      </c>
+      <c r="K9" s="3">
         <v>19100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19100</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>10600</v>
+        <v>13000</v>
       </c>
       <c r="E10" s="3">
-        <v>9400</v>
+        <v>11100</v>
       </c>
       <c r="F10" s="3">
-        <v>9300</v>
+        <v>9800</v>
       </c>
       <c r="G10" s="3">
-        <v>9300</v>
+        <v>9800</v>
       </c>
       <c r="H10" s="3">
-        <v>11300</v>
+        <v>9800</v>
       </c>
       <c r="I10" s="3">
-        <v>10200</v>
+        <v>11800</v>
       </c>
       <c r="J10" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K10" s="3">
         <v>8600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6900</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,43 +853,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="E12" s="3">
-        <v>7600</v>
+        <v>8900</v>
       </c>
       <c r="F12" s="3">
-        <v>6300</v>
+        <v>8000</v>
       </c>
       <c r="G12" s="3">
-        <v>4800</v>
+        <v>6600</v>
       </c>
       <c r="H12" s="3">
-        <v>4200</v>
+        <v>5000</v>
       </c>
       <c r="I12" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="J12" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K12" s="3">
         <v>3000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2400</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>60700</v>
+        <v>57200</v>
       </c>
       <c r="E17" s="3">
-        <v>57700</v>
+        <v>63600</v>
       </c>
       <c r="F17" s="3">
-        <v>55200</v>
+        <v>60400</v>
       </c>
       <c r="G17" s="3">
-        <v>39700</v>
+        <v>57900</v>
       </c>
       <c r="H17" s="3">
-        <v>39500</v>
+        <v>41500</v>
       </c>
       <c r="I17" s="3">
-        <v>34500</v>
+        <v>41400</v>
       </c>
       <c r="J17" s="3">
+        <v>36100</v>
+      </c>
+      <c r="K17" s="3">
         <v>28500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26900</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-6900</v>
+        <v>-3800</v>
       </c>
       <c r="E18" s="3">
-        <v>-4600</v>
+        <v>-7300</v>
       </c>
       <c r="F18" s="3">
-        <v>-7500</v>
+        <v>-4800</v>
       </c>
       <c r="G18" s="3">
-        <v>-7000</v>
+        <v>-7900</v>
       </c>
       <c r="H18" s="3">
-        <v>-1500</v>
+        <v>-7300</v>
       </c>
       <c r="I18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,57 +1110,61 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-100</v>
       </c>
       <c r="I20" s="3">
         <v>-100</v>
       </c>
       <c r="J20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
-        <v>-3600</v>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>-3800</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-6900</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1136,19 +1173,22 @@
         <v>3</v>
       </c>
       <c r="J21" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K21" s="3">
         <v>800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,43 +1222,49 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-7000</v>
+        <v>-3400</v>
       </c>
       <c r="E23" s="3">
-        <v>-4200</v>
+        <v>-7300</v>
       </c>
       <c r="F23" s="3">
-        <v>-7000</v>
+        <v>-4400</v>
       </c>
       <c r="G23" s="3">
-        <v>-6400</v>
+        <v>-7400</v>
       </c>
       <c r="H23" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-200</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
       </c>
       <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1298,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-7000</v>
+        <v>-3400</v>
       </c>
       <c r="E26" s="3">
-        <v>-4200</v>
+        <v>-7300</v>
       </c>
       <c r="F26" s="3">
-        <v>-7000</v>
+        <v>-4400</v>
       </c>
       <c r="G26" s="3">
-        <v>-6400</v>
+        <v>-7400</v>
       </c>
       <c r="H26" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-200</v>
       </c>
       <c r="K26" s="3">
         <v>-200</v>
       </c>
       <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-29400</v>
+        <v>-3400</v>
       </c>
       <c r="E27" s="3">
-        <v>-44000</v>
+        <v>-30800</v>
       </c>
       <c r="F27" s="3">
-        <v>-74000</v>
+        <v>-46100</v>
       </c>
       <c r="G27" s="3">
-        <v>-16800</v>
+        <v>-77500</v>
       </c>
       <c r="H27" s="3">
-        <v>-21100</v>
+        <v>-17600</v>
       </c>
       <c r="I27" s="3">
-        <v>-8500</v>
+        <v>-22100</v>
       </c>
       <c r="J27" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-13000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9200</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
-      </c>
-      <c r="H32" s="3">
-        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>100</v>
       </c>
       <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-29400</v>
+        <v>-3400</v>
       </c>
       <c r="E33" s="3">
-        <v>-44000</v>
+        <v>-30800</v>
       </c>
       <c r="F33" s="3">
-        <v>-74000</v>
+        <v>-46100</v>
       </c>
       <c r="G33" s="3">
-        <v>-16800</v>
+        <v>-77500</v>
       </c>
       <c r="H33" s="3">
-        <v>-21100</v>
+        <v>-17600</v>
       </c>
       <c r="I33" s="3">
-        <v>-8500</v>
+        <v>-22100</v>
       </c>
       <c r="J33" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-13000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9200</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-29400</v>
+        <v>-3400</v>
       </c>
       <c r="E35" s="3">
-        <v>-44000</v>
+        <v>-30800</v>
       </c>
       <c r="F35" s="3">
-        <v>-74000</v>
+        <v>-46100</v>
       </c>
       <c r="G35" s="3">
-        <v>-16800</v>
+        <v>-77500</v>
       </c>
       <c r="H35" s="3">
-        <v>-21100</v>
+        <v>-17600</v>
       </c>
       <c r="I35" s="3">
-        <v>-8500</v>
+        <v>-22100</v>
       </c>
       <c r="J35" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-13000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9200</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,25 +1793,26 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>35000</v>
+        <v>41400</v>
       </c>
       <c r="E41" s="3">
-        <v>12000</v>
+        <v>36700</v>
       </c>
       <c r="F41" s="3">
-        <v>18200</v>
+        <v>12600</v>
       </c>
       <c r="G41" s="3">
-        <v>23500</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>19000</v>
+      </c>
+      <c r="H41" s="3">
+        <v>24600</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1742,16 +1829,19 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12500</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
+        <v>12200</v>
+      </c>
+      <c r="E42" s="3">
+        <v>13100</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1768,8 +1858,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1777,25 +1867,28 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
-        <v>900</v>
-      </c>
       <c r="F43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G43" s="3">
         <v>1300</v>
       </c>
-      <c r="G43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>1100</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1812,8 +1905,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,26 +1943,29 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3600</v>
+        <v>3100</v>
       </c>
       <c r="E45" s="3">
-        <v>2200</v>
+        <v>3800</v>
       </c>
       <c r="F45" s="3">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="G45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H45" s="3">
         <v>1200</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1882,25 +1981,28 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>51700</v>
+        <v>57800</v>
       </c>
       <c r="E46" s="3">
-        <v>15200</v>
+        <v>54100</v>
       </c>
       <c r="F46" s="3">
-        <v>21500</v>
+        <v>15900</v>
       </c>
       <c r="G46" s="3">
-        <v>25600</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>22500</v>
+      </c>
+      <c r="H46" s="3">
+        <v>26900</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1917,8 +2019,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,25 +2057,28 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="E48" s="3">
-        <v>4700</v>
+        <v>6500</v>
       </c>
       <c r="F48" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="G48" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>5000</v>
+      </c>
+      <c r="H48" s="3">
+        <v>3400</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1987,8 +2095,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1996,17 +2107,17 @@
         <v>300</v>
       </c>
       <c r="E49" s="3">
+        <v>300</v>
+      </c>
+      <c r="F49" s="3">
+        <v>300</v>
+      </c>
+      <c r="G49" s="3">
         <v>200</v>
       </c>
-      <c r="F49" s="3">
-        <v>200</v>
-      </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>300</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,26 +2209,29 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E52" s="3">
         <v>300</v>
       </c>
       <c r="F52" s="3">
+        <v>300</v>
+      </c>
+      <c r="G52" s="3">
+        <v>500</v>
+      </c>
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3">
-        <v>300</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,25 +2285,28 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>58500</v>
+        <v>65000</v>
       </c>
       <c r="E54" s="3">
-        <v>20400</v>
+        <v>61200</v>
       </c>
       <c r="F54" s="3">
-        <v>26900</v>
+        <v>21400</v>
       </c>
       <c r="G54" s="3">
-        <v>29500</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>28200</v>
+      </c>
+      <c r="H54" s="3">
+        <v>30900</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2197,8 +2323,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,25 +2357,26 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="E57" s="3">
-        <v>10500</v>
+        <v>10100</v>
       </c>
       <c r="F57" s="3">
-        <v>10300</v>
+        <v>11000</v>
       </c>
       <c r="G57" s="3">
-        <v>9000</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>10800</v>
+      </c>
+      <c r="H57" s="3">
+        <v>9400</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2262,16 +2393,19 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2900</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+        <v>7200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3100</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2288,8 +2422,8 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2297,25 +2431,28 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19200</v>
+        <v>20100</v>
       </c>
       <c r="E59" s="3">
-        <v>17400</v>
+        <v>20200</v>
       </c>
       <c r="F59" s="3">
-        <v>19800</v>
+        <v>18200</v>
       </c>
       <c r="G59" s="3">
-        <v>16800</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>20700</v>
+      </c>
+      <c r="H59" s="3">
+        <v>17600</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2332,25 +2469,28 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>31800</v>
+        <v>36900</v>
       </c>
       <c r="E60" s="3">
-        <v>27900</v>
+        <v>33300</v>
       </c>
       <c r="F60" s="3">
-        <v>30100</v>
+        <v>29200</v>
       </c>
       <c r="G60" s="3">
-        <v>25800</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>31500</v>
+      </c>
+      <c r="H60" s="3">
+        <v>27000</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2367,8 +2507,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,17 +2545,20 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2428,8 +2574,8 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,25 +2697,28 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32100</v>
+        <v>38200</v>
       </c>
       <c r="E66" s="3">
-        <v>27900</v>
+        <v>33700</v>
       </c>
       <c r="F66" s="3">
-        <v>30100</v>
+        <v>29200</v>
       </c>
       <c r="G66" s="3">
-        <v>25800</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>31500</v>
+      </c>
+      <c r="H66" s="3">
+        <v>27000</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2577,8 +2735,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2671,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>282800</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>243000</v>
+        <v>296200</v>
       </c>
       <c r="G70" s="3">
-        <v>176000</v>
+        <v>254500</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>184400</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,25 +2903,28 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-320300</v>
+        <v>-338800</v>
       </c>
       <c r="E72" s="3">
-        <v>-290900</v>
+        <v>-335500</v>
       </c>
       <c r="F72" s="3">
-        <v>-246900</v>
+        <v>-304700</v>
       </c>
       <c r="G72" s="3">
-        <v>-172900</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-258600</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-181100</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2767,8 +2941,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,25 +3055,28 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>26300</v>
+        <v>26800</v>
       </c>
       <c r="E76" s="3">
-        <v>-290200</v>
+        <v>27600</v>
       </c>
       <c r="F76" s="3">
-        <v>-246100</v>
+        <v>-304000</v>
       </c>
       <c r="G76" s="3">
-        <v>-172300</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>-257800</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-180500</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2907,8 +3093,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-29400</v>
+        <v>-3400</v>
       </c>
       <c r="E81" s="3">
-        <v>-44000</v>
+        <v>-30800</v>
       </c>
       <c r="F81" s="3">
-        <v>-74000</v>
+        <v>-46100</v>
       </c>
       <c r="G81" s="3">
-        <v>-16800</v>
+        <v>-77500</v>
       </c>
       <c r="H81" s="3">
-        <v>-21100</v>
+        <v>-17600</v>
       </c>
       <c r="I81" s="3">
-        <v>-8500</v>
+        <v>-22100</v>
       </c>
       <c r="J81" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-13000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9200</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,23 +3230,24 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3">
         <v>600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>500</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,22 +3456,25 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="3">
-        <v>-5500</v>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F89" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>-5800</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-4000</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3277,8 +3494,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,22 +3512,23 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>-1900</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,22 +3624,25 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>-1900</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3432,8 +3662,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,8 +3830,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3622,23 +3868,26 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3657,22 +3906,25 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E102" s="3">
-        <v>-6200</v>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F102" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>-6500</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-5500</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3690,6 +3942,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LIZI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LIZI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
   <si>
     <t>LIZI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,206 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>53400</v>
+        <v>64200</v>
       </c>
       <c r="E8" s="3">
-        <v>56300</v>
+        <v>55200</v>
       </c>
       <c r="F8" s="3">
-        <v>55600</v>
+        <v>53600</v>
       </c>
       <c r="G8" s="3">
-        <v>50000</v>
+        <v>56600</v>
       </c>
       <c r="H8" s="3">
-        <v>34200</v>
+        <v>55800</v>
       </c>
       <c r="I8" s="3">
+        <v>50200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>34400</v>
+      </c>
+      <c r="K8" s="3">
         <v>39800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>36500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>27800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>26100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>26000</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>40300</v>
+        <v>46000</v>
       </c>
       <c r="E9" s="3">
-        <v>45200</v>
+        <v>41400</v>
       </c>
       <c r="F9" s="3">
-        <v>45800</v>
+        <v>40500</v>
       </c>
       <c r="G9" s="3">
-        <v>40300</v>
+        <v>45400</v>
       </c>
       <c r="H9" s="3">
-        <v>24400</v>
+        <v>46000</v>
       </c>
       <c r="I9" s="3">
+        <v>40400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>24600</v>
+      </c>
+      <c r="K9" s="3">
         <v>28000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>25800</v>
-      </c>
-      <c r="K9" s="3">
-        <v>19100</v>
-      </c>
-      <c r="L9" s="3">
-        <v>18400</v>
       </c>
       <c r="M9" s="3">
         <v>19100</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3">
+        <v>18400</v>
+      </c>
+      <c r="O9" s="3">
+        <v>19100</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>13000</v>
+        <v>18200</v>
       </c>
       <c r="E10" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F10" s="3">
+        <v>13100</v>
+      </c>
+      <c r="G10" s="3">
         <v>11100</v>
-      </c>
-      <c r="F10" s="3">
-        <v>9800</v>
-      </c>
-      <c r="G10" s="3">
-        <v>9800</v>
       </c>
       <c r="H10" s="3">
         <v>9800</v>
       </c>
       <c r="I10" s="3">
+        <v>9800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K10" s="3">
         <v>11800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>10700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>8600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>7700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>6900</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,46 +879,54 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>8300</v>
+        <v>8600</v>
       </c>
       <c r="E12" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F12" s="3">
+        <v>8400</v>
+      </c>
+      <c r="G12" s="3">
         <v>8900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>8000</v>
       </c>
-      <c r="G12" s="3">
-        <v>6600</v>
-      </c>
-      <c r="H12" s="3">
-        <v>5000</v>
-      </c>
       <c r="I12" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K12" s="3">
         <v>4400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>4500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>3000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>2300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>2400</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +1007,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>57200</v>
+        <v>65200</v>
       </c>
       <c r="E17" s="3">
-        <v>63600</v>
+        <v>56700</v>
       </c>
       <c r="F17" s="3">
-        <v>60400</v>
+        <v>57400</v>
       </c>
       <c r="G17" s="3">
-        <v>57900</v>
+        <v>63900</v>
       </c>
       <c r="H17" s="3">
-        <v>41500</v>
+        <v>60700</v>
       </c>
       <c r="I17" s="3">
+        <v>58100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>41700</v>
+      </c>
+      <c r="K17" s="3">
         <v>41400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>36100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>28500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>26600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>26900</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-7300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-4800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-7900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-7300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,46 +1176,54 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
+        <v>500</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1160,35 +1233,41 @@
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>-3800</v>
       </c>
-      <c r="G21" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J21" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>500</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,51 +1304,63 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3400</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-4400</v>
       </c>
       <c r="G23" s="3">
         <v>-7400</v>
       </c>
       <c r="H23" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="J23" s="3">
         <v>-6700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1301,8 +1392,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3400</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-4400</v>
       </c>
       <c r="G26" s="3">
         <v>-7400</v>
       </c>
       <c r="H26" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="J26" s="3">
         <v>-6700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1300</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3400</v>
       </c>
-      <c r="E27" s="3">
-        <v>-30800</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-46100</v>
-      </c>
       <c r="G27" s="3">
-        <v>-77500</v>
+        <v>-30900</v>
       </c>
       <c r="H27" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-77900</v>
+      </c>
+      <c r="J27" s="3">
         <v>-17600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-22100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-8900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-13000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-9200</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1700,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3400</v>
       </c>
-      <c r="E33" s="3">
-        <v>-30800</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-46100</v>
-      </c>
       <c r="G33" s="3">
-        <v>-77500</v>
+        <v>-30900</v>
       </c>
       <c r="H33" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-77900</v>
+      </c>
+      <c r="J33" s="3">
         <v>-17600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-22100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-8900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-13000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-9200</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3400</v>
       </c>
-      <c r="E35" s="3">
-        <v>-30800</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-46100</v>
-      </c>
       <c r="G35" s="3">
-        <v>-77500</v>
+        <v>-30900</v>
       </c>
       <c r="H35" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-77900</v>
+      </c>
+      <c r="J35" s="3">
         <v>-17600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-22100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-8900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-13000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-9200</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,31 +1965,33 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>41400</v>
+        <v>48200</v>
       </c>
       <c r="E41" s="3">
-        <v>36700</v>
+        <v>40800</v>
       </c>
       <c r="F41" s="3">
+        <v>41600</v>
+      </c>
+      <c r="G41" s="3">
+        <v>36800</v>
+      </c>
+      <c r="H41" s="3">
         <v>12600</v>
       </c>
-      <c r="G41" s="3">
-        <v>19000</v>
-      </c>
-      <c r="H41" s="3">
-        <v>24600</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+      <c r="I41" s="3">
+        <v>19100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>24700</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1832,23 +2005,29 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12200</v>
+        <v>11200</v>
       </c>
       <c r="E42" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F42" s="3">
+        <v>12300</v>
+      </c>
+      <c r="G42" s="3">
         <v>13100</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1861,41 +2040,47 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F43" s="3">
         <v>1100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1908,8 +2093,14 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,32 +2137,38 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F45" s="3">
         <v>3100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1984,31 +2181,37 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>57800</v>
+        <v>64200</v>
       </c>
       <c r="E46" s="3">
-        <v>54100</v>
+        <v>57900</v>
       </c>
       <c r="F46" s="3">
-        <v>15900</v>
+        <v>58100</v>
       </c>
       <c r="G46" s="3">
-        <v>22500</v>
+        <v>54400</v>
       </c>
       <c r="H46" s="3">
-        <v>26900</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>16000</v>
+      </c>
+      <c r="I46" s="3">
+        <v>22600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>27000</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2022,8 +2225,14 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,32 +2269,38 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="E48" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G48" s="3">
         <v>6500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>4900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>5000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3400</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,13 +2313,19 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E49" s="3">
         <v>300</v>
@@ -2113,16 +2334,16 @@
         <v>300</v>
       </c>
       <c r="G49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H49" s="3">
         <v>300</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>300</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2136,8 +2357,14 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,32 +2445,38 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>600</v>
+      </c>
+      <c r="F52" s="3">
         <v>700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2250,8 +2489,14 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,31 +2533,37 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>65000</v>
+        <v>70900</v>
       </c>
       <c r="E54" s="3">
-        <v>61200</v>
+        <v>65400</v>
       </c>
       <c r="F54" s="3">
-        <v>21400</v>
+        <v>65300</v>
       </c>
       <c r="G54" s="3">
-        <v>28200</v>
+        <v>61500</v>
       </c>
       <c r="H54" s="3">
-        <v>30900</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>21500</v>
+      </c>
+      <c r="I54" s="3">
+        <v>28300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>31000</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2326,8 +2577,14 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,32 +2617,34 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F57" s="3">
         <v>9700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>10100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>11000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>10800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>9400</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2396,23 +2657,29 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F58" s="3">
         <v>7200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>3100</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2425,40 +2692,46 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>20100</v>
+        <v>26100</v>
       </c>
       <c r="E59" s="3">
+        <v>22500</v>
+      </c>
+      <c r="F59" s="3">
         <v>20200</v>
       </c>
-      <c r="F59" s="3">
-        <v>18200</v>
-      </c>
       <c r="G59" s="3">
-        <v>20700</v>
+        <v>20200</v>
       </c>
       <c r="H59" s="3">
-        <v>17600</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>18300</v>
+      </c>
+      <c r="I59" s="3">
+        <v>20800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>17700</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2472,31 +2745,37 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>36900</v>
+        <v>44100</v>
       </c>
       <c r="E60" s="3">
-        <v>33300</v>
+        <v>38100</v>
       </c>
       <c r="F60" s="3">
-        <v>29200</v>
+        <v>37100</v>
       </c>
       <c r="G60" s="3">
-        <v>31500</v>
+        <v>33400</v>
       </c>
       <c r="H60" s="3">
-        <v>27000</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>29400</v>
+      </c>
+      <c r="I60" s="3">
+        <v>31600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>27100</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2510,8 +2789,14 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,23 +2833,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F62" s="3">
         <v>1200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2577,17 +2868,23 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,31 +3009,37 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>38200</v>
+        <v>45000</v>
       </c>
       <c r="E66" s="3">
-        <v>33700</v>
+        <v>39300</v>
       </c>
       <c r="F66" s="3">
-        <v>29200</v>
+        <v>38300</v>
       </c>
       <c r="G66" s="3">
-        <v>31500</v>
+        <v>33800</v>
       </c>
       <c r="H66" s="3">
-        <v>27000</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>29400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>31600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>27100</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2738,8 +3053,14 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2842,19 +3177,19 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>296200</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>254500</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>184400</v>
+        <v>297500</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>255600</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>185200</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,31 +3247,37 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-338800</v>
+        <v>-342100</v>
       </c>
       <c r="E72" s="3">
-        <v>-335500</v>
+        <v>-341200</v>
       </c>
       <c r="F72" s="3">
-        <v>-304700</v>
+        <v>-340300</v>
       </c>
       <c r="G72" s="3">
-        <v>-258600</v>
+        <v>-336900</v>
       </c>
       <c r="H72" s="3">
-        <v>-181100</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>-306000</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-259800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-181900</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2944,8 +3291,14 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,31 +3423,37 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>26800</v>
+        <v>25800</v>
       </c>
       <c r="E76" s="3">
-        <v>27600</v>
+        <v>26100</v>
       </c>
       <c r="F76" s="3">
-        <v>-304000</v>
+        <v>27000</v>
       </c>
       <c r="G76" s="3">
-        <v>-257800</v>
+        <v>27700</v>
       </c>
       <c r="H76" s="3">
-        <v>-180500</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>-305300</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-258900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-181300</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3096,8 +3467,14 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3400</v>
       </c>
-      <c r="E81" s="3">
-        <v>-30800</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-46100</v>
-      </c>
       <c r="G81" s="3">
-        <v>-77500</v>
+        <v>-30900</v>
       </c>
       <c r="H81" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-77900</v>
+      </c>
+      <c r="J81" s="3">
         <v>-17600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-22100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-8900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-13000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-9200</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3242,15 +3639,15 @@
       <c r="E83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3">
         <v>600</v>
       </c>
-      <c r="G83" s="3">
-        <v>500</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3269,8 +3666,14 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,8 +3886,14 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3470,15 +3903,15 @@
       <c r="E89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3">
         <v>-5800</v>
       </c>
-      <c r="G89" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3497,8 +3930,14 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3952,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3524,15 +3965,15 @@
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3551,8 +3992,14 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +4080,14 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3638,15 +4097,15 @@
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3665,8 +4124,14 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,8 +4318,14 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3871,8 +4362,14 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3882,15 +4379,15 @@
       <c r="E101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>400</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3909,8 +4406,14 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3920,15 +4423,15 @@
       <c r="E102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3">
         <v>-6500</v>
       </c>
-      <c r="G102" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3945,6 +4448,12 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LIZI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LIZI_QTR_FIN.xlsx
@@ -737,25 +737,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>64200</v>
+        <v>65600</v>
       </c>
       <c r="E8" s="3">
-        <v>55200</v>
+        <v>56400</v>
       </c>
       <c r="F8" s="3">
-        <v>53600</v>
+        <v>54700</v>
       </c>
       <c r="G8" s="3">
-        <v>56600</v>
+        <v>57800</v>
       </c>
       <c r="H8" s="3">
-        <v>55800</v>
+        <v>57000</v>
       </c>
       <c r="I8" s="3">
-        <v>50200</v>
+        <v>51300</v>
       </c>
       <c r="J8" s="3">
-        <v>34400</v>
+        <v>35100</v>
       </c>
       <c r="K8" s="3">
         <v>39800</v>
@@ -781,25 +781,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>46000</v>
+        <v>47000</v>
       </c>
       <c r="E9" s="3">
+        <v>42300</v>
+      </c>
+      <c r="F9" s="3">
         <v>41400</v>
       </c>
-      <c r="F9" s="3">
-        <v>40500</v>
-      </c>
       <c r="G9" s="3">
-        <v>45400</v>
+        <v>46400</v>
       </c>
       <c r="H9" s="3">
-        <v>46000</v>
+        <v>46900</v>
       </c>
       <c r="I9" s="3">
-        <v>40400</v>
+        <v>41300</v>
       </c>
       <c r="J9" s="3">
-        <v>24600</v>
+        <v>25100</v>
       </c>
       <c r="K9" s="3">
         <v>28000</v>
@@ -825,25 +825,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>18200</v>
+        <v>18600</v>
       </c>
       <c r="E10" s="3">
-        <v>13800</v>
+        <v>14100</v>
       </c>
       <c r="F10" s="3">
-        <v>13100</v>
+        <v>13400</v>
       </c>
       <c r="G10" s="3">
-        <v>11100</v>
+        <v>11400</v>
       </c>
       <c r="H10" s="3">
-        <v>9800</v>
+        <v>10100</v>
       </c>
       <c r="I10" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="J10" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="K10" s="3">
         <v>11800</v>
@@ -887,25 +887,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F12" s="3">
         <v>8600</v>
       </c>
-      <c r="E12" s="3">
-        <v>8500</v>
-      </c>
-      <c r="F12" s="3">
-        <v>8400</v>
-      </c>
       <c r="G12" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="H12" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="I12" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="J12" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="K12" s="3">
         <v>4400</v>
@@ -1078,25 +1078,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>57900</v>
+      </c>
+      <c r="F17" s="3">
+        <v>58700</v>
+      </c>
+      <c r="G17" s="3">
         <v>65200</v>
       </c>
-      <c r="E17" s="3">
-        <v>56700</v>
-      </c>
-      <c r="F17" s="3">
-        <v>57400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>63900</v>
-      </c>
       <c r="H17" s="3">
-        <v>60700</v>
+        <v>61900</v>
       </c>
       <c r="I17" s="3">
-        <v>58100</v>
+        <v>59300</v>
       </c>
       <c r="J17" s="3">
-        <v>41700</v>
+        <v>42600</v>
       </c>
       <c r="K17" s="3">
         <v>41400</v>
@@ -1128,19 +1128,19 @@
         <v>-1500</v>
       </c>
       <c r="F18" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="G18" s="3">
-        <v>-7300</v>
+        <v>-7400</v>
       </c>
       <c r="H18" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="I18" s="3">
-        <v>-7900</v>
+        <v>-8100</v>
       </c>
       <c r="J18" s="3">
-        <v>-7300</v>
+        <v>-7500</v>
       </c>
       <c r="K18" s="3">
         <v>-1600</v>
@@ -1240,13 +1240,13 @@
         <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J21" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1316,7 +1316,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="E23" s="3">
         <v>-900</v>
@@ -1325,16 +1325,16 @@
         <v>-3400</v>
       </c>
       <c r="G23" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="H23" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="I23" s="3">
-        <v>-7400</v>
+        <v>-7600</v>
       </c>
       <c r="J23" s="3">
-        <v>-6700</v>
+        <v>-6900</v>
       </c>
       <c r="K23" s="3">
         <v>-1700</v>
@@ -1457,16 +1457,16 @@
         <v>-3400</v>
       </c>
       <c r="G26" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="H26" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="I26" s="3">
-        <v>-7400</v>
+        <v>-7600</v>
       </c>
       <c r="J26" s="3">
-        <v>-6700</v>
+        <v>-6900</v>
       </c>
       <c r="K26" s="3">
         <v>-1700</v>
@@ -1501,16 +1501,16 @@
         <v>-3400</v>
       </c>
       <c r="G27" s="3">
-        <v>-30900</v>
+        <v>-31600</v>
       </c>
       <c r="H27" s="3">
-        <v>-46300</v>
+        <v>-47200</v>
       </c>
       <c r="I27" s="3">
-        <v>-77900</v>
+        <v>-79500</v>
       </c>
       <c r="J27" s="3">
-        <v>-17600</v>
+        <v>-18000</v>
       </c>
       <c r="K27" s="3">
         <v>-22100</v>
@@ -1765,16 +1765,16 @@
         <v>-3400</v>
       </c>
       <c r="G33" s="3">
-        <v>-30900</v>
+        <v>-31600</v>
       </c>
       <c r="H33" s="3">
-        <v>-46300</v>
+        <v>-47200</v>
       </c>
       <c r="I33" s="3">
-        <v>-77900</v>
+        <v>-79500</v>
       </c>
       <c r="J33" s="3">
-        <v>-17600</v>
+        <v>-18000</v>
       </c>
       <c r="K33" s="3">
         <v>-22100</v>
@@ -1853,16 +1853,16 @@
         <v>-3400</v>
       </c>
       <c r="G35" s="3">
-        <v>-30900</v>
+        <v>-31600</v>
       </c>
       <c r="H35" s="3">
-        <v>-46300</v>
+        <v>-47200</v>
       </c>
       <c r="I35" s="3">
-        <v>-77900</v>
+        <v>-79500</v>
       </c>
       <c r="J35" s="3">
-        <v>-17600</v>
+        <v>-18000</v>
       </c>
       <c r="K35" s="3">
         <v>-22100</v>
@@ -1973,25 +1973,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>48200</v>
+        <v>49200</v>
       </c>
       <c r="E41" s="3">
-        <v>40800</v>
+        <v>41600</v>
       </c>
       <c r="F41" s="3">
-        <v>41600</v>
+        <v>42500</v>
       </c>
       <c r="G41" s="3">
-        <v>36800</v>
+        <v>37600</v>
       </c>
       <c r="H41" s="3">
-        <v>12600</v>
+        <v>12900</v>
       </c>
       <c r="I41" s="3">
-        <v>19100</v>
+        <v>19500</v>
       </c>
       <c r="J41" s="3">
-        <v>24700</v>
+        <v>25200</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -2017,16 +2017,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="E42" s="3">
-        <v>12300</v>
+        <v>12600</v>
       </c>
       <c r="F42" s="3">
-        <v>12300</v>
+        <v>12500</v>
       </c>
       <c r="G42" s="3">
-        <v>13100</v>
+        <v>13400</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -2070,13 +2070,13 @@
         <v>1100</v>
       </c>
       <c r="G43" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H43" s="3">
         <v>1000</v>
       </c>
       <c r="I43" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J43" s="3">
         <v>1100</v>
@@ -2149,25 +2149,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E45" s="3">
         <v>3500</v>
-      </c>
-      <c r="E45" s="3">
-        <v>3400</v>
       </c>
       <c r="F45" s="3">
         <v>3100</v>
       </c>
       <c r="G45" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="H45" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I45" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="J45" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2193,25 +2193,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>64200</v>
+        <v>65500</v>
       </c>
       <c r="E46" s="3">
-        <v>57900</v>
+        <v>59100</v>
       </c>
       <c r="F46" s="3">
-        <v>58100</v>
+        <v>59300</v>
       </c>
       <c r="G46" s="3">
-        <v>54400</v>
+        <v>55500</v>
       </c>
       <c r="H46" s="3">
-        <v>16000</v>
+        <v>16300</v>
       </c>
       <c r="I46" s="3">
-        <v>22600</v>
+        <v>23100</v>
       </c>
       <c r="J46" s="3">
-        <v>27000</v>
+        <v>27600</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2281,25 +2281,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="E48" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G48" s="3">
         <v>6700</v>
       </c>
-      <c r="F48" s="3">
-        <v>6200</v>
-      </c>
-      <c r="G48" s="3">
-        <v>6500</v>
-      </c>
       <c r="H48" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="I48" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="J48" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2325,7 +2325,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E49" s="3">
         <v>300</v>
@@ -2340,7 +2340,7 @@
         <v>300</v>
       </c>
       <c r="I49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J49" s="3">
         <v>300</v>
@@ -2463,7 +2463,7 @@
         <v>600</v>
       </c>
       <c r="F52" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G52" s="3">
         <v>300</v>
@@ -2545,25 +2545,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>70900</v>
+        <v>72400</v>
       </c>
       <c r="E54" s="3">
-        <v>65400</v>
+        <v>66800</v>
       </c>
       <c r="F54" s="3">
-        <v>65300</v>
+        <v>66600</v>
       </c>
       <c r="G54" s="3">
-        <v>61500</v>
+        <v>62800</v>
       </c>
       <c r="H54" s="3">
-        <v>21500</v>
+        <v>21900</v>
       </c>
       <c r="I54" s="3">
-        <v>28300</v>
+        <v>28900</v>
       </c>
       <c r="J54" s="3">
-        <v>31000</v>
+        <v>31700</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2625,25 +2625,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12000</v>
+        <v>12200</v>
       </c>
       <c r="E57" s="3">
-        <v>9100</v>
+        <v>9300</v>
       </c>
       <c r="F57" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="G57" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="H57" s="3">
-        <v>11000</v>
+        <v>11300</v>
       </c>
       <c r="I57" s="3">
-        <v>10800</v>
+        <v>11100</v>
       </c>
       <c r="J57" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2669,13 +2669,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="E58" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="F58" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="G58" s="3">
         <v>3100</v>
@@ -2713,25 +2713,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>26100</v>
+        <v>26700</v>
       </c>
       <c r="E59" s="3">
-        <v>22500</v>
+        <v>22900</v>
       </c>
       <c r="F59" s="3">
-        <v>20200</v>
+        <v>20600</v>
       </c>
       <c r="G59" s="3">
-        <v>20200</v>
+        <v>20700</v>
       </c>
       <c r="H59" s="3">
-        <v>18300</v>
+        <v>18700</v>
       </c>
       <c r="I59" s="3">
-        <v>20800</v>
+        <v>21200</v>
       </c>
       <c r="J59" s="3">
-        <v>17700</v>
+        <v>18100</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2757,25 +2757,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>44100</v>
+        <v>45000</v>
       </c>
       <c r="E60" s="3">
-        <v>38100</v>
+        <v>39000</v>
       </c>
       <c r="F60" s="3">
-        <v>37100</v>
+        <v>37900</v>
       </c>
       <c r="G60" s="3">
-        <v>33400</v>
+        <v>34100</v>
       </c>
       <c r="H60" s="3">
-        <v>29400</v>
+        <v>30000</v>
       </c>
       <c r="I60" s="3">
-        <v>31600</v>
+        <v>32300</v>
       </c>
       <c r="J60" s="3">
-        <v>27100</v>
+        <v>27700</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2848,7 +2848,7 @@
         <v>900</v>
       </c>
       <c r="E62" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F62" s="3">
         <v>1200</v>
@@ -3021,25 +3021,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>45000</v>
+        <v>46000</v>
       </c>
       <c r="E66" s="3">
-        <v>39300</v>
+        <v>40100</v>
       </c>
       <c r="F66" s="3">
-        <v>38300</v>
+        <v>39100</v>
       </c>
       <c r="G66" s="3">
-        <v>33800</v>
+        <v>34500</v>
       </c>
       <c r="H66" s="3">
-        <v>29400</v>
+        <v>30000</v>
       </c>
       <c r="I66" s="3">
-        <v>31600</v>
+        <v>32300</v>
       </c>
       <c r="J66" s="3">
-        <v>27100</v>
+        <v>27700</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -3183,13 +3183,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>297500</v>
+        <v>303700</v>
       </c>
       <c r="I70" s="3">
-        <v>255600</v>
+        <v>261000</v>
       </c>
       <c r="J70" s="3">
-        <v>185200</v>
+        <v>189100</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3259,25 +3259,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-342100</v>
+        <v>-349400</v>
       </c>
       <c r="E72" s="3">
-        <v>-341200</v>
+        <v>-348400</v>
       </c>
       <c r="F72" s="3">
-        <v>-340300</v>
+        <v>-347500</v>
       </c>
       <c r="G72" s="3">
-        <v>-336900</v>
+        <v>-344100</v>
       </c>
       <c r="H72" s="3">
-        <v>-306000</v>
+        <v>-312500</v>
       </c>
       <c r="I72" s="3">
-        <v>-259800</v>
+        <v>-265300</v>
       </c>
       <c r="J72" s="3">
-        <v>-181900</v>
+        <v>-185800</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3435,25 +3435,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>25800</v>
+        <v>26400</v>
       </c>
       <c r="E76" s="3">
-        <v>26100</v>
+        <v>26700</v>
       </c>
       <c r="F76" s="3">
-        <v>27000</v>
+        <v>27500</v>
       </c>
       <c r="G76" s="3">
-        <v>27700</v>
+        <v>28300</v>
       </c>
       <c r="H76" s="3">
-        <v>-305300</v>
+        <v>-311800</v>
       </c>
       <c r="I76" s="3">
-        <v>-258900</v>
+        <v>-264400</v>
       </c>
       <c r="J76" s="3">
-        <v>-181300</v>
+        <v>-185100</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3581,16 +3581,16 @@
         <v>-3400</v>
       </c>
       <c r="G81" s="3">
-        <v>-30900</v>
+        <v>-31600</v>
       </c>
       <c r="H81" s="3">
-        <v>-46300</v>
+        <v>-47200</v>
       </c>
       <c r="I81" s="3">
-        <v>-77900</v>
+        <v>-79500</v>
       </c>
       <c r="J81" s="3">
-        <v>-17600</v>
+        <v>-18000</v>
       </c>
       <c r="K81" s="3">
         <v>-22100</v>
@@ -3910,7 +3910,7 @@
         <v>3</v>
       </c>
       <c r="H89" s="3">
-        <v>-5800</v>
+        <v>-6000</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -4430,7 +4430,7 @@
         <v>3</v>
       </c>
       <c r="H102" s="3">
-        <v>-6500</v>
+        <v>-6600</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/LIZI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LIZI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
   <si>
     <t>LIZI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>65600</v>
+        <v>76200</v>
       </c>
       <c r="E8" s="3">
-        <v>56400</v>
+        <v>64700</v>
       </c>
       <c r="F8" s="3">
-        <v>54700</v>
+        <v>55700</v>
       </c>
       <c r="G8" s="3">
-        <v>57800</v>
+        <v>54000</v>
       </c>
       <c r="H8" s="3">
         <v>57000</v>
       </c>
       <c r="I8" s="3">
-        <v>51300</v>
+        <v>56200</v>
       </c>
       <c r="J8" s="3">
+        <v>50600</v>
+      </c>
+      <c r="K8" s="3">
         <v>35100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>39800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>36500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>27800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>26100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>26000</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>47000</v>
+        <v>57000</v>
       </c>
       <c r="E9" s="3">
-        <v>42300</v>
+        <v>46400</v>
       </c>
       <c r="F9" s="3">
-        <v>41400</v>
+        <v>41700</v>
       </c>
       <c r="G9" s="3">
-        <v>46400</v>
+        <v>40800</v>
       </c>
       <c r="H9" s="3">
-        <v>46900</v>
+        <v>45800</v>
       </c>
       <c r="I9" s="3">
-        <v>41300</v>
+        <v>46300</v>
       </c>
       <c r="J9" s="3">
+        <v>40700</v>
+      </c>
+      <c r="K9" s="3">
         <v>25100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>28000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>25800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>19100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>18400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>19100</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>18600</v>
+        <v>19300</v>
       </c>
       <c r="E10" s="3">
-        <v>14100</v>
+        <v>18300</v>
       </c>
       <c r="F10" s="3">
-        <v>13400</v>
+        <v>14000</v>
       </c>
       <c r="G10" s="3">
-        <v>11400</v>
+        <v>13200</v>
       </c>
       <c r="H10" s="3">
-        <v>10100</v>
+        <v>11200</v>
       </c>
       <c r="I10" s="3">
+        <v>9900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K10" s="3">
         <v>10000</v>
       </c>
-      <c r="J10" s="3">
-        <v>10000</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>10700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6900</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -896,37 +910,40 @@
         <v>8600</v>
       </c>
       <c r="G12" s="3">
-        <v>9100</v>
+        <v>8400</v>
       </c>
       <c r="H12" s="3">
-        <v>8200</v>
+        <v>9000</v>
       </c>
       <c r="I12" s="3">
-        <v>6800</v>
+        <v>8100</v>
       </c>
       <c r="J12" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K12" s="3">
         <v>5200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2400</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>66600</v>
+        <v>87300</v>
       </c>
       <c r="E17" s="3">
+        <v>65700</v>
+      </c>
+      <c r="F17" s="3">
+        <v>57100</v>
+      </c>
+      <c r="G17" s="3">
         <v>57900</v>
       </c>
-      <c r="F17" s="3">
-        <v>58700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>65200</v>
-      </c>
       <c r="H17" s="3">
-        <v>61900</v>
+        <v>64400</v>
       </c>
       <c r="I17" s="3">
-        <v>59300</v>
+        <v>61100</v>
       </c>
       <c r="J17" s="3">
+        <v>58600</v>
+      </c>
+      <c r="K17" s="3">
         <v>42600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>41400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>36100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>28500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>26600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>26900</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3900</v>
       </c>
-      <c r="G18" s="3">
-        <v>-7400</v>
-      </c>
       <c r="H18" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-4900</v>
       </c>
-      <c r="I18" s="3">
-        <v>-8100</v>
-      </c>
       <c r="J18" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-7500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,52 +1211,56 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
-      </c>
-      <c r="E20" s="3">
-        <v>500</v>
       </c>
       <c r="F20" s="3">
         <v>500</v>
       </c>
       <c r="G20" s="3">
+        <v>500</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-100</v>
       </c>
       <c r="L20" s="3">
         <v>-100</v>
       </c>
       <c r="M20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1239,35 +1276,38 @@
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
-        <v>-3900</v>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J21" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-6100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>1800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>500</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,61 +1350,67 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-800</v>
+        <v>-10800</v>
       </c>
       <c r="E23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="J23" s="3">
         <v>-7500</v>
       </c>
-      <c r="H23" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-200</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
       <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
         <v>-1300</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-900</v>
+        <v>-10800</v>
       </c>
       <c r="E26" s="3">
         <v>-900</v>
       </c>
       <c r="F26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G26" s="3">
         <v>-3400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-7500</v>
       </c>
-      <c r="H26" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-200</v>
       </c>
       <c r="N26" s="3">
         <v>-200</v>
       </c>
       <c r="O26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P26" s="3">
         <v>-1300</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-900</v>
+        <v>-10800</v>
       </c>
       <c r="E27" s="3">
         <v>-900</v>
       </c>
       <c r="F27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G27" s="3">
         <v>-3400</v>
       </c>
-      <c r="G27" s="3">
-        <v>-31600</v>
-      </c>
       <c r="H27" s="3">
-        <v>-47200</v>
+        <v>-31200</v>
       </c>
       <c r="I27" s="3">
-        <v>-79500</v>
+        <v>-46600</v>
       </c>
       <c r="J27" s="3">
+        <v>-78500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-18000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-22100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-13000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9200</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-500</v>
       </c>
       <c r="F32" s="3">
         <v>-500</v>
       </c>
       <c r="G32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
-      </c>
-      <c r="K32" s="3">
-        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>100</v>
       </c>
       <c r="M32" s="3">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-900</v>
+        <v>-10800</v>
       </c>
       <c r="E33" s="3">
         <v>-900</v>
       </c>
       <c r="F33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G33" s="3">
         <v>-3400</v>
       </c>
-      <c r="G33" s="3">
-        <v>-31600</v>
-      </c>
       <c r="H33" s="3">
-        <v>-47200</v>
+        <v>-31200</v>
       </c>
       <c r="I33" s="3">
-        <v>-79500</v>
+        <v>-46600</v>
       </c>
       <c r="J33" s="3">
+        <v>-78500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-18000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-22100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9200</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-900</v>
+        <v>-10800</v>
       </c>
       <c r="E35" s="3">
         <v>-900</v>
       </c>
       <c r="F35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G35" s="3">
         <v>-3400</v>
       </c>
-      <c r="G35" s="3">
-        <v>-31600</v>
-      </c>
       <c r="H35" s="3">
-        <v>-47200</v>
+        <v>-31200</v>
       </c>
       <c r="I35" s="3">
-        <v>-79500</v>
+        <v>-46600</v>
       </c>
       <c r="J35" s="3">
+        <v>-78500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-18000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-22100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9200</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,35 +2053,36 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>49200</v>
+        <v>46900</v>
       </c>
       <c r="E41" s="3">
-        <v>41600</v>
+        <v>48600</v>
       </c>
       <c r="F41" s="3">
-        <v>42500</v>
+        <v>41100</v>
       </c>
       <c r="G41" s="3">
-        <v>37600</v>
+        <v>41900</v>
       </c>
       <c r="H41" s="3">
-        <v>12900</v>
+        <v>37100</v>
       </c>
       <c r="I41" s="3">
-        <v>19500</v>
+        <v>12700</v>
       </c>
       <c r="J41" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K41" s="3">
         <v>25200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2011,25 +2098,28 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>11400</v>
+        <v>1600</v>
       </c>
       <c r="E42" s="3">
-        <v>12600</v>
+        <v>11200</v>
       </c>
       <c r="F42" s="3">
-        <v>12500</v>
+        <v>12400</v>
       </c>
       <c r="G42" s="3">
-        <v>13400</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+        <v>12400</v>
+      </c>
+      <c r="H42" s="3">
+        <v>13200</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -2046,8 +2136,8 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2055,35 +2145,38 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
         <v>1300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,35 +2239,38 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E45" s="3">
         <v>3600</v>
       </c>
-      <c r="E45" s="3">
-        <v>3500</v>
-      </c>
       <c r="F45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G45" s="3">
         <v>3100</v>
       </c>
-      <c r="G45" s="3">
-        <v>3900</v>
-      </c>
       <c r="H45" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I45" s="3">
         <v>2400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1300</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,35 +2286,38 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>65500</v>
+        <v>55500</v>
       </c>
       <c r="E46" s="3">
-        <v>59100</v>
+        <v>64700</v>
       </c>
       <c r="F46" s="3">
-        <v>59300</v>
+        <v>58300</v>
       </c>
       <c r="G46" s="3">
-        <v>55500</v>
+        <v>58500</v>
       </c>
       <c r="H46" s="3">
-        <v>16300</v>
+        <v>54800</v>
       </c>
       <c r="I46" s="3">
-        <v>23100</v>
+        <v>16100</v>
       </c>
       <c r="J46" s="3">
+        <v>22800</v>
+      </c>
+      <c r="K46" s="3">
         <v>27600</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,35 +2380,38 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="E48" s="3">
-        <v>6800</v>
+        <v>6000</v>
       </c>
       <c r="F48" s="3">
-        <v>6300</v>
+        <v>6700</v>
       </c>
       <c r="G48" s="3">
-        <v>6700</v>
+        <v>6200</v>
       </c>
       <c r="H48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J48" s="3">
         <v>5100</v>
       </c>
-      <c r="I48" s="3">
-        <v>5100</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3500</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2319,16 +2427,19 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>400</v>
+      </c>
+      <c r="E49" s="3">
         <v>500</v>
-      </c>
-      <c r="E49" s="3">
-        <v>300</v>
       </c>
       <c r="F49" s="3">
         <v>300</v>
@@ -2345,8 +2456,8 @@
       <c r="J49" s="3">
         <v>300</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
+      <c r="K49" s="3">
+        <v>300</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2460,26 +2580,26 @@
         <v>300</v>
       </c>
       <c r="E52" s="3">
+        <v>300</v>
+      </c>
+      <c r="F52" s="3">
         <v>600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>800</v>
-      </c>
-      <c r="G52" s="3">
-        <v>300</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
       </c>
       <c r="I52" s="3">
+        <v>300</v>
+      </c>
+      <c r="J52" s="3">
         <v>500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,35 +2662,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>72400</v>
+        <v>62500</v>
       </c>
       <c r="E54" s="3">
-        <v>66800</v>
+        <v>71400</v>
       </c>
       <c r="F54" s="3">
-        <v>66600</v>
+        <v>65900</v>
       </c>
       <c r="G54" s="3">
-        <v>62800</v>
+        <v>65800</v>
       </c>
       <c r="H54" s="3">
-        <v>21900</v>
+        <v>62000</v>
       </c>
       <c r="I54" s="3">
-        <v>28900</v>
+        <v>21700</v>
       </c>
       <c r="J54" s="3">
+        <v>28600</v>
+      </c>
+      <c r="K54" s="3">
         <v>31700</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,35 +2749,36 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12200</v>
+        <v>10800</v>
       </c>
       <c r="E57" s="3">
-        <v>9300</v>
+        <v>12100</v>
       </c>
       <c r="F57" s="3">
-        <v>9900</v>
+        <v>9200</v>
       </c>
       <c r="G57" s="3">
-        <v>10300</v>
+        <v>9800</v>
       </c>
       <c r="H57" s="3">
-        <v>11300</v>
+        <v>10200</v>
       </c>
       <c r="I57" s="3">
         <v>11100</v>
       </c>
       <c r="J57" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K57" s="3">
         <v>9600</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2663,26 +2794,29 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6200</v>
+        <v>5400</v>
       </c>
       <c r="E58" s="3">
-        <v>6700</v>
+        <v>6100</v>
       </c>
       <c r="F58" s="3">
-        <v>7400</v>
+        <v>6600</v>
       </c>
       <c r="G58" s="3">
+        <v>7300</v>
+      </c>
+      <c r="H58" s="3">
         <v>3100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2698,8 +2832,8 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -2707,35 +2841,38 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>26700</v>
+        <v>28300</v>
       </c>
       <c r="E59" s="3">
-        <v>22900</v>
+        <v>26300</v>
       </c>
       <c r="F59" s="3">
-        <v>20600</v>
+        <v>22600</v>
       </c>
       <c r="G59" s="3">
-        <v>20700</v>
+        <v>20300</v>
       </c>
       <c r="H59" s="3">
-        <v>18700</v>
+        <v>20400</v>
       </c>
       <c r="I59" s="3">
-        <v>21200</v>
+        <v>18500</v>
       </c>
       <c r="J59" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K59" s="3">
         <v>18100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,35 +2888,38 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>45000</v>
+        <v>44500</v>
       </c>
       <c r="E60" s="3">
-        <v>39000</v>
+        <v>44400</v>
       </c>
       <c r="F60" s="3">
-        <v>37900</v>
+        <v>38400</v>
       </c>
       <c r="G60" s="3">
-        <v>34100</v>
+        <v>37400</v>
       </c>
       <c r="H60" s="3">
-        <v>30000</v>
+        <v>33700</v>
       </c>
       <c r="I60" s="3">
-        <v>32300</v>
+        <v>29600</v>
       </c>
       <c r="J60" s="3">
+        <v>31900</v>
+      </c>
+      <c r="K60" s="3">
         <v>27700</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,8 +2935,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,26 +2982,29 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G62" s="3">
         <v>1200</v>
       </c>
-      <c r="F62" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2874,8 +3020,8 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,35 +3170,38 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>46000</v>
+        <v>45900</v>
       </c>
       <c r="E66" s="3">
-        <v>40100</v>
+        <v>45400</v>
       </c>
       <c r="F66" s="3">
-        <v>39100</v>
+        <v>39600</v>
       </c>
       <c r="G66" s="3">
-        <v>34500</v>
+        <v>38600</v>
       </c>
       <c r="H66" s="3">
-        <v>30000</v>
+        <v>34100</v>
       </c>
       <c r="I66" s="3">
-        <v>32300</v>
+        <v>29600</v>
       </c>
       <c r="J66" s="3">
+        <v>31900</v>
+      </c>
+      <c r="K66" s="3">
         <v>27700</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3183,17 +3351,17 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>303700</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>261000</v>
+        <v>299800</v>
       </c>
       <c r="J70" s="3">
+        <v>257600</v>
+      </c>
+      <c r="K70" s="3">
         <v>189100</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,35 +3424,38 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-349400</v>
+        <v>-355600</v>
       </c>
       <c r="E72" s="3">
-        <v>-348400</v>
+        <v>-344800</v>
       </c>
       <c r="F72" s="3">
-        <v>-347500</v>
+        <v>-343900</v>
       </c>
       <c r="G72" s="3">
-        <v>-344100</v>
+        <v>-343000</v>
       </c>
       <c r="H72" s="3">
-        <v>-312500</v>
+        <v>-339600</v>
       </c>
       <c r="I72" s="3">
-        <v>-265300</v>
+        <v>-308400</v>
       </c>
       <c r="J72" s="3">
+        <v>-261800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-185800</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,35 +3612,38 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>26100</v>
+      </c>
+      <c r="F76" s="3">
         <v>26400</v>
       </c>
-      <c r="E76" s="3">
-        <v>26700</v>
-      </c>
-      <c r="F76" s="3">
-        <v>27500</v>
-      </c>
       <c r="G76" s="3">
-        <v>28300</v>
+        <v>27200</v>
       </c>
       <c r="H76" s="3">
-        <v>-311800</v>
+        <v>27900</v>
       </c>
       <c r="I76" s="3">
-        <v>-264400</v>
+        <v>-307700</v>
       </c>
       <c r="J76" s="3">
+        <v>-260900</v>
+      </c>
+      <c r="K76" s="3">
         <v>-185100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-900</v>
+        <v>-10800</v>
       </c>
       <c r="E81" s="3">
         <v>-900</v>
       </c>
       <c r="F81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G81" s="3">
         <v>-3400</v>
       </c>
-      <c r="G81" s="3">
-        <v>-31600</v>
-      </c>
       <c r="H81" s="3">
-        <v>-47200</v>
+        <v>-31200</v>
       </c>
       <c r="I81" s="3">
-        <v>-79500</v>
+        <v>-46600</v>
       </c>
       <c r="J81" s="3">
+        <v>-78500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-18000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-22100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9200</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,31 +3826,32 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>600</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,31 +4106,34 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,31 +4174,32 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,31 +4313,34 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,31 +4614,34 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -4412,31 +4661,34 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -4454,6 +4706,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LIZI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LIZI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
   <si>
     <t>LIZI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,245 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>76200</v>
+        <v>79000</v>
       </c>
       <c r="E8" s="3">
-        <v>64700</v>
+        <v>87600</v>
       </c>
       <c r="F8" s="3">
-        <v>55700</v>
+        <v>77500</v>
       </c>
       <c r="G8" s="3">
-        <v>54000</v>
+        <v>65800</v>
       </c>
       <c r="H8" s="3">
-        <v>57000</v>
+        <v>56600</v>
       </c>
       <c r="I8" s="3">
+        <v>54900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>58000</v>
+      </c>
+      <c r="K8" s="3">
         <v>56200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>50600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>35100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>39800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>36500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>27800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>26100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>26000</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>57000</v>
+        <v>55400</v>
       </c>
       <c r="E9" s="3">
-        <v>46400</v>
+        <v>62700</v>
       </c>
       <c r="F9" s="3">
-        <v>41700</v>
+        <v>57900</v>
       </c>
       <c r="G9" s="3">
-        <v>40800</v>
+        <v>47200</v>
       </c>
       <c r="H9" s="3">
-        <v>45800</v>
+        <v>42400</v>
       </c>
       <c r="I9" s="3">
+        <v>41500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>46600</v>
+      </c>
+      <c r="K9" s="3">
         <v>46300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>40700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>25100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>28000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>25800</v>
-      </c>
-      <c r="N9" s="3">
-        <v>19100</v>
-      </c>
-      <c r="O9" s="3">
-        <v>18400</v>
       </c>
       <c r="P9" s="3">
         <v>19100</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>18400</v>
+      </c>
+      <c r="R9" s="3">
+        <v>19100</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>19300</v>
+        <v>23700</v>
       </c>
       <c r="E10" s="3">
-        <v>18300</v>
+        <v>24900</v>
       </c>
       <c r="F10" s="3">
-        <v>14000</v>
+        <v>19600</v>
       </c>
       <c r="G10" s="3">
-        <v>13200</v>
+        <v>18600</v>
       </c>
       <c r="H10" s="3">
-        <v>11200</v>
+        <v>14200</v>
       </c>
       <c r="I10" s="3">
+        <v>13400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K10" s="3">
         <v>9900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>9900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>10000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>11800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>10700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>8600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>7700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>6900</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,55 +921,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F12" s="3">
+        <v>8900</v>
+      </c>
+      <c r="G12" s="3">
         <v>8800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="H12" s="3">
         <v>8700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="I12" s="3">
         <v>8600</v>
       </c>
-      <c r="G12" s="3">
-        <v>8400</v>
-      </c>
-      <c r="H12" s="3">
-        <v>9000</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K12" s="3">
         <v>8100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>6700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>5200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>4400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>4500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>3000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>2300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>2400</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1023,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1076,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1129,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1151,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>87300</v>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>65700</v>
+        <v>92500</v>
       </c>
       <c r="F17" s="3">
-        <v>57100</v>
+        <v>88800</v>
       </c>
       <c r="G17" s="3">
-        <v>57900</v>
+        <v>66800</v>
       </c>
       <c r="H17" s="3">
-        <v>64400</v>
+        <v>58100</v>
       </c>
       <c r="I17" s="3">
+        <v>58900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>65400</v>
+      </c>
+      <c r="K17" s="3">
         <v>61100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>58600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>42600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>41400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>36100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>28500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>26600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>26900</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-11100</v>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-3900</v>
       </c>
-      <c r="H18" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-4900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-8000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-7500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,55 +1278,63 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1282,32 +1356,38 @@
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-6200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-6100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>1800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>500</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,70 +1433,82 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-10800</v>
+        <v>-5800</v>
       </c>
       <c r="E23" s="3">
-        <v>-700</v>
+        <v>-4500</v>
       </c>
       <c r="F23" s="3">
-        <v>-900</v>
+        <v>-11000</v>
       </c>
       <c r="G23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-3400</v>
       </c>
-      <c r="H23" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-4500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-7500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-6900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1447,8 +1539,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1592,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-10800</v>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E26" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
-        <v>-900</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-3400</v>
       </c>
-      <c r="H26" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-4500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-7500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-6900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-10800</v>
+      <c r="D27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E27" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
-        <v>-900</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-3400</v>
       </c>
-      <c r="H27" s="3">
-        <v>-31200</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-46600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-78500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-18000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-22100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-8900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-13000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1751,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1804,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1857,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1910,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-10800</v>
+      <c r="D33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E33" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
-        <v>-900</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-3400</v>
       </c>
-      <c r="H33" s="3">
-        <v>-31200</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-46600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-78500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-18000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-22100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-8900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-13000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2069,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-10800</v>
+      <c r="D35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E35" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
-        <v>-900</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-3400</v>
       </c>
-      <c r="H35" s="3">
-        <v>-31200</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-46600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-78500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-18000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-22100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-8900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-13000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2205,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,41 +2226,43 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>46900</v>
+        <v>80100</v>
       </c>
       <c r="E41" s="3">
-        <v>48600</v>
+        <v>76700</v>
       </c>
       <c r="F41" s="3">
-        <v>41100</v>
+        <v>47700</v>
       </c>
       <c r="G41" s="3">
-        <v>41900</v>
+        <v>49400</v>
       </c>
       <c r="H41" s="3">
-        <v>37100</v>
+        <v>41800</v>
       </c>
       <c r="I41" s="3">
+        <v>42600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>37700</v>
+      </c>
+      <c r="K41" s="3">
         <v>12700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>19300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>25200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2101,31 +2275,37 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>300</v>
+      </c>
+      <c r="F42" s="3">
         <v>1600</v>
       </c>
-      <c r="E42" s="3">
-        <v>11200</v>
-      </c>
-      <c r="F42" s="3">
-        <v>12400</v>
-      </c>
       <c r="G42" s="3">
-        <v>12400</v>
+        <v>11400</v>
       </c>
       <c r="H42" s="3">
-        <v>13200</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+        <v>12600</v>
+      </c>
+      <c r="I42" s="3">
+        <v>12600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>13500</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -2139,50 +2319,56 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="E43" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F43" s="3">
         <v>1400</v>
       </c>
       <c r="G43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I43" s="3">
         <v>1100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2381,14 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,41 +2434,47 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5600</v>
+        <v>6300</v>
       </c>
       <c r="E45" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F45" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G45" s="3">
         <v>3600</v>
       </c>
-      <c r="F45" s="3">
-        <v>3400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>3100</v>
-      </c>
       <c r="H45" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="I45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K45" s="3">
         <v>2400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1300</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,41 +2487,47 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>55500</v>
+        <v>87600</v>
       </c>
       <c r="E46" s="3">
-        <v>64700</v>
+        <v>84600</v>
       </c>
       <c r="F46" s="3">
-        <v>58300</v>
+        <v>56500</v>
       </c>
       <c r="G46" s="3">
-        <v>58500</v>
+        <v>65700</v>
       </c>
       <c r="H46" s="3">
-        <v>54800</v>
+        <v>59300</v>
       </c>
       <c r="I46" s="3">
+        <v>59500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>55700</v>
+      </c>
+      <c r="K46" s="3">
         <v>16100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>22800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>27600</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2336,8 +2540,14 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,41 +2593,47 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H48" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I48" s="3">
         <v>6300</v>
       </c>
-      <c r="E48" s="3">
-        <v>6000</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="J48" s="3">
         <v>6700</v>
       </c>
-      <c r="G48" s="3">
-        <v>6200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>6600</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>5000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3500</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2430,8 +2646,14 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2439,13 +2661,13 @@
         <v>400</v>
       </c>
       <c r="E49" s="3">
+        <v>400</v>
+      </c>
+      <c r="F49" s="3">
+        <v>400</v>
+      </c>
+      <c r="G49" s="3">
         <v>500</v>
-      </c>
-      <c r="F49" s="3">
-        <v>300</v>
-      </c>
-      <c r="G49" s="3">
-        <v>300</v>
       </c>
       <c r="H49" s="3">
         <v>300</v>
@@ -2459,11 +2681,11 @@
       <c r="K49" s="3">
         <v>300</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
+      <c r="L49" s="3">
+        <v>300</v>
+      </c>
+      <c r="M49" s="3">
+        <v>300</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
@@ -2477,8 +2699,14 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2752,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,41 +2805,47 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>200</v>
+      </c>
+      <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2618,8 +2858,14 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,41 +2911,47 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>62500</v>
+        <v>96300</v>
       </c>
       <c r="E54" s="3">
-        <v>71400</v>
+        <v>93800</v>
       </c>
       <c r="F54" s="3">
-        <v>65900</v>
+        <v>63600</v>
       </c>
       <c r="G54" s="3">
-        <v>65800</v>
+        <v>72600</v>
       </c>
       <c r="H54" s="3">
-        <v>62000</v>
+        <v>67000</v>
       </c>
       <c r="I54" s="3">
+        <v>66900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>63000</v>
+      </c>
+      <c r="K54" s="3">
         <v>21700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>28600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>31700</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2712,8 +2964,14 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2989,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,41 +3010,43 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10800</v>
+        <v>11100</v>
       </c>
       <c r="E57" s="3">
-        <v>12100</v>
+        <v>11200</v>
       </c>
       <c r="F57" s="3">
-        <v>9200</v>
+        <v>10900</v>
       </c>
       <c r="G57" s="3">
-        <v>9800</v>
+        <v>12300</v>
       </c>
       <c r="H57" s="3">
-        <v>10200</v>
+        <v>9400</v>
       </c>
       <c r="I57" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K57" s="3">
         <v>11100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>10900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>9600</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,32 +3059,38 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5400</v>
+        <v>9000</v>
       </c>
       <c r="E58" s="3">
-        <v>6100</v>
+        <v>5500</v>
       </c>
       <c r="F58" s="3">
-        <v>6600</v>
+        <v>5500</v>
       </c>
       <c r="G58" s="3">
-        <v>7300</v>
+        <v>6200</v>
       </c>
       <c r="H58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="I58" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J58" s="3">
         <v>3100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2835,50 +3103,56 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>28300</v>
+        <v>35600</v>
       </c>
       <c r="E59" s="3">
-        <v>26300</v>
+        <v>32500</v>
       </c>
       <c r="F59" s="3">
-        <v>22600</v>
+        <v>28800</v>
       </c>
       <c r="G59" s="3">
-        <v>20300</v>
+        <v>26700</v>
       </c>
       <c r="H59" s="3">
-        <v>20400</v>
+        <v>23000</v>
       </c>
       <c r="I59" s="3">
+        <v>20700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K59" s="3">
         <v>18500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>21000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>18100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2891,41 +3165,47 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>44500</v>
+        <v>55800</v>
       </c>
       <c r="E60" s="3">
-        <v>44400</v>
+        <v>49300</v>
       </c>
       <c r="F60" s="3">
-        <v>38400</v>
+        <v>45300</v>
       </c>
       <c r="G60" s="3">
-        <v>37400</v>
+        <v>45200</v>
       </c>
       <c r="H60" s="3">
-        <v>33700</v>
+        <v>39100</v>
       </c>
       <c r="I60" s="3">
+        <v>38000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>34300</v>
+      </c>
+      <c r="K60" s="3">
         <v>29600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>31900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>27700</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2938,8 +3218,14 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,32 +3271,38 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1300</v>
+        <v>2600</v>
       </c>
       <c r="E62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3023,17 +3315,23 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3377,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3430,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,41 +3483,47 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>45900</v>
+        <v>58400</v>
       </c>
       <c r="E66" s="3">
-        <v>45400</v>
+        <v>52000</v>
       </c>
       <c r="F66" s="3">
-        <v>39600</v>
+        <v>46600</v>
       </c>
       <c r="G66" s="3">
-        <v>38600</v>
+        <v>46100</v>
       </c>
       <c r="H66" s="3">
-        <v>34100</v>
+        <v>40300</v>
       </c>
       <c r="I66" s="3">
+        <v>39300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>34600</v>
+      </c>
+      <c r="K66" s="3">
         <v>29600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>31900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>27700</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,8 +3536,14 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3561,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3610,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3663,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3354,20 +3690,20 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>299800</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>257600</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>189100</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3380,8 +3716,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,41 +3769,47 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-355600</v>
+      <c r="D72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E72" s="3">
-        <v>-344800</v>
+        <v>-366100</v>
       </c>
       <c r="F72" s="3">
-        <v>-343900</v>
+        <v>-361500</v>
       </c>
       <c r="G72" s="3">
-        <v>-343000</v>
+        <v>-350600</v>
       </c>
       <c r="H72" s="3">
-        <v>-339600</v>
+        <v>-349700</v>
       </c>
       <c r="I72" s="3">
+        <v>-348700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-345300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-308400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-261800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-185800</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3822,14 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3875,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3928,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,41 +3981,47 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>16700</v>
+      <c r="D76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E76" s="3">
-        <v>26100</v>
+        <v>41800</v>
       </c>
       <c r="F76" s="3">
-        <v>26400</v>
+        <v>17000</v>
       </c>
       <c r="G76" s="3">
-        <v>27200</v>
+        <v>26500</v>
       </c>
       <c r="H76" s="3">
-        <v>27900</v>
+        <v>26800</v>
       </c>
       <c r="I76" s="3">
+        <v>27600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>28400</v>
+      </c>
+      <c r="K76" s="3">
         <v>-307700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-260900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-185100</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +4034,14 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4087,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-10800</v>
+      <c r="D81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E81" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
-        <v>-900</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-3400</v>
       </c>
-      <c r="H81" s="3">
-        <v>-31200</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-46600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-78500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-18000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-22100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-8900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-13000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4223,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3853,11 +4251,11 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3874,8 +4272,14 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4325,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4378,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4431,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4484,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4537,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4135,11 +4569,11 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
@@ -4156,8 +4590,14 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4615,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4201,11 +4643,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -4222,8 +4664,14 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4717,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4770,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4342,11 +4802,11 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -4363,8 +4823,14 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4848,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4897,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4950,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5003,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +5056,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4617,8 +5109,14 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4643,11 +5141,11 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
@@ -4664,8 +5162,14 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4690,11 +5194,11 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
@@ -4709,6 +5213,12 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LIZI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LIZI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t>LIZI</t>
   </si>
@@ -749,25 +749,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>79000</v>
+        <v>79600</v>
       </c>
       <c r="E8" s="3">
-        <v>87600</v>
+        <v>88200</v>
       </c>
       <c r="F8" s="3">
-        <v>77500</v>
+        <v>78100</v>
       </c>
       <c r="G8" s="3">
-        <v>65800</v>
+        <v>66300</v>
       </c>
       <c r="H8" s="3">
-        <v>56600</v>
+        <v>57000</v>
       </c>
       <c r="I8" s="3">
-        <v>54900</v>
+        <v>55400</v>
       </c>
       <c r="J8" s="3">
-        <v>58000</v>
+        <v>58400</v>
       </c>
       <c r="K8" s="3">
         <v>56200</v>
@@ -802,25 +802,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>55400</v>
+        <v>55800</v>
       </c>
       <c r="E9" s="3">
-        <v>62700</v>
+        <v>63200</v>
       </c>
       <c r="F9" s="3">
-        <v>57900</v>
+        <v>58400</v>
       </c>
       <c r="G9" s="3">
-        <v>47200</v>
+        <v>47500</v>
       </c>
       <c r="H9" s="3">
-        <v>42400</v>
+        <v>42700</v>
       </c>
       <c r="I9" s="3">
-        <v>41500</v>
+        <v>41800</v>
       </c>
       <c r="J9" s="3">
-        <v>46600</v>
+        <v>46900</v>
       </c>
       <c r="K9" s="3">
         <v>46300</v>
@@ -855,25 +855,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>23700</v>
+        <v>23900</v>
       </c>
       <c r="E10" s="3">
-        <v>24900</v>
+        <v>25000</v>
       </c>
       <c r="F10" s="3">
-        <v>19600</v>
+        <v>19700</v>
       </c>
       <c r="G10" s="3">
-        <v>18600</v>
+        <v>18800</v>
       </c>
       <c r="H10" s="3">
-        <v>14200</v>
+        <v>14300</v>
       </c>
       <c r="I10" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="J10" s="3">
-        <v>11400</v>
+        <v>11500</v>
       </c>
       <c r="K10" s="3">
         <v>9900</v>
@@ -929,19 +929,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="E12" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="F12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G12" s="3">
         <v>8900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8800</v>
-      </c>
-      <c r="H12" s="3">
-        <v>8700</v>
       </c>
       <c r="I12" s="3">
         <v>8600</v>
@@ -1158,26 +1158,26 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>86000</v>
       </c>
       <c r="E17" s="3">
-        <v>92500</v>
+        <v>93200</v>
       </c>
       <c r="F17" s="3">
-        <v>88800</v>
+        <v>89500</v>
       </c>
       <c r="G17" s="3">
-        <v>66800</v>
+        <v>67300</v>
       </c>
       <c r="H17" s="3">
-        <v>58100</v>
+        <v>58500</v>
       </c>
       <c r="I17" s="3">
-        <v>58900</v>
+        <v>59300</v>
       </c>
       <c r="J17" s="3">
-        <v>65400</v>
+        <v>65900</v>
       </c>
       <c r="K17" s="3">
         <v>61100</v>
@@ -1211,14 +1211,14 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-6300</v>
       </c>
       <c r="E18" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="F18" s="3">
-        <v>-11300</v>
+        <v>-11400</v>
       </c>
       <c r="G18" s="3">
         <v>-1000</v>
@@ -1227,7 +1227,7 @@
         <v>-1500</v>
       </c>
       <c r="I18" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="J18" s="3">
         <v>-7500</v>
@@ -1285,8 +1285,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>500</v>
       </c>
       <c r="E20" s="3">
         <v>400</v>
@@ -1445,10 +1445,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="E23" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="F23" s="3">
         <v>-11000</v>
@@ -1460,7 +1460,7 @@
         <v>-1000</v>
       </c>
       <c r="I23" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="J23" s="3">
         <v>-7600</v>
@@ -1497,8 +1497,8 @@
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1603,11 +1603,11 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-5900</v>
       </c>
       <c r="E26" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="F26" s="3">
         <v>-11000</v>
@@ -1619,7 +1619,7 @@
         <v>-1000</v>
       </c>
       <c r="I26" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="J26" s="3">
         <v>-7600</v>
@@ -1656,11 +1656,11 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-5900</v>
       </c>
       <c r="E27" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="F27" s="3">
         <v>-11000</v>
@@ -1672,10 +1672,10 @@
         <v>-1000</v>
       </c>
       <c r="I27" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="J27" s="3">
-        <v>-31700</v>
+        <v>-31900</v>
       </c>
       <c r="K27" s="3">
         <v>-46600</v>
@@ -1921,8 +1921,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-500</v>
       </c>
       <c r="E32" s="3">
         <v>-400</v>
@@ -1974,11 +1974,11 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-5900</v>
       </c>
       <c r="E33" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="F33" s="3">
         <v>-11000</v>
@@ -1990,10 +1990,10 @@
         <v>-1000</v>
       </c>
       <c r="I33" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="J33" s="3">
-        <v>-31700</v>
+        <v>-31900</v>
       </c>
       <c r="K33" s="3">
         <v>-46600</v>
@@ -2080,11 +2080,11 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-5900</v>
       </c>
       <c r="E35" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="F35" s="3">
         <v>-11000</v>
@@ -2096,10 +2096,10 @@
         <v>-1000</v>
       </c>
       <c r="I35" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="J35" s="3">
-        <v>-31700</v>
+        <v>-31900</v>
       </c>
       <c r="K35" s="3">
         <v>-46600</v>
@@ -2234,25 +2234,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>80100</v>
+        <v>80700</v>
       </c>
       <c r="E41" s="3">
-        <v>76700</v>
+        <v>77300</v>
       </c>
       <c r="F41" s="3">
-        <v>47700</v>
+        <v>48100</v>
       </c>
       <c r="G41" s="3">
-        <v>49400</v>
+        <v>49800</v>
       </c>
       <c r="H41" s="3">
-        <v>41800</v>
+        <v>42100</v>
       </c>
       <c r="I41" s="3">
-        <v>42600</v>
+        <v>43000</v>
       </c>
       <c r="J41" s="3">
-        <v>37700</v>
+        <v>38000</v>
       </c>
       <c r="K41" s="3">
         <v>12700</v>
@@ -2296,16 +2296,16 @@
         <v>1600</v>
       </c>
       <c r="G42" s="3">
-        <v>11400</v>
+        <v>11500</v>
       </c>
       <c r="H42" s="3">
-        <v>12600</v>
+        <v>12700</v>
       </c>
       <c r="I42" s="3">
-        <v>12600</v>
+        <v>12700</v>
       </c>
       <c r="J42" s="3">
-        <v>13500</v>
+        <v>13600</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -2343,7 +2343,7 @@
         <v>1200</v>
       </c>
       <c r="E43" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F43" s="3">
         <v>1400</v>
@@ -2499,25 +2499,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>87600</v>
+        <v>88200</v>
       </c>
       <c r="E46" s="3">
-        <v>84600</v>
+        <v>85200</v>
       </c>
       <c r="F46" s="3">
-        <v>56500</v>
+        <v>56900</v>
       </c>
       <c r="G46" s="3">
-        <v>65700</v>
+        <v>66200</v>
       </c>
       <c r="H46" s="3">
-        <v>59300</v>
+        <v>59800</v>
       </c>
       <c r="I46" s="3">
-        <v>59500</v>
+        <v>59900</v>
       </c>
       <c r="J46" s="3">
-        <v>55700</v>
+        <v>56200</v>
       </c>
       <c r="K46" s="3">
         <v>16100</v>
@@ -2605,22 +2605,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="E48" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="F48" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="G48" s="3">
         <v>6100</v>
       </c>
       <c r="H48" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="I48" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="J48" s="3">
         <v>6700</v>
@@ -2923,25 +2923,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>96300</v>
+        <v>97000</v>
       </c>
       <c r="E54" s="3">
-        <v>93800</v>
+        <v>94500</v>
       </c>
       <c r="F54" s="3">
-        <v>63600</v>
+        <v>64100</v>
       </c>
       <c r="G54" s="3">
-        <v>72600</v>
+        <v>73200</v>
       </c>
       <c r="H54" s="3">
-        <v>67000</v>
+        <v>67600</v>
       </c>
       <c r="I54" s="3">
-        <v>66900</v>
+        <v>67400</v>
       </c>
       <c r="J54" s="3">
-        <v>63000</v>
+        <v>63500</v>
       </c>
       <c r="K54" s="3">
         <v>21700</v>
@@ -3018,13 +3018,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="E57" s="3">
-        <v>11200</v>
+        <v>11300</v>
       </c>
       <c r="F57" s="3">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="G57" s="3">
         <v>12300</v>
@@ -3071,25 +3071,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="E58" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="F58" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="G58" s="3">
         <v>6200</v>
       </c>
       <c r="H58" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="I58" s="3">
         <v>7400</v>
       </c>
       <c r="J58" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -3124,25 +3124,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>35600</v>
+        <v>35900</v>
       </c>
       <c r="E59" s="3">
-        <v>32500</v>
+        <v>32700</v>
       </c>
       <c r="F59" s="3">
-        <v>28800</v>
+        <v>29000</v>
       </c>
       <c r="G59" s="3">
-        <v>26700</v>
+        <v>27000</v>
       </c>
       <c r="H59" s="3">
-        <v>23000</v>
+        <v>23200</v>
       </c>
       <c r="I59" s="3">
-        <v>20700</v>
+        <v>20800</v>
       </c>
       <c r="J59" s="3">
-        <v>20700</v>
+        <v>20900</v>
       </c>
       <c r="K59" s="3">
         <v>18500</v>
@@ -3177,25 +3177,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>55800</v>
+        <v>56200</v>
       </c>
       <c r="E60" s="3">
-        <v>49300</v>
+        <v>49700</v>
       </c>
       <c r="F60" s="3">
-        <v>45300</v>
+        <v>45600</v>
       </c>
       <c r="G60" s="3">
-        <v>45200</v>
+        <v>45500</v>
       </c>
       <c r="H60" s="3">
-        <v>39100</v>
+        <v>39400</v>
       </c>
       <c r="I60" s="3">
-        <v>38000</v>
+        <v>38300</v>
       </c>
       <c r="J60" s="3">
-        <v>34300</v>
+        <v>34500</v>
       </c>
       <c r="K60" s="3">
         <v>29600</v>
@@ -3286,7 +3286,7 @@
         <v>2600</v>
       </c>
       <c r="E62" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F62" s="3">
         <v>1400</v>
@@ -3298,7 +3298,7 @@
         <v>1200</v>
       </c>
       <c r="I62" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="J62" s="3">
         <v>400</v>
@@ -3495,25 +3495,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>58400</v>
+        <v>58900</v>
       </c>
       <c r="E66" s="3">
-        <v>52000</v>
+        <v>52400</v>
       </c>
       <c r="F66" s="3">
-        <v>46600</v>
+        <v>47000</v>
       </c>
       <c r="G66" s="3">
-        <v>46100</v>
+        <v>46500</v>
       </c>
       <c r="H66" s="3">
-        <v>40300</v>
+        <v>40600</v>
       </c>
       <c r="I66" s="3">
-        <v>39300</v>
+        <v>39600</v>
       </c>
       <c r="J66" s="3">
-        <v>34600</v>
+        <v>34900</v>
       </c>
       <c r="K66" s="3">
         <v>29600</v>
@@ -3780,26 +3780,26 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>-374800</v>
       </c>
       <c r="E72" s="3">
-        <v>-366100</v>
+        <v>-368900</v>
       </c>
       <c r="F72" s="3">
-        <v>-361500</v>
+        <v>-364300</v>
       </c>
       <c r="G72" s="3">
-        <v>-350600</v>
+        <v>-353300</v>
       </c>
       <c r="H72" s="3">
-        <v>-349700</v>
+        <v>-352300</v>
       </c>
       <c r="I72" s="3">
-        <v>-348700</v>
+        <v>-351400</v>
       </c>
       <c r="J72" s="3">
-        <v>-345300</v>
+        <v>-347900</v>
       </c>
       <c r="K72" s="3">
         <v>-308400</v>
@@ -3992,26 +3992,26 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>38200</v>
       </c>
       <c r="E76" s="3">
-        <v>41800</v>
+        <v>42100</v>
       </c>
       <c r="F76" s="3">
-        <v>17000</v>
+        <v>17100</v>
       </c>
       <c r="G76" s="3">
-        <v>26500</v>
+        <v>26700</v>
       </c>
       <c r="H76" s="3">
-        <v>26800</v>
+        <v>27000</v>
       </c>
       <c r="I76" s="3">
-        <v>27600</v>
+        <v>27800</v>
       </c>
       <c r="J76" s="3">
-        <v>28400</v>
+        <v>28600</v>
       </c>
       <c r="K76" s="3">
         <v>-307700</v>
@@ -4156,11 +4156,11 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-5900</v>
       </c>
       <c r="E81" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="F81" s="3">
         <v>-11000</v>
@@ -4172,10 +4172,10 @@
         <v>-1000</v>
       </c>
       <c r="I81" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="J81" s="3">
-        <v>-31700</v>
+        <v>-31900</v>
       </c>
       <c r="K81" s="3">
         <v>-46600</v>

--- a/AAII_Financials/Quarterly/LIZI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LIZI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
   <si>
     <t>LIZI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,145 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>79600</v>
+        <v>82600</v>
       </c>
       <c r="E8" s="3">
-        <v>88200</v>
+        <v>74400</v>
       </c>
       <c r="F8" s="3">
-        <v>78100</v>
+        <v>82400</v>
       </c>
       <c r="G8" s="3">
-        <v>66300</v>
+        <v>73000</v>
       </c>
       <c r="H8" s="3">
-        <v>57000</v>
+        <v>61900</v>
       </c>
       <c r="I8" s="3">
-        <v>55400</v>
+        <v>53300</v>
       </c>
       <c r="J8" s="3">
+        <v>51700</v>
+      </c>
+      <c r="K8" s="3">
         <v>58400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>56200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>50600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>35100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>39800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>36500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>27800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>26100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>26000</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -805,105 +811,111 @@
         <v>55800</v>
       </c>
       <c r="E9" s="3">
-        <v>63200</v>
+        <v>52100</v>
       </c>
       <c r="F9" s="3">
-        <v>58400</v>
+        <v>59000</v>
       </c>
       <c r="G9" s="3">
-        <v>47500</v>
+        <v>54500</v>
       </c>
       <c r="H9" s="3">
-        <v>42700</v>
+        <v>44400</v>
       </c>
       <c r="I9" s="3">
-        <v>41800</v>
+        <v>39900</v>
       </c>
       <c r="J9" s="3">
+        <v>39100</v>
+      </c>
+      <c r="K9" s="3">
         <v>46900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>46300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>40700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>25100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>28000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>25800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>19100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>18400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>19100</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>23900</v>
+        <v>26800</v>
       </c>
       <c r="E10" s="3">
-        <v>25000</v>
+        <v>22300</v>
       </c>
       <c r="F10" s="3">
-        <v>19700</v>
+        <v>23400</v>
       </c>
       <c r="G10" s="3">
-        <v>18800</v>
+        <v>18400</v>
       </c>
       <c r="H10" s="3">
-        <v>14300</v>
+        <v>17500</v>
       </c>
       <c r="I10" s="3">
-        <v>13500</v>
+        <v>13400</v>
       </c>
       <c r="J10" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K10" s="3">
         <v>11500</v>
-      </c>
-      <c r="K10" s="3">
-        <v>9900</v>
       </c>
       <c r="L10" s="3">
         <v>9900</v>
       </c>
       <c r="M10" s="3">
+        <v>9900</v>
+      </c>
+      <c r="N10" s="3">
         <v>10000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>10700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6900</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>11600</v>
+        <v>10800</v>
       </c>
       <c r="E12" s="3">
-        <v>9600</v>
+        <v>10800</v>
       </c>
       <c r="F12" s="3">
         <v>9000</v>
       </c>
       <c r="G12" s="3">
-        <v>8900</v>
+        <v>8400</v>
       </c>
       <c r="H12" s="3">
-        <v>8800</v>
+        <v>8300</v>
       </c>
       <c r="I12" s="3">
-        <v>8600</v>
+        <v>8200</v>
       </c>
       <c r="J12" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K12" s="3">
         <v>9200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2400</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>86000</v>
+        <v>81800</v>
       </c>
       <c r="E17" s="3">
-        <v>93200</v>
+        <v>80300</v>
       </c>
       <c r="F17" s="3">
-        <v>89500</v>
+        <v>87100</v>
       </c>
       <c r="G17" s="3">
-        <v>67300</v>
+        <v>83600</v>
       </c>
       <c r="H17" s="3">
-        <v>58500</v>
+        <v>62900</v>
       </c>
       <c r="I17" s="3">
-        <v>59300</v>
+        <v>54700</v>
       </c>
       <c r="J17" s="3">
+        <v>55400</v>
+      </c>
+      <c r="K17" s="3">
         <v>65900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>61100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>58600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>42600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>41400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>36100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>28500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>26600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>26900</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-6300</v>
+        <v>800</v>
       </c>
       <c r="E18" s="3">
-        <v>-5000</v>
+        <v>-5900</v>
       </c>
       <c r="F18" s="3">
-        <v>-11400</v>
+        <v>-4700</v>
       </c>
       <c r="G18" s="3">
-        <v>-1000</v>
+        <v>-10600</v>
       </c>
       <c r="H18" s="3">
-        <v>-1500</v>
+        <v>-900</v>
       </c>
       <c r="I18" s="3">
-        <v>-4000</v>
+        <v>-1400</v>
       </c>
       <c r="J18" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-7500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-900</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,61 +1312,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E20" s="3">
         <v>400</v>
       </c>
       <c r="F20" s="3">
+        <v>400</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>500</v>
       </c>
       <c r="I20" s="3">
         <v>500</v>
       </c>
       <c r="J20" s="3">
+        <v>400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-100</v>
       </c>
       <c r="O20" s="3">
         <v>-100</v>
       </c>
       <c r="P20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1362,32 +1398,35 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-6200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>1800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>500</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,66 +1478,72 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5900</v>
+        <v>1400</v>
       </c>
       <c r="E23" s="3">
-        <v>-4600</v>
+        <v>-5500</v>
       </c>
       <c r="F23" s="3">
-        <v>-11000</v>
+        <v>-4300</v>
       </c>
       <c r="G23" s="3">
-        <v>-800</v>
+        <v>-10300</v>
       </c>
       <c r="H23" s="3">
-        <v>-1000</v>
+        <v>-700</v>
       </c>
       <c r="I23" s="3">
-        <v>-3500</v>
+        <v>-900</v>
       </c>
       <c r="J23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-7600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-200</v>
       </c>
       <c r="Q23" s="3">
         <v>-200</v>
       </c>
       <c r="R23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S23" s="3">
         <v>-1300</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1507,10 +1552,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1545,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5900</v>
+        <v>1300</v>
       </c>
       <c r="E26" s="3">
-        <v>-4600</v>
+        <v>-5500</v>
       </c>
       <c r="F26" s="3">
-        <v>-11000</v>
+        <v>-4300</v>
       </c>
       <c r="G26" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
-        <v>-1000</v>
-      </c>
       <c r="I26" s="3">
-        <v>-3500</v>
+        <v>-900</v>
       </c>
       <c r="J26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-7600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-200</v>
       </c>
       <c r="Q26" s="3">
         <v>-200</v>
       </c>
       <c r="R26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S26" s="3">
         <v>-1300</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5900</v>
+        <v>1300</v>
       </c>
       <c r="E27" s="3">
-        <v>-4600</v>
+        <v>-5500</v>
       </c>
       <c r="F27" s="3">
-        <v>-11000</v>
+        <v>-4300</v>
       </c>
       <c r="G27" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
-        <v>-1000</v>
-      </c>
       <c r="I27" s="3">
-        <v>-3500</v>
+        <v>-900</v>
       </c>
       <c r="J27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-31900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-46600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-78500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-18000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-22100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9200</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E32" s="3">
         <v>-400</v>
       </c>
       <c r="F32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-500</v>
       </c>
       <c r="I32" s="3">
         <v>-500</v>
       </c>
       <c r="J32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
-      </c>
-      <c r="N32" s="3">
-        <v>100</v>
       </c>
       <c r="O32" s="3">
         <v>100</v>
       </c>
       <c r="P32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5900</v>
+        <v>1300</v>
       </c>
       <c r="E33" s="3">
-        <v>-4600</v>
+        <v>-5500</v>
       </c>
       <c r="F33" s="3">
-        <v>-11000</v>
+        <v>-4300</v>
       </c>
       <c r="G33" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
-        <v>-1000</v>
-      </c>
       <c r="I33" s="3">
-        <v>-3500</v>
+        <v>-900</v>
       </c>
       <c r="J33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-31900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-46600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-78500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-18000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-22100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9200</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5900</v>
+        <v>1300</v>
       </c>
       <c r="E35" s="3">
-        <v>-4600</v>
+        <v>-5500</v>
       </c>
       <c r="F35" s="3">
-        <v>-11000</v>
+        <v>-4300</v>
       </c>
       <c r="G35" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
-        <v>-1000</v>
-      </c>
       <c r="I35" s="3">
-        <v>-3500</v>
+        <v>-900</v>
       </c>
       <c r="J35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-31900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-46600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-78500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-18000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-22100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9200</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,44 +2313,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>80700</v>
+        <v>78600</v>
       </c>
       <c r="E41" s="3">
-        <v>77300</v>
+        <v>75400</v>
       </c>
       <c r="F41" s="3">
-        <v>48100</v>
+        <v>72200</v>
       </c>
       <c r="G41" s="3">
-        <v>49800</v>
+        <v>44900</v>
       </c>
       <c r="H41" s="3">
-        <v>42100</v>
+        <v>46500</v>
       </c>
       <c r="I41" s="3">
-        <v>43000</v>
+        <v>39300</v>
       </c>
       <c r="J41" s="3">
+        <v>40100</v>
+      </c>
+      <c r="K41" s="3">
         <v>38000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>25200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2281,8 +2367,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2290,26 +2379,26 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="G42" s="3">
-        <v>11500</v>
+        <v>1500</v>
       </c>
       <c r="H42" s="3">
-        <v>12700</v>
+        <v>10800</v>
       </c>
       <c r="I42" s="3">
-        <v>12700</v>
+        <v>11900</v>
       </c>
       <c r="J42" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K42" s="3">
         <v>13600</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2325,8 +2414,8 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2334,44 +2423,47 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E43" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F43" s="3">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="G43" s="3">
         <v>1300</v>
       </c>
       <c r="H43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K43" s="3">
+        <v>700</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M43" s="3">
         <v>1400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="N43" s="3">
         <v>1100</v>
       </c>
-      <c r="J43" s="3">
-        <v>700</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1400</v>
-      </c>
-      <c r="M43" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2387,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,44 +2535,47 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6300</v>
+        <v>5600</v>
       </c>
       <c r="E45" s="3">
-        <v>6500</v>
+        <v>5900</v>
       </c>
       <c r="F45" s="3">
-        <v>5700</v>
+        <v>6100</v>
       </c>
       <c r="G45" s="3">
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="H45" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="I45" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="J45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K45" s="3">
         <v>3900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1300</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2493,44 +2591,47 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>88200</v>
+        <v>85100</v>
       </c>
       <c r="E46" s="3">
-        <v>85200</v>
+        <v>82400</v>
       </c>
       <c r="F46" s="3">
-        <v>56900</v>
+        <v>79600</v>
       </c>
       <c r="G46" s="3">
-        <v>66200</v>
+        <v>53100</v>
       </c>
       <c r="H46" s="3">
-        <v>59800</v>
+        <v>61900</v>
       </c>
       <c r="I46" s="3">
-        <v>59900</v>
+        <v>55800</v>
       </c>
       <c r="J46" s="3">
+        <v>56000</v>
+      </c>
+      <c r="K46" s="3">
         <v>56200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>22800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>27600</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2546,8 +2647,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,44 +2703,47 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8300</v>
+        <v>9200</v>
       </c>
       <c r="E48" s="3">
-        <v>8600</v>
+        <v>7700</v>
       </c>
       <c r="F48" s="3">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="G48" s="3">
         <v>6100</v>
       </c>
       <c r="H48" s="3">
-        <v>6900</v>
+        <v>5700</v>
       </c>
       <c r="I48" s="3">
         <v>6400</v>
       </c>
       <c r="J48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K48" s="3">
         <v>6700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3500</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,13 +2759,16 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E49" s="3">
         <v>400</v>
@@ -2667,13 +2777,13 @@
         <v>400</v>
       </c>
       <c r="G49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J49" s="3">
         <v>300</v>
@@ -2687,8 +2797,8 @@
       <c r="M49" s="3">
         <v>300</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
+      <c r="N49" s="3">
+        <v>300</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2820,35 +2939,35 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
+        <v>100</v>
+      </c>
+      <c r="F52" s="3">
         <v>200</v>
-      </c>
-      <c r="F52" s="3">
-        <v>300</v>
       </c>
       <c r="G52" s="3">
         <v>300</v>
       </c>
       <c r="H52" s="3">
+        <v>300</v>
+      </c>
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3">
-        <v>800</v>
-      </c>
       <c r="J52" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
       </c>
       <c r="L52" s="3">
+        <v>300</v>
+      </c>
+      <c r="M52" s="3">
         <v>500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2864,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,44 +3039,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>97000</v>
+        <v>94700</v>
       </c>
       <c r="E54" s="3">
-        <v>94500</v>
+        <v>90600</v>
       </c>
       <c r="F54" s="3">
-        <v>64100</v>
+        <v>88300</v>
       </c>
       <c r="G54" s="3">
-        <v>73200</v>
+        <v>59900</v>
       </c>
       <c r="H54" s="3">
-        <v>67600</v>
+        <v>68300</v>
       </c>
       <c r="I54" s="3">
-        <v>67400</v>
+        <v>63100</v>
       </c>
       <c r="J54" s="3">
+        <v>63000</v>
+      </c>
+      <c r="K54" s="3">
         <v>63500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31700</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2970,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,44 +3141,45 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11200</v>
+        <v>11900</v>
       </c>
       <c r="E57" s="3">
-        <v>11300</v>
+        <v>10500</v>
       </c>
       <c r="F57" s="3">
-        <v>11000</v>
+        <v>10600</v>
       </c>
       <c r="G57" s="3">
-        <v>12300</v>
+        <v>10300</v>
       </c>
       <c r="H57" s="3">
+        <v>11500</v>
+      </c>
+      <c r="I57" s="3">
+        <v>8800</v>
+      </c>
+      <c r="J57" s="3">
         <v>9400</v>
       </c>
-      <c r="I57" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9600</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3065,35 +3195,38 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9100</v>
+        <v>10200</v>
       </c>
       <c r="E58" s="3">
-        <v>5600</v>
+        <v>8500</v>
       </c>
       <c r="F58" s="3">
-        <v>5600</v>
+        <v>5200</v>
       </c>
       <c r="G58" s="3">
-        <v>6200</v>
+        <v>5200</v>
       </c>
       <c r="H58" s="3">
-        <v>6800</v>
+        <v>5800</v>
       </c>
       <c r="I58" s="3">
-        <v>7400</v>
+        <v>6300</v>
       </c>
       <c r="J58" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K58" s="3">
         <v>3200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3109,8 +3242,8 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3118,44 +3251,47 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>35900</v>
+        <v>31900</v>
       </c>
       <c r="E59" s="3">
-        <v>32700</v>
+        <v>33500</v>
       </c>
       <c r="F59" s="3">
-        <v>29000</v>
+        <v>30600</v>
       </c>
       <c r="G59" s="3">
-        <v>27000</v>
+        <v>27100</v>
       </c>
       <c r="H59" s="3">
-        <v>23200</v>
+        <v>25200</v>
       </c>
       <c r="I59" s="3">
-        <v>20800</v>
+        <v>21700</v>
       </c>
       <c r="J59" s="3">
+        <v>19500</v>
+      </c>
+      <c r="K59" s="3">
         <v>20900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>21000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3171,44 +3307,47 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>56200</v>
+        <v>54000</v>
       </c>
       <c r="E60" s="3">
-        <v>49700</v>
+        <v>52500</v>
       </c>
       <c r="F60" s="3">
-        <v>45600</v>
+        <v>46400</v>
       </c>
       <c r="G60" s="3">
-        <v>45500</v>
+        <v>42600</v>
       </c>
       <c r="H60" s="3">
-        <v>39400</v>
+        <v>42500</v>
       </c>
       <c r="I60" s="3">
-        <v>38300</v>
+        <v>36800</v>
       </c>
       <c r="J60" s="3">
+        <v>35800</v>
+      </c>
+      <c r="K60" s="3">
         <v>34500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>31900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>27700</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3224,8 +3363,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,35 +3419,38 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F62" s="3">
         <v>2600</v>
       </c>
-      <c r="E62" s="3">
-        <v>2800</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1400</v>
-      </c>
       <c r="G62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J62" s="3">
         <v>1200</v>
       </c>
-      <c r="I62" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3321,8 +3466,8 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3330,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,44 +3643,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>58900</v>
+        <v>57200</v>
       </c>
       <c r="E66" s="3">
-        <v>52400</v>
+        <v>55000</v>
       </c>
       <c r="F66" s="3">
-        <v>47000</v>
+        <v>49000</v>
       </c>
       <c r="G66" s="3">
-        <v>46500</v>
+        <v>43900</v>
       </c>
       <c r="H66" s="3">
-        <v>40600</v>
+        <v>43400</v>
       </c>
       <c r="I66" s="3">
-        <v>39600</v>
+        <v>37900</v>
       </c>
       <c r="J66" s="3">
+        <v>37000</v>
+      </c>
+      <c r="K66" s="3">
         <v>34900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>29600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>27700</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3542,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3696,17 +3863,17 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>299800</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>257600</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>189100</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,44 +3945,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-374800</v>
+        <v>-348700</v>
       </c>
       <c r="E72" s="3">
-        <v>-368900</v>
+        <v>-350000</v>
       </c>
       <c r="F72" s="3">
-        <v>-364300</v>
+        <v>-344600</v>
       </c>
       <c r="G72" s="3">
-        <v>-353300</v>
+        <v>-340300</v>
       </c>
       <c r="H72" s="3">
-        <v>-352300</v>
+        <v>-330000</v>
       </c>
       <c r="I72" s="3">
-        <v>-351400</v>
+        <v>-329100</v>
       </c>
       <c r="J72" s="3">
+        <v>-328200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-347900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-308400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-261800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-185800</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3828,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,44 +4169,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>38200</v>
+        <v>37600</v>
       </c>
       <c r="E76" s="3">
-        <v>42100</v>
+        <v>35700</v>
       </c>
       <c r="F76" s="3">
-        <v>17100</v>
+        <v>39300</v>
       </c>
       <c r="G76" s="3">
-        <v>26700</v>
+        <v>16000</v>
       </c>
       <c r="H76" s="3">
-        <v>27000</v>
+        <v>24900</v>
       </c>
       <c r="I76" s="3">
-        <v>27800</v>
+        <v>25200</v>
       </c>
       <c r="J76" s="3">
+        <v>26000</v>
+      </c>
+      <c r="K76" s="3">
         <v>28600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-307700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-260900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-185100</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4040,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5900</v>
+        <v>1300</v>
       </c>
       <c r="E81" s="3">
-        <v>-4600</v>
+        <v>-5500</v>
       </c>
       <c r="F81" s="3">
-        <v>-11000</v>
+        <v>-4300</v>
       </c>
       <c r="G81" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
-        <v>-1000</v>
-      </c>
       <c r="I81" s="3">
-        <v>-3500</v>
+        <v>-900</v>
       </c>
       <c r="J81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-31900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-46600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-78500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-18000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-22100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9200</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4257,8 +4455,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -4278,8 +4476,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4575,8 +4791,8 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
@@ -4596,8 +4812,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4649,8 +4869,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -4670,8 +4890,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4808,8 +5037,8 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
@@ -4829,8 +5058,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5115,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5147,8 +5395,8 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
@@ -5168,8 +5416,11 @@
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5200,8 +5451,8 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
@@ -5219,6 +5470,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LIZI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LIZI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
   <si>
     <t>LIZI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,283 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>82600</v>
+        <v>75300</v>
       </c>
       <c r="E8" s="3">
-        <v>74400</v>
+        <v>75500</v>
       </c>
       <c r="F8" s="3">
-        <v>82400</v>
+        <v>81800</v>
       </c>
       <c r="G8" s="3">
-        <v>73000</v>
+        <v>73700</v>
       </c>
       <c r="H8" s="3">
-        <v>61900</v>
+        <v>81700</v>
       </c>
       <c r="I8" s="3">
+        <v>72300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>61400</v>
+      </c>
+      <c r="K8" s="3">
         <v>53300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>51700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>58400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>56200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>50600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>35100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>39800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>36500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>27800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>26100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>26000</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>55800</v>
+        <v>49700</v>
       </c>
       <c r="E9" s="3">
-        <v>52100</v>
+        <v>50900</v>
       </c>
       <c r="F9" s="3">
-        <v>59000</v>
+        <v>55300</v>
       </c>
       <c r="G9" s="3">
-        <v>54500</v>
+        <v>51600</v>
       </c>
       <c r="H9" s="3">
-        <v>44400</v>
+        <v>58500</v>
       </c>
       <c r="I9" s="3">
+        <v>54000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>44000</v>
+      </c>
+      <c r="K9" s="3">
         <v>39900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>39100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>46900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>46300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>40700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>25100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>28000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>25800</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>19100</v>
-      </c>
-      <c r="R9" s="3">
-        <v>18400</v>
       </c>
       <c r="S9" s="3">
         <v>19100</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>18400</v>
+      </c>
+      <c r="U9" s="3">
+        <v>19100</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>26800</v>
+        <v>25600</v>
       </c>
       <c r="E10" s="3">
-        <v>22300</v>
+        <v>24500</v>
       </c>
       <c r="F10" s="3">
-        <v>23400</v>
+        <v>26600</v>
       </c>
       <c r="G10" s="3">
-        <v>18400</v>
+        <v>22100</v>
       </c>
       <c r="H10" s="3">
-        <v>17500</v>
+        <v>23200</v>
       </c>
       <c r="I10" s="3">
+        <v>18300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K10" s="3">
         <v>13400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>12600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>11500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>9900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>9900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>10000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>11800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>10700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>8600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>7700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>6900</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,64 +962,72 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>10800</v>
+        <v>10300</v>
       </c>
       <c r="E12" s="3">
-        <v>10800</v>
+        <v>10400</v>
       </c>
       <c r="F12" s="3">
-        <v>9000</v>
+        <v>10700</v>
       </c>
       <c r="G12" s="3">
-        <v>8400</v>
+        <v>10700</v>
       </c>
       <c r="H12" s="3">
+        <v>8900</v>
+      </c>
+      <c r="I12" s="3">
         <v>8300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8200</v>
       </c>
-      <c r="J12" s="3">
-        <v>8100</v>
-      </c>
       <c r="K12" s="3">
-        <v>9200</v>
+        <v>8200</v>
       </c>
       <c r="L12" s="3">
         <v>8100</v>
       </c>
       <c r="M12" s="3">
+        <v>9200</v>
+      </c>
+      <c r="N12" s="3">
+        <v>8100</v>
+      </c>
+      <c r="O12" s="3">
         <v>6700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>5200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>4400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>4500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>3000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>2300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>2400</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1082,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1144,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1231,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>81800</v>
+        <v>73300</v>
       </c>
       <c r="E17" s="3">
-        <v>80300</v>
+        <v>73300</v>
       </c>
       <c r="F17" s="3">
-        <v>87100</v>
+        <v>81000</v>
       </c>
       <c r="G17" s="3">
-        <v>83600</v>
+        <v>79600</v>
       </c>
       <c r="H17" s="3">
-        <v>62900</v>
+        <v>86300</v>
       </c>
       <c r="I17" s="3">
+        <v>82800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>62300</v>
+      </c>
+      <c r="K17" s="3">
         <v>54700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>55400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>65900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>61100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>58600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>42600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>41400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>36100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>28500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>26600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>26900</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F18" s="3">
         <v>800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-5900</v>
       </c>
-      <c r="F18" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-10600</v>
-      </c>
       <c r="H18" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-7500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-4900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-8000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-7500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-900</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,64 +1379,72 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
-      </c>
-      <c r="J20" s="3">
-        <v>400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-100</v>
       </c>
       <c r="L20" s="3">
         <v>400</v>
       </c>
       <c r="M20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N20" s="3">
+        <v>400</v>
+      </c>
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1401,32 +1475,38 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>-6200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-6100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>1800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>500</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,88 +1561,100 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F23" s="3">
         <v>1400</v>
       </c>
-      <c r="E23" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-4300</v>
-      </c>
       <c r="G23" s="3">
-        <v>-10300</v>
+        <v>-5400</v>
       </c>
       <c r="H23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-7600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-4500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-7500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-6900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1300</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1593,8 +1685,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F26" s="3">
         <v>1300</v>
       </c>
-      <c r="E26" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-4300</v>
-      </c>
       <c r="G26" s="3">
-        <v>-10300</v>
+        <v>-5400</v>
       </c>
       <c r="H26" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-7600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-4500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-7500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-6900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1300</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F27" s="3">
         <v>1300</v>
       </c>
-      <c r="E27" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-4300</v>
-      </c>
       <c r="G27" s="3">
-        <v>-10300</v>
+        <v>-5400</v>
       </c>
       <c r="H27" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-31900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-46600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-78500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-18000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-22100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-13000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-9200</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2119,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>-400</v>
       </c>
       <c r="M32" s="3">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>400</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F33" s="3">
         <v>1300</v>
       </c>
-      <c r="E33" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-4300</v>
-      </c>
       <c r="G33" s="3">
-        <v>-10300</v>
+        <v>-5400</v>
       </c>
       <c r="H33" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-31900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-46600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-78500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-18000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-22100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-13000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-9200</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F35" s="3">
         <v>1300</v>
       </c>
-      <c r="E35" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-4300</v>
-      </c>
       <c r="G35" s="3">
-        <v>-10300</v>
+        <v>-5400</v>
       </c>
       <c r="H35" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-31900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-46600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-78500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-18000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-22100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-13000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-9200</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,50 +2486,52 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>78600</v>
+        <v>85100</v>
       </c>
       <c r="E41" s="3">
-        <v>75400</v>
+        <v>71600</v>
       </c>
       <c r="F41" s="3">
-        <v>72200</v>
+        <v>77900</v>
       </c>
       <c r="G41" s="3">
-        <v>44900</v>
+        <v>74700</v>
       </c>
       <c r="H41" s="3">
-        <v>46500</v>
+        <v>71600</v>
       </c>
       <c r="I41" s="3">
+        <v>44500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>46100</v>
+      </c>
+      <c r="K41" s="3">
         <v>39300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>40100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>38000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>12700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>19300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>25200</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,41 +2544,47 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>1500</v>
       </c>
-      <c r="H42" s="3">
-        <v>10800</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K42" s="3">
         <v>11900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>11800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>13600</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2417,59 +2597,65 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
-      </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="E43" s="3">
+        <v>500</v>
+      </c>
+      <c r="F43" s="3">
+        <v>900</v>
+      </c>
+      <c r="G43" s="3">
         <v>1100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1200</v>
       </c>
       <c r="I43" s="3">
         <v>1300</v>
       </c>
       <c r="J43" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K43" s="3">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="L43" s="3">
         <v>1000</v>
       </c>
       <c r="M43" s="3">
+        <v>700</v>
+      </c>
+      <c r="N43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O43" s="3">
         <v>1400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1100</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2482,8 +2668,14 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,50 +2730,56 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5600</v>
+        <v>4400</v>
       </c>
       <c r="E45" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G45" s="3">
         <v>5900</v>
       </c>
-      <c r="F45" s="3">
-        <v>6100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>5400</v>
-      </c>
       <c r="H45" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I45" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J45" s="3">
         <v>3400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>3300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1300</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2594,50 +2792,56 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>85100</v>
+        <v>89900</v>
       </c>
       <c r="E46" s="3">
-        <v>82400</v>
+        <v>80100</v>
       </c>
       <c r="F46" s="3">
-        <v>79600</v>
+        <v>84300</v>
       </c>
       <c r="G46" s="3">
-        <v>53100</v>
+        <v>81700</v>
       </c>
       <c r="H46" s="3">
-        <v>61900</v>
+        <v>78900</v>
       </c>
       <c r="I46" s="3">
+        <v>52700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>61300</v>
+      </c>
+      <c r="K46" s="3">
         <v>55800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>56000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>56200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>16100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>22800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>27600</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2854,14 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,50 +2916,56 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="E48" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F48" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G48" s="3">
         <v>7700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>8000</v>
       </c>
-      <c r="G48" s="3">
-        <v>6100</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J48" s="3">
         <v>5700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>6400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>6700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>5000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>5100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3500</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2762,19 +2978,25 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>200</v>
+      </c>
+      <c r="E49" s="3">
         <v>300</v>
       </c>
-      <c r="E49" s="3">
-        <v>400</v>
-      </c>
       <c r="F49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G49" s="3">
         <v>400</v>
@@ -2783,13 +3005,13 @@
         <v>400</v>
       </c>
       <c r="I49" s="3">
+        <v>400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>400</v>
+      </c>
+      <c r="K49" s="3">
         <v>200</v>
-      </c>
-      <c r="J49" s="3">
-        <v>300</v>
-      </c>
-      <c r="K49" s="3">
-        <v>300</v>
       </c>
       <c r="L49" s="3">
         <v>300</v>
@@ -2800,11 +3022,11 @@
       <c r="N49" s="3">
         <v>300</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
+      <c r="O49" s="3">
+        <v>300</v>
+      </c>
+      <c r="P49" s="3">
+        <v>300</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
@@ -2818,8 +3040,14 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,50 +3164,56 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
       </c>
       <c r="F52" s="3">
+        <v>100</v>
+      </c>
+      <c r="G52" s="3">
+        <v>100</v>
+      </c>
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2986,8 +3226,14 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,50 +3288,56 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>94700</v>
+        <v>99000</v>
       </c>
       <c r="E54" s="3">
-        <v>90600</v>
+        <v>90000</v>
       </c>
       <c r="F54" s="3">
-        <v>88300</v>
+        <v>93900</v>
       </c>
       <c r="G54" s="3">
-        <v>59900</v>
+        <v>89800</v>
       </c>
       <c r="H54" s="3">
-        <v>68300</v>
+        <v>87500</v>
       </c>
       <c r="I54" s="3">
+        <v>59300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>67700</v>
+      </c>
+      <c r="K54" s="3">
         <v>63100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>63000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>63500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>21700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>28600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>31700</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3098,8 +3350,14 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,50 +3402,52 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11900</v>
+        <v>8900</v>
       </c>
       <c r="E57" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>11800</v>
+      </c>
+      <c r="G57" s="3">
+        <v>10400</v>
+      </c>
+      <c r="H57" s="3">
         <v>10500</v>
       </c>
-      <c r="F57" s="3">
-        <v>10600</v>
-      </c>
-      <c r="G57" s="3">
-        <v>10300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>11500</v>
-      </c>
       <c r="I57" s="3">
+        <v>10200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K57" s="3">
         <v>8800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>9400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>10400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>11100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>10900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>9600</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3198,41 +3460,47 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10200</v>
+        <v>6700</v>
       </c>
       <c r="E58" s="3">
-        <v>8500</v>
+        <v>7300</v>
       </c>
       <c r="F58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="G58" s="3">
+        <v>8400</v>
+      </c>
+      <c r="H58" s="3">
         <v>5200</v>
       </c>
-      <c r="G58" s="3">
-        <v>5200</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J58" s="3">
         <v>5800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>6300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>6900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3245,59 +3513,65 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>31900</v>
+        <v>34300</v>
       </c>
       <c r="E59" s="3">
-        <v>33500</v>
+        <v>29700</v>
       </c>
       <c r="F59" s="3">
-        <v>30600</v>
+        <v>31600</v>
       </c>
       <c r="G59" s="3">
-        <v>27100</v>
+        <v>33200</v>
       </c>
       <c r="H59" s="3">
-        <v>25200</v>
+        <v>30300</v>
       </c>
       <c r="I59" s="3">
+        <v>26900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>24900</v>
+      </c>
+      <c r="K59" s="3">
         <v>21700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>19500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>20900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>18500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>21000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>18100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3310,50 +3584,56 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>54000</v>
+        <v>49900</v>
       </c>
       <c r="E60" s="3">
-        <v>52500</v>
+        <v>46200</v>
       </c>
       <c r="F60" s="3">
-        <v>46400</v>
+        <v>53500</v>
       </c>
       <c r="G60" s="3">
-        <v>42600</v>
+        <v>52100</v>
       </c>
       <c r="H60" s="3">
-        <v>42500</v>
+        <v>46000</v>
       </c>
       <c r="I60" s="3">
+        <v>42200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>42100</v>
+      </c>
+      <c r="K60" s="3">
         <v>36800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>35800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>34500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>29600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>31900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>27700</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3366,8 +3646,14 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,41 +3708,47 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="E62" s="3">
-        <v>2500</v>
+        <v>3100</v>
       </c>
       <c r="F62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G62" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H62" s="3">
         <v>2600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3469,17 +3761,23 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,50 +3956,56 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>57200</v>
+        <v>52500</v>
       </c>
       <c r="E66" s="3">
-        <v>55000</v>
+        <v>49300</v>
       </c>
       <c r="F66" s="3">
-        <v>49000</v>
+        <v>56700</v>
       </c>
       <c r="G66" s="3">
-        <v>43900</v>
+        <v>54500</v>
       </c>
       <c r="H66" s="3">
-        <v>43400</v>
+        <v>48500</v>
       </c>
       <c r="I66" s="3">
+        <v>43500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>43000</v>
+      </c>
+      <c r="K66" s="3">
         <v>37900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>37000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>34900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>29600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>31900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>27700</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3702,8 +4018,14 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3866,20 +4202,20 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>299800</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>257600</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>189100</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,50 +4290,56 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-348700</v>
+        <v>-340400</v>
       </c>
       <c r="E72" s="3">
-        <v>-350000</v>
+        <v>-343200</v>
       </c>
       <c r="F72" s="3">
-        <v>-344600</v>
+        <v>-345600</v>
       </c>
       <c r="G72" s="3">
-        <v>-340300</v>
+        <v>-346900</v>
       </c>
       <c r="H72" s="3">
-        <v>-330000</v>
+        <v>-341500</v>
       </c>
       <c r="I72" s="3">
+        <v>-337200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-327000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-329100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-328200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-347900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-308400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-261800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-185800</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,8 +4352,14 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,50 +4538,56 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>37600</v>
+        <v>46500</v>
       </c>
       <c r="E76" s="3">
-        <v>35700</v>
+        <v>40600</v>
       </c>
       <c r="F76" s="3">
-        <v>39300</v>
+        <v>37200</v>
       </c>
       <c r="G76" s="3">
-        <v>16000</v>
+        <v>35300</v>
       </c>
       <c r="H76" s="3">
-        <v>24900</v>
+        <v>39000</v>
       </c>
       <c r="I76" s="3">
+        <v>15800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>24700</v>
+      </c>
+      <c r="K76" s="3">
         <v>25200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>26000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>28600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-307700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-260900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-185100</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4228,8 +4600,14 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F81" s="3">
         <v>1300</v>
       </c>
-      <c r="E81" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-4300</v>
-      </c>
       <c r="G81" s="3">
-        <v>-10300</v>
+        <v>-5400</v>
       </c>
       <c r="H81" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-31900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-46600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-78500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-18000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-22100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-13000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-9200</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4819,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4458,11 +4856,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
@@ -4479,8 +4877,14 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5187,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4794,11 +5228,11 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
@@ -4815,8 +5249,14 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5277,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4872,11 +5314,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
@@ -4893,8 +5335,14 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5459,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5040,11 +5500,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
@@ -5061,8 +5521,14 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5793,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5363,8 +5855,14 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5398,11 +5896,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
@@ -5419,8 +5917,14 @@
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5454,11 +5958,11 @@
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
@@ -5473,6 +5977,12 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LIZI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LIZI_QTR_FIN.xlsx
@@ -760,25 +760,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>75300</v>
+        <v>71800</v>
       </c>
       <c r="E8" s="3">
-        <v>75500</v>
+        <v>71900</v>
       </c>
       <c r="F8" s="3">
-        <v>81800</v>
+        <v>78000</v>
       </c>
       <c r="G8" s="3">
-        <v>73700</v>
+        <v>70300</v>
       </c>
       <c r="H8" s="3">
-        <v>81700</v>
+        <v>77900</v>
       </c>
       <c r="I8" s="3">
-        <v>72300</v>
+        <v>68900</v>
       </c>
       <c r="J8" s="3">
-        <v>61400</v>
+        <v>58500</v>
       </c>
       <c r="K8" s="3">
         <v>53300</v>
@@ -822,25 +822,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>49700</v>
+        <v>47300</v>
       </c>
       <c r="E9" s="3">
-        <v>50900</v>
+        <v>48500</v>
       </c>
       <c r="F9" s="3">
-        <v>55300</v>
+        <v>52700</v>
       </c>
       <c r="G9" s="3">
-        <v>51600</v>
+        <v>49200</v>
       </c>
       <c r="H9" s="3">
-        <v>58500</v>
+        <v>55800</v>
       </c>
       <c r="I9" s="3">
-        <v>54000</v>
+        <v>51500</v>
       </c>
       <c r="J9" s="3">
-        <v>44000</v>
+        <v>41900</v>
       </c>
       <c r="K9" s="3">
         <v>39900</v>
@@ -884,25 +884,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>25600</v>
+        <v>24400</v>
       </c>
       <c r="E10" s="3">
-        <v>24500</v>
+        <v>23400</v>
       </c>
       <c r="F10" s="3">
-        <v>26600</v>
+        <v>25300</v>
       </c>
       <c r="G10" s="3">
+        <v>21100</v>
+      </c>
+      <c r="H10" s="3">
         <v>22100</v>
       </c>
-      <c r="H10" s="3">
-        <v>23200</v>
-      </c>
       <c r="I10" s="3">
-        <v>18300</v>
+        <v>17400</v>
       </c>
       <c r="J10" s="3">
-        <v>17400</v>
+        <v>16600</v>
       </c>
       <c r="K10" s="3">
         <v>13400</v>
@@ -970,25 +970,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>10300</v>
+        <v>9800</v>
       </c>
       <c r="E12" s="3">
-        <v>10400</v>
+        <v>9900</v>
       </c>
       <c r="F12" s="3">
-        <v>10700</v>
+        <v>10200</v>
       </c>
       <c r="G12" s="3">
-        <v>10700</v>
+        <v>10200</v>
       </c>
       <c r="H12" s="3">
-        <v>8900</v>
+        <v>8500</v>
       </c>
       <c r="I12" s="3">
-        <v>8300</v>
+        <v>7900</v>
       </c>
       <c r="J12" s="3">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="K12" s="3">
         <v>8200</v>
@@ -1239,25 +1239,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>73300</v>
+        <v>69800</v>
       </c>
       <c r="E17" s="3">
-        <v>73300</v>
+        <v>69900</v>
       </c>
       <c r="F17" s="3">
-        <v>81000</v>
+        <v>77300</v>
       </c>
       <c r="G17" s="3">
-        <v>79600</v>
+        <v>75900</v>
       </c>
       <c r="H17" s="3">
-        <v>86300</v>
+        <v>82200</v>
       </c>
       <c r="I17" s="3">
-        <v>82800</v>
+        <v>79000</v>
       </c>
       <c r="J17" s="3">
-        <v>62300</v>
+        <v>59400</v>
       </c>
       <c r="K17" s="3">
         <v>54700</v>
@@ -1301,22 +1301,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E18" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F18" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G18" s="3">
-        <v>-5900</v>
+        <v>-5600</v>
       </c>
       <c r="H18" s="3">
-        <v>-4600</v>
+        <v>-4400</v>
       </c>
       <c r="I18" s="3">
-        <v>-10500</v>
+        <v>-10000</v>
       </c>
       <c r="J18" s="3">
         <v>-900</v>
@@ -1573,22 +1573,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="E23" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="F23" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="G23" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="H23" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="I23" s="3">
-        <v>-10200</v>
+        <v>-9700</v>
       </c>
       <c r="J23" s="3">
         <v>-700</v>
@@ -1759,25 +1759,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="E26" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="F26" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G26" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="H26" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="I26" s="3">
-        <v>-10200</v>
+        <v>-9700</v>
       </c>
       <c r="J26" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="K26" s="3">
         <v>-900</v>
@@ -1821,25 +1821,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="E27" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="F27" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G27" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="H27" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="I27" s="3">
-        <v>-10200</v>
+        <v>-9700</v>
       </c>
       <c r="J27" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="K27" s="3">
         <v>-900</v>
@@ -2193,25 +2193,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="E33" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="F33" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G33" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="H33" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="I33" s="3">
-        <v>-10200</v>
+        <v>-9700</v>
       </c>
       <c r="J33" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="K33" s="3">
         <v>-900</v>
@@ -2317,25 +2317,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="E35" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="F35" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G35" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="H35" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="I35" s="3">
-        <v>-10200</v>
+        <v>-9700</v>
       </c>
       <c r="J35" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="K35" s="3">
         <v>-900</v>
@@ -2494,25 +2494,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>85100</v>
+        <v>81100</v>
       </c>
       <c r="E41" s="3">
-        <v>71600</v>
+        <v>68200</v>
       </c>
       <c r="F41" s="3">
-        <v>77900</v>
+        <v>74200</v>
       </c>
       <c r="G41" s="3">
-        <v>74700</v>
+        <v>71200</v>
       </c>
       <c r="H41" s="3">
-        <v>71600</v>
+        <v>68200</v>
       </c>
       <c r="I41" s="3">
-        <v>44500</v>
+        <v>42400</v>
       </c>
       <c r="J41" s="3">
-        <v>46100</v>
+        <v>43900</v>
       </c>
       <c r="K41" s="3">
         <v>39300</v>
@@ -2559,7 +2559,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2571,10 +2571,10 @@
         <v>200</v>
       </c>
       <c r="I42" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J42" s="3">
-        <v>10700</v>
+        <v>10200</v>
       </c>
       <c r="K42" s="3">
         <v>11900</v>
@@ -2627,13 +2627,13 @@
         <v>900</v>
       </c>
       <c r="G43" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H43" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I43" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J43" s="3">
         <v>1200</v>
@@ -2742,25 +2742,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="E45" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F45" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G45" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H45" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I45" s="3">
         <v>5100</v>
       </c>
-      <c r="F45" s="3">
-        <v>5500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>5900</v>
-      </c>
-      <c r="H45" s="3">
-        <v>6000</v>
-      </c>
-      <c r="I45" s="3">
-        <v>5300</v>
-      </c>
       <c r="J45" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K45" s="3">
         <v>3300</v>
@@ -2804,25 +2804,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>89900</v>
+        <v>85700</v>
       </c>
       <c r="E46" s="3">
-        <v>80100</v>
+        <v>76300</v>
       </c>
       <c r="F46" s="3">
-        <v>84300</v>
+        <v>80400</v>
       </c>
       <c r="G46" s="3">
-        <v>81700</v>
+        <v>77800</v>
       </c>
       <c r="H46" s="3">
-        <v>78900</v>
+        <v>75200</v>
       </c>
       <c r="I46" s="3">
-        <v>52700</v>
+        <v>50200</v>
       </c>
       <c r="J46" s="3">
-        <v>61300</v>
+        <v>58500</v>
       </c>
       <c r="K46" s="3">
         <v>55800</v>
@@ -2928,25 +2928,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8900</v>
+        <v>8500</v>
       </c>
       <c r="E48" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="F48" s="3">
-        <v>9100</v>
+        <v>8700</v>
       </c>
       <c r="G48" s="3">
-        <v>7700</v>
+        <v>7300</v>
       </c>
       <c r="H48" s="3">
-        <v>8000</v>
+        <v>7600</v>
       </c>
       <c r="I48" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="J48" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="K48" s="3">
         <v>6400</v>
@@ -2993,7 +2993,7 @@
         <v>200</v>
       </c>
       <c r="E49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F49" s="3">
         <v>300</v>
@@ -3300,25 +3300,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>99000</v>
+        <v>94400</v>
       </c>
       <c r="E54" s="3">
-        <v>90000</v>
+        <v>85800</v>
       </c>
       <c r="F54" s="3">
-        <v>93900</v>
+        <v>89500</v>
       </c>
       <c r="G54" s="3">
-        <v>89800</v>
+        <v>85600</v>
       </c>
       <c r="H54" s="3">
-        <v>87500</v>
+        <v>83400</v>
       </c>
       <c r="I54" s="3">
-        <v>59300</v>
+        <v>56500</v>
       </c>
       <c r="J54" s="3">
-        <v>67700</v>
+        <v>64600</v>
       </c>
       <c r="K54" s="3">
         <v>63100</v>
@@ -3410,25 +3410,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8900</v>
+        <v>8500</v>
       </c>
       <c r="E57" s="3">
-        <v>9200</v>
+        <v>8800</v>
       </c>
       <c r="F57" s="3">
-        <v>11800</v>
+        <v>11200</v>
       </c>
       <c r="G57" s="3">
-        <v>10400</v>
+        <v>9900</v>
       </c>
       <c r="H57" s="3">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="I57" s="3">
-        <v>10200</v>
+        <v>9700</v>
       </c>
       <c r="J57" s="3">
-        <v>11400</v>
+        <v>10900</v>
       </c>
       <c r="K57" s="3">
         <v>8800</v>
@@ -3472,25 +3472,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="E58" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="F58" s="3">
-        <v>10100</v>
+        <v>9600</v>
       </c>
       <c r="G58" s="3">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="H58" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="I58" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="J58" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="K58" s="3">
         <v>6300</v>
@@ -3534,25 +3534,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>34300</v>
+        <v>32700</v>
       </c>
       <c r="E59" s="3">
-        <v>29700</v>
+        <v>28300</v>
       </c>
       <c r="F59" s="3">
-        <v>31600</v>
+        <v>30200</v>
       </c>
       <c r="G59" s="3">
-        <v>33200</v>
+        <v>31700</v>
       </c>
       <c r="H59" s="3">
-        <v>30300</v>
+        <v>28900</v>
       </c>
       <c r="I59" s="3">
-        <v>26900</v>
+        <v>25600</v>
       </c>
       <c r="J59" s="3">
-        <v>24900</v>
+        <v>23800</v>
       </c>
       <c r="K59" s="3">
         <v>21700</v>
@@ -3596,25 +3596,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>49900</v>
+        <v>47600</v>
       </c>
       <c r="E60" s="3">
-        <v>46200</v>
+        <v>44100</v>
       </c>
       <c r="F60" s="3">
-        <v>53500</v>
+        <v>51000</v>
       </c>
       <c r="G60" s="3">
-        <v>52100</v>
+        <v>49600</v>
       </c>
       <c r="H60" s="3">
-        <v>46000</v>
+        <v>43800</v>
       </c>
       <c r="I60" s="3">
-        <v>42200</v>
+        <v>40300</v>
       </c>
       <c r="J60" s="3">
-        <v>42100</v>
+        <v>40200</v>
       </c>
       <c r="K60" s="3">
         <v>36800</v>
@@ -3720,25 +3720,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E62" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="F62" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="G62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H62" s="3">
         <v>2400</v>
       </c>
-      <c r="H62" s="3">
-        <v>2600</v>
-      </c>
       <c r="I62" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J62" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K62" s="3">
         <v>1100</v>
@@ -3968,25 +3968,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>52500</v>
+        <v>50000</v>
       </c>
       <c r="E66" s="3">
-        <v>49300</v>
+        <v>47000</v>
       </c>
       <c r="F66" s="3">
-        <v>56700</v>
+        <v>54000</v>
       </c>
       <c r="G66" s="3">
-        <v>54500</v>
+        <v>51900</v>
       </c>
       <c r="H66" s="3">
-        <v>48500</v>
+        <v>46200</v>
       </c>
       <c r="I66" s="3">
-        <v>43500</v>
+        <v>41500</v>
       </c>
       <c r="J66" s="3">
-        <v>43000</v>
+        <v>41000</v>
       </c>
       <c r="K66" s="3">
         <v>37900</v>
@@ -4302,25 +4302,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-340400</v>
+        <v>-324500</v>
       </c>
       <c r="E72" s="3">
-        <v>-343200</v>
+        <v>-327100</v>
       </c>
       <c r="F72" s="3">
-        <v>-345600</v>
+        <v>-329400</v>
       </c>
       <c r="G72" s="3">
-        <v>-346900</v>
+        <v>-330700</v>
       </c>
       <c r="H72" s="3">
-        <v>-341500</v>
+        <v>-325500</v>
       </c>
       <c r="I72" s="3">
-        <v>-337200</v>
+        <v>-321500</v>
       </c>
       <c r="J72" s="3">
-        <v>-327000</v>
+        <v>-311700</v>
       </c>
       <c r="K72" s="3">
         <v>-329100</v>
@@ -4550,25 +4550,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>46500</v>
+        <v>44400</v>
       </c>
       <c r="E76" s="3">
-        <v>40600</v>
+        <v>38700</v>
       </c>
       <c r="F76" s="3">
-        <v>37200</v>
+        <v>35500</v>
       </c>
       <c r="G76" s="3">
-        <v>35300</v>
+        <v>33700</v>
       </c>
       <c r="H76" s="3">
-        <v>39000</v>
+        <v>37100</v>
       </c>
       <c r="I76" s="3">
-        <v>15800</v>
+        <v>15100</v>
       </c>
       <c r="J76" s="3">
-        <v>24700</v>
+        <v>23600</v>
       </c>
       <c r="K76" s="3">
         <v>25200</v>
@@ -4741,25 +4741,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="E81" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="F81" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G81" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="H81" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="I81" s="3">
-        <v>-10200</v>
+        <v>-9700</v>
       </c>
       <c r="J81" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="K81" s="3">
         <v>-900</v>

--- a/AAII_Financials/Quarterly/LIZI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LIZI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
   <si>
     <t>LIZI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>71800</v>
+        <v>81200</v>
       </c>
       <c r="E8" s="3">
-        <v>71900</v>
+        <v>74100</v>
       </c>
       <c r="F8" s="3">
-        <v>78000</v>
+        <v>74200</v>
       </c>
       <c r="G8" s="3">
-        <v>70300</v>
+        <v>80500</v>
       </c>
       <c r="H8" s="3">
-        <v>77900</v>
+        <v>72500</v>
       </c>
       <c r="I8" s="3">
-        <v>68900</v>
+        <v>80300</v>
       </c>
       <c r="J8" s="3">
+        <v>71100</v>
+      </c>
+      <c r="K8" s="3">
         <v>58500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>53300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>51700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>58400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>56200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>50600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>35100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>39800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>36500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>27800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>26100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>26000</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>47300</v>
+        <v>54000</v>
       </c>
       <c r="E9" s="3">
-        <v>48500</v>
+        <v>48800</v>
       </c>
       <c r="F9" s="3">
-        <v>52700</v>
+        <v>50100</v>
       </c>
       <c r="G9" s="3">
-        <v>49200</v>
+        <v>54300</v>
       </c>
       <c r="H9" s="3">
-        <v>55800</v>
+        <v>50800</v>
       </c>
       <c r="I9" s="3">
-        <v>51500</v>
+        <v>57500</v>
       </c>
       <c r="J9" s="3">
+        <v>53100</v>
+      </c>
+      <c r="K9" s="3">
         <v>41900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>39900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>39100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>46900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>46300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>40700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>25100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>28000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>25800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>19100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>18400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>19100</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>24400</v>
+        <v>27200</v>
       </c>
       <c r="E10" s="3">
-        <v>23400</v>
+        <v>25200</v>
       </c>
       <c r="F10" s="3">
-        <v>25300</v>
+        <v>24100</v>
       </c>
       <c r="G10" s="3">
-        <v>21100</v>
+        <v>26100</v>
       </c>
       <c r="H10" s="3">
-        <v>22100</v>
+        <v>21700</v>
       </c>
       <c r="I10" s="3">
-        <v>17400</v>
+        <v>22800</v>
       </c>
       <c r="J10" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K10" s="3">
         <v>16600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11500</v>
-      </c>
-      <c r="N10" s="3">
-        <v>9900</v>
       </c>
       <c r="O10" s="3">
         <v>9900</v>
       </c>
       <c r="P10" s="3">
+        <v>9900</v>
+      </c>
+      <c r="Q10" s="3">
         <v>10000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>11800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>10700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6900</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,70 +977,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>9800</v>
+        <v>11200</v>
       </c>
       <c r="E12" s="3">
-        <v>9900</v>
+        <v>10100</v>
       </c>
       <c r="F12" s="3">
         <v>10200</v>
       </c>
       <c r="G12" s="3">
-        <v>10200</v>
+        <v>10600</v>
       </c>
       <c r="H12" s="3">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="I12" s="3">
+        <v>8800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K12" s="3">
         <v>7900</v>
       </c>
-      <c r="J12" s="3">
-        <v>7900</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2400</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>69800</v>
+        <v>79400</v>
       </c>
       <c r="E17" s="3">
-        <v>69900</v>
+        <v>72000</v>
       </c>
       <c r="F17" s="3">
-        <v>77300</v>
+        <v>72100</v>
       </c>
       <c r="G17" s="3">
-        <v>75900</v>
+        <v>79700</v>
       </c>
       <c r="H17" s="3">
-        <v>82200</v>
+        <v>78300</v>
       </c>
       <c r="I17" s="3">
-        <v>79000</v>
+        <v>84900</v>
       </c>
       <c r="J17" s="3">
+        <v>81500</v>
+      </c>
+      <c r="K17" s="3">
         <v>59400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>54700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>55400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>65900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>61100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>58600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>42600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>41400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>36100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>28500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>26600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>26900</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="E18" s="3">
         <v>2000</v>
       </c>
       <c r="F18" s="3">
-        <v>700</v>
+        <v>2100</v>
       </c>
       <c r="G18" s="3">
-        <v>-5600</v>
+        <v>800</v>
       </c>
       <c r="H18" s="3">
-        <v>-4400</v>
+        <v>-5800</v>
       </c>
       <c r="I18" s="3">
-        <v>-10000</v>
+        <v>-4500</v>
       </c>
       <c r="J18" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-900</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,70 +1414,74 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
-      </c>
-      <c r="G20" s="3">
-        <v>400</v>
       </c>
       <c r="H20" s="3">
         <v>400</v>
       </c>
       <c r="I20" s="3">
+        <v>400</v>
+      </c>
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-100</v>
       </c>
       <c r="R20" s="3">
         <v>-100</v>
       </c>
       <c r="S20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1481,32 +1518,35 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>-6200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
         <v>1800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>500</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,70 +1607,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="E23" s="3">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="F23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G23" s="3">
         <v>1300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-5200</v>
-      </c>
       <c r="H23" s="3">
-        <v>-4000</v>
+        <v>-5300</v>
       </c>
       <c r="I23" s="3">
-        <v>-9700</v>
+        <v>-4200</v>
       </c>
       <c r="J23" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>300</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-200</v>
       </c>
       <c r="T23" s="3">
         <v>-200</v>
       </c>
       <c r="U23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V23" s="3">
         <v>-1300</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,11 +1687,11 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1653,11 +1699,11 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1691,8 +1737,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="E26" s="3">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="F26" s="3">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G26" s="3">
-        <v>-5200</v>
+        <v>1300</v>
       </c>
       <c r="H26" s="3">
-        <v>-4000</v>
+        <v>-5300</v>
       </c>
       <c r="I26" s="3">
-        <v>-9700</v>
+        <v>-4200</v>
       </c>
       <c r="J26" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-200</v>
       </c>
       <c r="T26" s="3">
         <v>-200</v>
       </c>
       <c r="U26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V26" s="3">
         <v>-1300</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="E27" s="3">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="F27" s="3">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G27" s="3">
-        <v>-5200</v>
+        <v>1300</v>
       </c>
       <c r="H27" s="3">
-        <v>-4000</v>
+        <v>-5300</v>
       </c>
       <c r="I27" s="3">
-        <v>-9700</v>
+        <v>-4200</v>
       </c>
       <c r="J27" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-31900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-46600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-78500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-22100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-13000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-9200</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-400</v>
       </c>
       <c r="H32" s="3">
         <v>-400</v>
       </c>
       <c r="I32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>100</v>
       </c>
       <c r="R32" s="3">
         <v>100</v>
       </c>
       <c r="S32" s="3">
+        <v>100</v>
+      </c>
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>400</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="E33" s="3">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="F33" s="3">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G33" s="3">
-        <v>-5200</v>
+        <v>1300</v>
       </c>
       <c r="H33" s="3">
-        <v>-4000</v>
+        <v>-5300</v>
       </c>
       <c r="I33" s="3">
-        <v>-9700</v>
+        <v>-4200</v>
       </c>
       <c r="J33" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-31900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-46600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-78500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-22100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-13000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-9200</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="E35" s="3">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="F35" s="3">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G35" s="3">
-        <v>-5200</v>
+        <v>1300</v>
       </c>
       <c r="H35" s="3">
-        <v>-4000</v>
+        <v>-5300</v>
       </c>
       <c r="I35" s="3">
-        <v>-9700</v>
+        <v>-4200</v>
       </c>
       <c r="J35" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-31900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-46600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-78500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-22100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-13000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-9200</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,53 +2574,54 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>81100</v>
+        <v>74300</v>
       </c>
       <c r="E41" s="3">
-        <v>68200</v>
+        <v>83700</v>
       </c>
       <c r="F41" s="3">
-        <v>74200</v>
+        <v>70400</v>
       </c>
       <c r="G41" s="3">
-        <v>71200</v>
+        <v>76600</v>
       </c>
       <c r="H41" s="3">
-        <v>68200</v>
+        <v>73500</v>
       </c>
       <c r="I41" s="3">
-        <v>42400</v>
+        <v>70400</v>
       </c>
       <c r="J41" s="3">
+        <v>43800</v>
+      </c>
+      <c r="K41" s="3">
         <v>43900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>39300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>40100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>38000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>19300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>25200</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2550,44 +2637,47 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3">
-        <v>2800</v>
+      <c r="D42" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>200</v>
       </c>
-      <c r="I42" s="3">
-        <v>1400</v>
-      </c>
       <c r="J42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K42" s="3">
         <v>10200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>11900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>11800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>13600</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2603,8 +2693,8 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -2612,53 +2702,56 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M43" s="3">
         <v>1000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="N43" s="3">
+        <v>700</v>
+      </c>
+      <c r="O43" s="3">
         <v>1000</v>
       </c>
-      <c r="I43" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1300</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M43" s="3">
-        <v>700</v>
-      </c>
-      <c r="N43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1100</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2674,8 +2767,11 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,53 +2832,56 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4200</v>
+        <v>4900</v>
       </c>
       <c r="E45" s="3">
-        <v>4800</v>
+        <v>4300</v>
       </c>
       <c r="F45" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="G45" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="H45" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="I45" s="3">
-        <v>5100</v>
+        <v>5900</v>
       </c>
       <c r="J45" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K45" s="3">
         <v>3200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1300</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2798,53 +2897,56 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>85700</v>
+        <v>94100</v>
       </c>
       <c r="E46" s="3">
-        <v>76300</v>
+        <v>88400</v>
       </c>
       <c r="F46" s="3">
-        <v>80400</v>
+        <v>78800</v>
       </c>
       <c r="G46" s="3">
-        <v>77800</v>
+        <v>82900</v>
       </c>
       <c r="H46" s="3">
-        <v>75200</v>
+        <v>80300</v>
       </c>
       <c r="I46" s="3">
-        <v>50200</v>
+        <v>77600</v>
       </c>
       <c r="J46" s="3">
+        <v>51800</v>
+      </c>
+      <c r="K46" s="3">
         <v>58500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>55800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>56000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>56200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>22800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>27600</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2860,8 +2962,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,53 +3027,56 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8500</v>
+        <v>8100</v>
       </c>
       <c r="E48" s="3">
-        <v>9100</v>
+        <v>8800</v>
       </c>
       <c r="F48" s="3">
-        <v>8700</v>
+        <v>9400</v>
       </c>
       <c r="G48" s="3">
-        <v>7300</v>
+        <v>9000</v>
       </c>
       <c r="H48" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="I48" s="3">
-        <v>5700</v>
+        <v>7800</v>
       </c>
       <c r="J48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K48" s="3">
         <v>5400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3500</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2984,8 +3092,11 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2999,7 +3110,7 @@
         <v>300</v>
       </c>
       <c r="G49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H49" s="3">
         <v>400</v>
@@ -3011,10 +3122,10 @@
         <v>400</v>
       </c>
       <c r="K49" s="3">
+        <v>400</v>
+      </c>
+      <c r="L49" s="3">
         <v>200</v>
-      </c>
-      <c r="L49" s="3">
-        <v>300</v>
       </c>
       <c r="M49" s="3">
         <v>300</v>
@@ -3028,8 +3139,8 @@
       <c r="P49" s="3">
         <v>300</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
+      <c r="Q49" s="3">
+        <v>300</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3179,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -3188,35 +3308,35 @@
         <v>100</v>
       </c>
       <c r="H52" s="3">
+        <v>100</v>
+      </c>
+      <c r="I52" s="3">
         <v>200</v>
-      </c>
-      <c r="I52" s="3">
-        <v>300</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
       </c>
       <c r="K52" s="3">
+        <v>300</v>
+      </c>
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>700</v>
-      </c>
-      <c r="M52" s="3">
-        <v>300</v>
       </c>
       <c r="N52" s="3">
         <v>300</v>
       </c>
       <c r="O52" s="3">
+        <v>300</v>
+      </c>
+      <c r="P52" s="3">
         <v>500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>400</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,53 +3417,56 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>94400</v>
+        <v>102500</v>
       </c>
       <c r="E54" s="3">
-        <v>85800</v>
+        <v>97400</v>
       </c>
       <c r="F54" s="3">
-        <v>89500</v>
+        <v>88500</v>
       </c>
       <c r="G54" s="3">
-        <v>85600</v>
+        <v>92300</v>
       </c>
       <c r="H54" s="3">
-        <v>83400</v>
+        <v>88300</v>
       </c>
       <c r="I54" s="3">
-        <v>56500</v>
+        <v>86000</v>
       </c>
       <c r="J54" s="3">
+        <v>58300</v>
+      </c>
+      <c r="K54" s="3">
         <v>64600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>63100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>63000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>63500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>21700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>31700</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3356,8 +3482,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,53 +3534,54 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8500</v>
+        <v>7400</v>
       </c>
       <c r="E57" s="3">
         <v>8800</v>
       </c>
       <c r="F57" s="3">
-        <v>11200</v>
+        <v>9100</v>
       </c>
       <c r="G57" s="3">
-        <v>9900</v>
+        <v>11600</v>
       </c>
       <c r="H57" s="3">
+        <v>10200</v>
+      </c>
+      <c r="I57" s="3">
+        <v>10300</v>
+      </c>
+      <c r="J57" s="3">
         <v>10000</v>
       </c>
-      <c r="I57" s="3">
-        <v>9700</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9600</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3466,44 +3597,47 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6400</v>
+        <v>6000</v>
       </c>
       <c r="E58" s="3">
-        <v>7000</v>
+        <v>6600</v>
       </c>
       <c r="F58" s="3">
-        <v>9600</v>
+        <v>7200</v>
       </c>
       <c r="G58" s="3">
-        <v>8000</v>
+        <v>9900</v>
       </c>
       <c r="H58" s="3">
-        <v>4900</v>
+        <v>8300</v>
       </c>
       <c r="I58" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="J58" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K58" s="3">
         <v>5500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3519,8 +3653,8 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -3528,53 +3662,56 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>33700</v>
+      </c>
+      <c r="F59" s="3">
+        <v>29200</v>
+      </c>
+      <c r="G59" s="3">
+        <v>31100</v>
+      </c>
+      <c r="H59" s="3">
         <v>32700</v>
       </c>
-      <c r="E59" s="3">
-        <v>28300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>30200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>31700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>28900</v>
-      </c>
       <c r="I59" s="3">
-        <v>25600</v>
+        <v>29800</v>
       </c>
       <c r="J59" s="3">
+        <v>26400</v>
+      </c>
+      <c r="K59" s="3">
         <v>23800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>20900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>18500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>21000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>18100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3590,53 +3727,56 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>47600</v>
+        <v>48700</v>
       </c>
       <c r="E60" s="3">
-        <v>44100</v>
+        <v>49100</v>
       </c>
       <c r="F60" s="3">
-        <v>51000</v>
+        <v>45500</v>
       </c>
       <c r="G60" s="3">
-        <v>49600</v>
+        <v>52600</v>
       </c>
       <c r="H60" s="3">
-        <v>43800</v>
+        <v>51200</v>
       </c>
       <c r="I60" s="3">
-        <v>40300</v>
+        <v>45200</v>
       </c>
       <c r="J60" s="3">
+        <v>41500</v>
+      </c>
+      <c r="K60" s="3">
         <v>40200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>36800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>35800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>34500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>29600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>31900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>27700</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3652,8 +3792,11 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,44 +3857,47 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E62" s="3">
         <v>2500</v>
-      </c>
-      <c r="E62" s="3">
-        <v>3000</v>
       </c>
       <c r="F62" s="3">
         <v>3000</v>
       </c>
       <c r="G62" s="3">
-        <v>2300</v>
+        <v>3100</v>
       </c>
       <c r="H62" s="3">
         <v>2400</v>
       </c>
       <c r="I62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J62" s="3">
         <v>1200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>400</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3767,8 +3913,8 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,53 +4117,56 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>50000</v>
+        <v>50800</v>
       </c>
       <c r="E66" s="3">
-        <v>47000</v>
+        <v>51600</v>
       </c>
       <c r="F66" s="3">
-        <v>54000</v>
+        <v>48500</v>
       </c>
       <c r="G66" s="3">
-        <v>51900</v>
+        <v>55700</v>
       </c>
       <c r="H66" s="3">
-        <v>46200</v>
+        <v>53600</v>
       </c>
       <c r="I66" s="3">
-        <v>41500</v>
+        <v>47700</v>
       </c>
       <c r="J66" s="3">
+        <v>42800</v>
+      </c>
+      <c r="K66" s="3">
         <v>41000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>37900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>37000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>34900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>29600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>31900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>27700</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4024,8 +4182,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4208,17 +4376,17 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>299800</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>257600</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>189100</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,53 +4467,56 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-324500</v>
+        <v>-332000</v>
       </c>
       <c r="E72" s="3">
-        <v>-327100</v>
+        <v>-334800</v>
       </c>
       <c r="F72" s="3">
-        <v>-329400</v>
+        <v>-337500</v>
       </c>
       <c r="G72" s="3">
-        <v>-330700</v>
+        <v>-339900</v>
       </c>
       <c r="H72" s="3">
-        <v>-325500</v>
+        <v>-341200</v>
       </c>
       <c r="I72" s="3">
-        <v>-321500</v>
+        <v>-335800</v>
       </c>
       <c r="J72" s="3">
+        <v>-331700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-311700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-329100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-328200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-347900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-308400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-261800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-185800</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4358,8 +4532,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,53 +4727,56 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>44400</v>
+        <v>51700</v>
       </c>
       <c r="E76" s="3">
-        <v>38700</v>
+        <v>45800</v>
       </c>
       <c r="F76" s="3">
-        <v>35500</v>
+        <v>40000</v>
       </c>
       <c r="G76" s="3">
-        <v>33700</v>
+        <v>36600</v>
       </c>
       <c r="H76" s="3">
-        <v>37100</v>
+        <v>34800</v>
       </c>
       <c r="I76" s="3">
-        <v>15100</v>
+        <v>38300</v>
       </c>
       <c r="J76" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K76" s="3">
         <v>23600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>25200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>28600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-307700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-260900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-185100</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4606,8 +4792,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="E81" s="3">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="F81" s="3">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G81" s="3">
-        <v>-5200</v>
+        <v>1300</v>
       </c>
       <c r="H81" s="3">
-        <v>-4000</v>
+        <v>-5300</v>
       </c>
       <c r="I81" s="3">
-        <v>-9700</v>
+        <v>-4200</v>
       </c>
       <c r="J81" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-31900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-46600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-78500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-22100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-13000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-9200</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4862,8 +5061,8 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,8 +5407,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5234,8 +5451,8 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
+      <c r="P89" s="3">
+        <v>0</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
@@ -5255,8 +5472,11 @@
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5499,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5320,8 +5541,8 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5692,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5506,8 +5736,8 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
@@ -5527,8 +5757,11 @@
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,8 +6042,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5861,8 +6107,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5902,8 +6151,8 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
@@ -5923,8 +6172,11 @@
       <c r="V101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5964,8 +6216,8 @@
       <c r="O102" s="3">
         <v>0</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
+      <c r="P102" s="3">
+        <v>0</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
@@ -5983,6 +6235,9 @@
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LIZI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LIZI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
   <si>
     <t>LIZI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,308 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>81200</v>
+        <v>83500</v>
       </c>
       <c r="E8" s="3">
-        <v>74100</v>
+        <v>80300</v>
       </c>
       <c r="F8" s="3">
-        <v>74200</v>
+        <v>73300</v>
       </c>
       <c r="G8" s="3">
-        <v>80500</v>
+        <v>73400</v>
       </c>
       <c r="H8" s="3">
-        <v>72500</v>
+        <v>79600</v>
       </c>
       <c r="I8" s="3">
-        <v>80300</v>
+        <v>71800</v>
       </c>
       <c r="J8" s="3">
+        <v>79500</v>
+      </c>
+      <c r="K8" s="3">
         <v>71100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>58500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>53300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>51700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>58400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>56200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>50600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>35100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>39800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>36500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>27800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>26100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>26000</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>54000</v>
+        <v>57400</v>
       </c>
       <c r="E9" s="3">
-        <v>48800</v>
+        <v>53500</v>
       </c>
       <c r="F9" s="3">
-        <v>50100</v>
+        <v>48300</v>
       </c>
       <c r="G9" s="3">
-        <v>54300</v>
+        <v>49600</v>
       </c>
       <c r="H9" s="3">
-        <v>50800</v>
+        <v>53800</v>
       </c>
       <c r="I9" s="3">
-        <v>57500</v>
+        <v>50300</v>
       </c>
       <c r="J9" s="3">
+        <v>56900</v>
+      </c>
+      <c r="K9" s="3">
         <v>53100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>41900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>39900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>39100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>46900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>46300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>40700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>25100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>28000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>25800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>19100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>18400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>19100</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>27200</v>
+        <v>26100</v>
       </c>
       <c r="E10" s="3">
-        <v>25200</v>
+        <v>26900</v>
       </c>
       <c r="F10" s="3">
-        <v>24100</v>
+        <v>25000</v>
       </c>
       <c r="G10" s="3">
-        <v>26100</v>
+        <v>23900</v>
       </c>
       <c r="H10" s="3">
-        <v>21700</v>
+        <v>25900</v>
       </c>
       <c r="I10" s="3">
-        <v>22800</v>
+        <v>21500</v>
       </c>
       <c r="J10" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K10" s="3">
         <v>18000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>16600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11500</v>
-      </c>
-      <c r="O10" s="3">
-        <v>9900</v>
       </c>
       <c r="P10" s="3">
         <v>9900</v>
       </c>
       <c r="Q10" s="3">
+        <v>9900</v>
+      </c>
+      <c r="R10" s="3">
         <v>10000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>11800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>10700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6900</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>11200</v>
+        <v>9100</v>
       </c>
       <c r="E12" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G12" s="3">
         <v>10100</v>
-      </c>
-      <c r="F12" s="3">
-        <v>10200</v>
-      </c>
-      <c r="G12" s="3">
-        <v>10600</v>
       </c>
       <c r="H12" s="3">
         <v>10500</v>
       </c>
       <c r="I12" s="3">
-        <v>8800</v>
+        <v>10400</v>
       </c>
       <c r="J12" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K12" s="3">
         <v>8200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>5200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2400</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1173,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>79400</v>
+        <v>79900</v>
       </c>
       <c r="E17" s="3">
-        <v>72000</v>
+        <v>78600</v>
       </c>
       <c r="F17" s="3">
-        <v>72100</v>
+        <v>71300</v>
       </c>
       <c r="G17" s="3">
-        <v>79700</v>
+        <v>71400</v>
       </c>
       <c r="H17" s="3">
-        <v>78300</v>
+        <v>78900</v>
       </c>
       <c r="I17" s="3">
-        <v>84900</v>
+        <v>77500</v>
       </c>
       <c r="J17" s="3">
+        <v>84000</v>
+      </c>
+      <c r="K17" s="3">
         <v>81500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>59400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>54700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>55400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>65900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>61100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>58600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>42600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>41400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>36100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>28500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>26600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>26900</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E18" s="3">
         <v>1800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>800</v>
       </c>
-      <c r="H18" s="3">
-        <v>-5800</v>
-      </c>
       <c r="I18" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="J18" s="3">
         <v>-4500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-7500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-900</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,73 +1447,77 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="E20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
-      </c>
-      <c r="H20" s="3">
-        <v>400</v>
       </c>
       <c r="I20" s="3">
         <v>400</v>
       </c>
       <c r="J20" s="3">
+        <v>400</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-100</v>
       </c>
       <c r="S20" s="3">
         <v>-100</v>
       </c>
       <c r="T20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-400</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1521,32 +1557,35 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-6100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
         <v>1800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>500</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1610,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E23" s="3">
         <v>2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2700</v>
       </c>
-      <c r="F23" s="3">
-        <v>2400</v>
-      </c>
       <c r="G23" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H23" s="3">
         <v>1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5300</v>
       </c>
-      <c r="I23" s="3">
-        <v>-4200</v>
-      </c>
       <c r="J23" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-10100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>300</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-200</v>
       </c>
       <c r="U23" s="3">
         <v>-200</v>
       </c>
       <c r="V23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W23" s="3">
         <v>-1300</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,11 +1735,11 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1702,11 +1747,11 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1740,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E26" s="3">
         <v>2800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2700</v>
       </c>
-      <c r="F26" s="3">
-        <v>2400</v>
-      </c>
       <c r="G26" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H26" s="3">
         <v>1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5300</v>
       </c>
-      <c r="I26" s="3">
-        <v>-4200</v>
-      </c>
       <c r="J26" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-10100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>300</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-200</v>
       </c>
       <c r="U26" s="3">
         <v>-200</v>
       </c>
       <c r="V26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W26" s="3">
         <v>-1300</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E27" s="3">
         <v>2800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2700</v>
       </c>
-      <c r="F27" s="3">
-        <v>2400</v>
-      </c>
       <c r="G27" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H27" s="3">
         <v>1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5300</v>
       </c>
-      <c r="I27" s="3">
-        <v>-4200</v>
-      </c>
       <c r="J27" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-10100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-31900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-46600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-78500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-18000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-22100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-8900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-13000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-9200</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1100</v>
+        <v>-900</v>
       </c>
       <c r="E32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-400</v>
       </c>
       <c r="I32" s="3">
         <v>-400</v>
       </c>
       <c r="J32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
-      </c>
-      <c r="R32" s="3">
-        <v>100</v>
       </c>
       <c r="S32" s="3">
         <v>100</v>
       </c>
       <c r="T32" s="3">
+        <v>100</v>
+      </c>
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>400</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E33" s="3">
         <v>2800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2700</v>
       </c>
-      <c r="F33" s="3">
-        <v>2400</v>
-      </c>
       <c r="G33" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H33" s="3">
         <v>1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5300</v>
       </c>
-      <c r="I33" s="3">
-        <v>-4200</v>
-      </c>
       <c r="J33" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-10100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-31900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-46600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-78500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-18000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-22100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-13000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-9200</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E35" s="3">
         <v>2800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2700</v>
       </c>
-      <c r="F35" s="3">
-        <v>2400</v>
-      </c>
       <c r="G35" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H35" s="3">
         <v>1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5300</v>
       </c>
-      <c r="I35" s="3">
-        <v>-4200</v>
-      </c>
       <c r="J35" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-10100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-31900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-46600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-78500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-18000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-22100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-13000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-9200</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,56 +2660,57 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>74300</v>
+        <v>80800</v>
       </c>
       <c r="E41" s="3">
-        <v>83700</v>
+        <v>73600</v>
       </c>
       <c r="F41" s="3">
-        <v>70400</v>
+        <v>82800</v>
       </c>
       <c r="G41" s="3">
-        <v>76600</v>
+        <v>69700</v>
       </c>
       <c r="H41" s="3">
-        <v>73500</v>
+        <v>75800</v>
       </c>
       <c r="I41" s="3">
-        <v>70400</v>
+        <v>72700</v>
       </c>
       <c r="J41" s="3">
+        <v>69700</v>
+      </c>
+      <c r="K41" s="3">
         <v>43800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>43900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>39300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>40100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>38000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>19300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>25200</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2640,47 +2726,50 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>14400</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3">
-        <v>2900</v>
+        <v>15800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>10200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>11900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>11800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>13600</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2696,8 +2785,8 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -2705,56 +2794,59 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>900</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1100</v>
       </c>
       <c r="I43" s="3">
         <v>1100</v>
       </c>
       <c r="J43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2770,8 +2862,11 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2835,56 +2930,59 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E45" s="3">
         <v>4900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4300</v>
       </c>
-      <c r="F45" s="3">
-        <v>5000</v>
-      </c>
       <c r="G45" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H45" s="3">
         <v>5400</v>
       </c>
-      <c r="H45" s="3">
-        <v>5800</v>
-      </c>
       <c r="I45" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J45" s="3">
         <v>5900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1300</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2900,56 +2998,59 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>94100</v>
+        <v>102800</v>
       </c>
       <c r="E46" s="3">
-        <v>88400</v>
+        <v>93200</v>
       </c>
       <c r="F46" s="3">
-        <v>78800</v>
+        <v>87500</v>
       </c>
       <c r="G46" s="3">
-        <v>82900</v>
+        <v>78000</v>
       </c>
       <c r="H46" s="3">
-        <v>80300</v>
+        <v>82100</v>
       </c>
       <c r="I46" s="3">
-        <v>77600</v>
+        <v>79500</v>
       </c>
       <c r="J46" s="3">
+        <v>76800</v>
+      </c>
+      <c r="K46" s="3">
         <v>51800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>58500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>55800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>56000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>56200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>22800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>27600</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2965,8 +3066,11 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,56 +3134,59 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E48" s="3">
         <v>8100</v>
       </c>
-      <c r="E48" s="3">
-        <v>8800</v>
-      </c>
       <c r="F48" s="3">
-        <v>9400</v>
+        <v>8700</v>
       </c>
       <c r="G48" s="3">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="H48" s="3">
+        <v>8900</v>
+      </c>
+      <c r="I48" s="3">
         <v>7500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3500</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3202,11 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3107,13 +3217,13 @@
         <v>200</v>
       </c>
       <c r="F49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G49" s="3">
         <v>300</v>
       </c>
       <c r="H49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I49" s="3">
         <v>400</v>
@@ -3125,10 +3235,10 @@
         <v>400</v>
       </c>
       <c r="L49" s="3">
+        <v>400</v>
+      </c>
+      <c r="M49" s="3">
         <v>200</v>
-      </c>
-      <c r="M49" s="3">
-        <v>300</v>
       </c>
       <c r="N49" s="3">
         <v>300</v>
@@ -3142,8 +3252,8 @@
       <c r="Q49" s="3">
         <v>300</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
+      <c r="R49" s="3">
+        <v>300</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
@@ -3160,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3302,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -3311,35 +3430,35 @@
         <v>100</v>
       </c>
       <c r="I52" s="3">
+        <v>100</v>
+      </c>
+      <c r="J52" s="3">
         <v>200</v>
-      </c>
-      <c r="J52" s="3">
-        <v>300</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
       </c>
       <c r="L52" s="3">
+        <v>300</v>
+      </c>
+      <c r="M52" s="3">
         <v>600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>700</v>
-      </c>
-      <c r="N52" s="3">
-        <v>300</v>
       </c>
       <c r="O52" s="3">
         <v>300</v>
       </c>
       <c r="P52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q52" s="3">
         <v>500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>400</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3355,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,56 +3542,59 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>102500</v>
+        <v>110400</v>
       </c>
       <c r="E54" s="3">
-        <v>97400</v>
+        <v>101400</v>
       </c>
       <c r="F54" s="3">
-        <v>88500</v>
+        <v>96400</v>
       </c>
       <c r="G54" s="3">
-        <v>92300</v>
+        <v>87600</v>
       </c>
       <c r="H54" s="3">
-        <v>88300</v>
+        <v>91400</v>
       </c>
       <c r="I54" s="3">
-        <v>86000</v>
+        <v>87400</v>
       </c>
       <c r="J54" s="3">
+        <v>85100</v>
+      </c>
+      <c r="K54" s="3">
         <v>58300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>64600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>63100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>63000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>63500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>21700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>31700</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3485,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,56 +3664,57 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="E57" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F57" s="3">
+        <v>8700</v>
+      </c>
+      <c r="G57" s="3">
+        <v>9000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>11500</v>
+      </c>
+      <c r="I57" s="3">
+        <v>10100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K57" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L57" s="3">
+        <v>10900</v>
+      </c>
+      <c r="M57" s="3">
         <v>8800</v>
       </c>
-      <c r="F57" s="3">
-        <v>9100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>11600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>10200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>10300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>10000</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
+        <v>9400</v>
+      </c>
+      <c r="O57" s="3">
+        <v>10400</v>
+      </c>
+      <c r="P57" s="3">
+        <v>11100</v>
+      </c>
+      <c r="Q57" s="3">
         <v>10900</v>
       </c>
-      <c r="L57" s="3">
-        <v>8800</v>
-      </c>
-      <c r="M57" s="3">
-        <v>9400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>10400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>11100</v>
-      </c>
-      <c r="P57" s="3">
-        <v>10900</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9600</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3600,47 +3730,50 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E58" s="3">
         <v>6000</v>
       </c>
-      <c r="E58" s="3">
-        <v>6600</v>
-      </c>
       <c r="F58" s="3">
-        <v>7200</v>
+        <v>6500</v>
       </c>
       <c r="G58" s="3">
-        <v>9900</v>
+        <v>7100</v>
       </c>
       <c r="H58" s="3">
-        <v>8300</v>
+        <v>9800</v>
       </c>
       <c r="I58" s="3">
+        <v>8200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K58" s="3">
         <v>5100</v>
       </c>
-      <c r="J58" s="3">
-        <v>5100</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3200</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3656,8 +3789,8 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -3665,56 +3798,59 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>35300</v>
+        <v>34700</v>
       </c>
       <c r="E59" s="3">
-        <v>33700</v>
+        <v>34900</v>
       </c>
       <c r="F59" s="3">
-        <v>29200</v>
+        <v>33400</v>
       </c>
       <c r="G59" s="3">
-        <v>31100</v>
+        <v>28900</v>
       </c>
       <c r="H59" s="3">
-        <v>32700</v>
+        <v>30800</v>
       </c>
       <c r="I59" s="3">
-        <v>29800</v>
+        <v>32400</v>
       </c>
       <c r="J59" s="3">
+        <v>29500</v>
+      </c>
+      <c r="K59" s="3">
         <v>26400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>21700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>20900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>18500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>21000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>18100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3730,56 +3866,59 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>48700</v>
+        <v>52800</v>
       </c>
       <c r="E60" s="3">
-        <v>49100</v>
+        <v>48200</v>
       </c>
       <c r="F60" s="3">
-        <v>45500</v>
+        <v>48600</v>
       </c>
       <c r="G60" s="3">
-        <v>52600</v>
+        <v>45000</v>
       </c>
       <c r="H60" s="3">
-        <v>51200</v>
+        <v>52100</v>
       </c>
       <c r="I60" s="3">
-        <v>45200</v>
+        <v>50700</v>
       </c>
       <c r="J60" s="3">
+        <v>44700</v>
+      </c>
+      <c r="K60" s="3">
         <v>41500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>40200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>36800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>35800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>34500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>29600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>31900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>27700</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3795,8 +3934,11 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3860,47 +4002,50 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="3">
         <v>2100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>400</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3916,8 +4061,8 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -3925,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,56 +4274,59 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>50800</v>
+        <v>54500</v>
       </c>
       <c r="E66" s="3">
-        <v>51600</v>
+        <v>50300</v>
       </c>
       <c r="F66" s="3">
-        <v>48500</v>
+        <v>51100</v>
       </c>
       <c r="G66" s="3">
-        <v>55700</v>
+        <v>48000</v>
       </c>
       <c r="H66" s="3">
-        <v>53600</v>
+        <v>55200</v>
       </c>
       <c r="I66" s="3">
-        <v>47700</v>
+        <v>53000</v>
       </c>
       <c r="J66" s="3">
+        <v>47200</v>
+      </c>
+      <c r="K66" s="3">
         <v>42800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>41000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>37900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>37000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>34900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>29600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>31900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>27700</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4185,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4379,17 +4546,17 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>299800</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>257600</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>189100</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4405,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,56 +4640,59 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-332000</v>
+        <v>-324100</v>
       </c>
       <c r="E72" s="3">
-        <v>-334800</v>
+        <v>-328600</v>
       </c>
       <c r="F72" s="3">
-        <v>-337500</v>
+        <v>-331400</v>
       </c>
       <c r="G72" s="3">
-        <v>-339900</v>
+        <v>-334100</v>
       </c>
       <c r="H72" s="3">
-        <v>-341200</v>
+        <v>-336400</v>
       </c>
       <c r="I72" s="3">
-        <v>-335800</v>
+        <v>-337700</v>
       </c>
       <c r="J72" s="3">
+        <v>-332400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-331700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-311700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-329100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-328200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-347900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-308400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-261800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-185800</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4535,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,56 +4912,59 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>51700</v>
+        <v>55800</v>
       </c>
       <c r="E76" s="3">
-        <v>45800</v>
+        <v>51200</v>
       </c>
       <c r="F76" s="3">
-        <v>40000</v>
+        <v>45300</v>
       </c>
       <c r="G76" s="3">
-        <v>36600</v>
+        <v>39600</v>
       </c>
       <c r="H76" s="3">
-        <v>34800</v>
+        <v>36200</v>
       </c>
       <c r="I76" s="3">
-        <v>38300</v>
+        <v>34400</v>
       </c>
       <c r="J76" s="3">
+        <v>37900</v>
+      </c>
+      <c r="K76" s="3">
         <v>15600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>23600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>25200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>28600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-307700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-260900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-185100</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4795,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E81" s="3">
         <v>2800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2700</v>
       </c>
-      <c r="F81" s="3">
-        <v>2400</v>
-      </c>
       <c r="G81" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H81" s="3">
         <v>1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5300</v>
       </c>
-      <c r="I81" s="3">
-        <v>-4200</v>
-      </c>
       <c r="J81" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-10100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-31900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-46600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-78500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-18000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-22100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-13000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-9200</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5064,8 +5262,8 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
@@ -5085,8 +5283,11 @@
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5454,8 +5670,8 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
+      <c r="Q89" s="3">
+        <v>0</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
@@ -5475,8 +5691,11 @@
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5544,8 +5764,8 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
@@ -5565,8 +5785,11 @@
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5739,8 +5968,8 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
@@ -5760,8 +5989,11 @@
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6110,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6154,8 +6402,8 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
@@ -6175,8 +6423,11 @@
       <c r="W101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6219,8 +6470,8 @@
       <c r="P102" s="3">
         <v>0</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
+      <c r="Q102" s="3">
+        <v>0</v>
       </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
@@ -6238,6 +6489,9 @@
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LIZI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LIZI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>LIZI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,334 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>83500</v>
+        <v>81700</v>
       </c>
       <c r="E8" s="3">
-        <v>80300</v>
+        <v>86900</v>
       </c>
       <c r="F8" s="3">
-        <v>73300</v>
+        <v>81000</v>
       </c>
       <c r="G8" s="3">
-        <v>73400</v>
+        <v>77900</v>
       </c>
       <c r="H8" s="3">
-        <v>79600</v>
+        <v>71100</v>
       </c>
       <c r="I8" s="3">
+        <v>71200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>77200</v>
+      </c>
+      <c r="K8" s="3">
         <v>71800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>79500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>71100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>58500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>53300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>51700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>58400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>56200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>50600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>35100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>39800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>36500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>27800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>26100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>26000</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>57400</v>
+        <v>57700</v>
       </c>
       <c r="E9" s="3">
-        <v>53500</v>
+        <v>59900</v>
       </c>
       <c r="F9" s="3">
-        <v>48300</v>
+        <v>55700</v>
       </c>
       <c r="G9" s="3">
-        <v>49600</v>
+        <v>51800</v>
       </c>
       <c r="H9" s="3">
-        <v>53800</v>
+        <v>46900</v>
       </c>
       <c r="I9" s="3">
+        <v>48000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>52100</v>
+      </c>
+      <c r="K9" s="3">
         <v>50300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>56900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>53100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>41900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>39900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>39100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>46900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>46300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>40700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>25100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>28000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>25800</v>
-      </c>
-      <c r="U9" s="3">
-        <v>19100</v>
-      </c>
-      <c r="V9" s="3">
-        <v>18400</v>
       </c>
       <c r="W9" s="3">
         <v>19100</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>18400</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>19100</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>26100</v>
+        <v>24000</v>
       </c>
       <c r="E10" s="3">
-        <v>26900</v>
+        <v>27100</v>
       </c>
       <c r="F10" s="3">
-        <v>25000</v>
+        <v>25300</v>
       </c>
       <c r="G10" s="3">
-        <v>23900</v>
+        <v>26000</v>
       </c>
       <c r="H10" s="3">
-        <v>25900</v>
+        <v>24200</v>
       </c>
       <c r="I10" s="3">
+        <v>23200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>25100</v>
+      </c>
+      <c r="K10" s="3">
         <v>21500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>22600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>18000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>16600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>13400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>12600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>11500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>9900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>9900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>10000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>11800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>10700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>8600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>7700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>6900</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,76 +1017,84 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>9100</v>
+        <v>10400</v>
       </c>
       <c r="E12" s="3">
-        <v>11100</v>
+        <v>9900</v>
       </c>
       <c r="F12" s="3">
-        <v>10000</v>
+        <v>8800</v>
       </c>
       <c r="G12" s="3">
+        <v>10800</v>
+      </c>
+      <c r="H12" s="3">
+        <v>9700</v>
+      </c>
+      <c r="I12" s="3">
+        <v>9800</v>
+      </c>
+      <c r="J12" s="3">
         <v>10100</v>
       </c>
-      <c r="H12" s="3">
-        <v>10500</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>10400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>8700</v>
-      </c>
-      <c r="K12" s="3">
-        <v>8200</v>
-      </c>
-      <c r="L12" s="3">
-        <v>7900</v>
       </c>
       <c r="M12" s="3">
         <v>8200</v>
       </c>
       <c r="N12" s="3">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="O12" s="3">
-        <v>9200</v>
+        <v>8200</v>
       </c>
       <c r="P12" s="3">
         <v>8100</v>
       </c>
       <c r="Q12" s="3">
+        <v>9200</v>
+      </c>
+      <c r="R12" s="3">
+        <v>8100</v>
+      </c>
+      <c r="S12" s="3">
         <v>6700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>5200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>4400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>4500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>3000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>2300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>2400</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1161,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1235,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1309,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1338,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>79900</v>
+        <v>80600</v>
       </c>
       <c r="E17" s="3">
-        <v>78600</v>
+        <v>81100</v>
       </c>
       <c r="F17" s="3">
-        <v>71300</v>
+        <v>77500</v>
       </c>
       <c r="G17" s="3">
-        <v>71400</v>
+        <v>76200</v>
       </c>
       <c r="H17" s="3">
-        <v>78900</v>
+        <v>69100</v>
       </c>
       <c r="I17" s="3">
+        <v>69200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>76500</v>
+      </c>
+      <c r="K17" s="3">
         <v>77500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>84000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>81500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>59400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>54700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>55400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>65900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>61100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>58600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>42600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>41400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>36100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>28500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>26600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>26900</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3600</v>
+        <v>1100</v>
       </c>
       <c r="E18" s="3">
-        <v>1800</v>
+        <v>5900</v>
       </c>
       <c r="F18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I18" s="3">
         <v>2000</v>
       </c>
-      <c r="G18" s="3">
-        <v>2100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>800</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-5700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-4500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-10400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-3700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-7500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-8000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-7500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-900</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,76 +1514,84 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E20" s="3">
+        <v>800</v>
+      </c>
+      <c r="F20" s="3">
+        <v>800</v>
+      </c>
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>600</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>500</v>
+      </c>
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
-      </c>
-      <c r="N20" s="3">
-        <v>400</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-100</v>
       </c>
       <c r="P20" s="3">
         <v>400</v>
       </c>
       <c r="Q20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R20" s="3">
+        <v>400</v>
+      </c>
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-400</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1560,32 +1634,38 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
         <v>-6200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-6100</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3">
         <v>1800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>500</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,81 +1732,93 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4500</v>
+        <v>1700</v>
       </c>
       <c r="E23" s="3">
-        <v>2800</v>
+        <v>6700</v>
       </c>
       <c r="F23" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G23" s="3">
         <v>2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I23" s="3">
         <v>2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-5300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-10100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-3200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-7600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-7500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-6900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1300</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1738,26 +1830,26 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1788,8 +1880,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1954,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4500</v>
+        <v>1600</v>
       </c>
       <c r="E26" s="3">
-        <v>2800</v>
+        <v>6700</v>
       </c>
       <c r="F26" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G26" s="3">
         <v>2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I26" s="3">
         <v>2300</v>
       </c>
-      <c r="H26" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-5300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-4100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-10100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-7600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-7500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-6900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-1300</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="E27" s="3">
-        <v>2800</v>
+        <v>6800</v>
       </c>
       <c r="F27" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G27" s="3">
         <v>2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I27" s="3">
         <v>2300</v>
       </c>
-      <c r="H27" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-5300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-4100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-10100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-31900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-46600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-78500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-18000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-22100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-8900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-13000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-9200</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2176,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2250,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2398,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-900</v>
+        <v>-600</v>
       </c>
       <c r="E32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O32" s="3">
-        <v>100</v>
       </c>
       <c r="P32" s="3">
         <v>-400</v>
       </c>
       <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>400</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="E33" s="3">
-        <v>2800</v>
+        <v>6800</v>
       </c>
       <c r="F33" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G33" s="3">
         <v>2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I33" s="3">
         <v>2300</v>
       </c>
-      <c r="H33" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-5300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-4100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-10100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-3200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-31900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-46600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-78500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-18000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-22100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-8900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-13000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-9200</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2620,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="E35" s="3">
-        <v>2800</v>
+        <v>6800</v>
       </c>
       <c r="F35" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G35" s="3">
         <v>2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I35" s="3">
         <v>2300</v>
       </c>
-      <c r="H35" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-5300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-4100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-10100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-3200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-31900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-46600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-78500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-18000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-22100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-8900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-13000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-9200</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,62 +2833,64 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>80800</v>
+        <v>94600</v>
       </c>
       <c r="E41" s="3">
-        <v>73600</v>
+        <v>78600</v>
       </c>
       <c r="F41" s="3">
-        <v>82800</v>
+        <v>78300</v>
       </c>
       <c r="G41" s="3">
+        <v>71300</v>
+      </c>
+      <c r="H41" s="3">
+        <v>80300</v>
+      </c>
+      <c r="I41" s="3">
+        <v>67500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>73500</v>
+      </c>
+      <c r="K41" s="3">
+        <v>72700</v>
+      </c>
+      <c r="L41" s="3">
         <v>69700</v>
       </c>
-      <c r="H41" s="3">
-        <v>75800</v>
-      </c>
-      <c r="I41" s="3">
-        <v>72700</v>
-      </c>
-      <c r="J41" s="3">
-        <v>69700</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>43800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>43900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>39300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>40100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>38000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>12700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>19300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>25200</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2729,53 +2903,59 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>15800</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>14200</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+        <v>20700</v>
+      </c>
+      <c r="F42" s="3">
+        <v>15300</v>
       </c>
       <c r="G42" s="3">
+        <v>13800</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3">
         <v>2800</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>10200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>11900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>11800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>13600</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2788,71 +2968,77 @@
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
-      </c>
-      <c r="W42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F43" s="3">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="G43" s="3">
         <v>500</v>
       </c>
       <c r="H43" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="I43" s="3">
+        <v>500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K43" s="3">
         <v>1100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1000</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1300</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1200</v>
       </c>
       <c r="M43" s="3">
         <v>1300</v>
       </c>
       <c r="N43" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="O43" s="3">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="P43" s="3">
         <v>1000</v>
       </c>
       <c r="Q43" s="3">
+        <v>700</v>
+      </c>
+      <c r="R43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S43" s="3">
         <v>1400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1100</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2865,8 +3051,14 @@
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,62 +3125,68 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4900</v>
       </c>
-      <c r="F45" s="3">
-        <v>4300</v>
-      </c>
       <c r="G45" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="H45" s="3">
-        <v>5400</v>
+        <v>4100</v>
       </c>
       <c r="I45" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K45" s="3">
         <v>5700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>5900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>5200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>3200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>3300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>3000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>3900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>2200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1300</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3001,62 +3199,68 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>102800</v>
+        <v>99900</v>
       </c>
       <c r="E46" s="3">
-        <v>93200</v>
+        <v>104800</v>
       </c>
       <c r="F46" s="3">
-        <v>87500</v>
+        <v>99700</v>
       </c>
       <c r="G46" s="3">
-        <v>78000</v>
+        <v>90300</v>
       </c>
       <c r="H46" s="3">
-        <v>82100</v>
+        <v>84800</v>
       </c>
       <c r="I46" s="3">
+        <v>75600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>79600</v>
+      </c>
+      <c r="K46" s="3">
         <v>79500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>76800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>51800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>58500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>55800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>56000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>56200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>16100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>22800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>27600</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3069,8 +3273,14 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,62 +3347,68 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7300</v>
+        <v>5300</v>
       </c>
       <c r="E48" s="3">
-        <v>8100</v>
+        <v>6100</v>
       </c>
       <c r="F48" s="3">
-        <v>8700</v>
+        <v>7100</v>
       </c>
       <c r="G48" s="3">
-        <v>9300</v>
+        <v>7800</v>
       </c>
       <c r="H48" s="3">
-        <v>8900</v>
+        <v>8400</v>
       </c>
       <c r="I48" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K48" s="3">
         <v>7500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>7800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>5400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>6400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>5900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>6700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>5000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>5100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>3500</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3205,8 +3421,14 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3220,16 +3442,16 @@
         <v>200</v>
       </c>
       <c r="G49" s="3">
+        <v>200</v>
+      </c>
+      <c r="H49" s="3">
+        <v>200</v>
+      </c>
+      <c r="I49" s="3">
+        <v>200</v>
+      </c>
+      <c r="J49" s="3">
         <v>300</v>
-      </c>
-      <c r="H49" s="3">
-        <v>300</v>
-      </c>
-      <c r="I49" s="3">
-        <v>400</v>
-      </c>
-      <c r="J49" s="3">
-        <v>400</v>
       </c>
       <c r="K49" s="3">
         <v>400</v>
@@ -3238,13 +3460,13 @@
         <v>400</v>
       </c>
       <c r="M49" s="3">
+        <v>400</v>
+      </c>
+      <c r="N49" s="3">
+        <v>400</v>
+      </c>
+      <c r="O49" s="3">
         <v>200</v>
-      </c>
-      <c r="N49" s="3">
-        <v>300</v>
-      </c>
-      <c r="O49" s="3">
-        <v>300</v>
       </c>
       <c r="P49" s="3">
         <v>300</v>
@@ -3255,11 +3477,11 @@
       <c r="R49" s="3">
         <v>300</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T49" s="3" t="s">
-        <v>3</v>
+      <c r="S49" s="3">
+        <v>300</v>
+      </c>
+      <c r="T49" s="3">
+        <v>300</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>3</v>
@@ -3273,8 +3495,14 @@
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,62 +3643,68 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
       </c>
       <c r="J52" s="3">
+        <v>100</v>
+      </c>
+      <c r="K52" s="3">
+        <v>100</v>
+      </c>
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>400</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3477,8 +3717,14 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,62 +3791,68 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>110400</v>
+        <v>105400</v>
       </c>
       <c r="E54" s="3">
-        <v>101400</v>
+        <v>111100</v>
       </c>
       <c r="F54" s="3">
-        <v>96400</v>
+        <v>107000</v>
       </c>
       <c r="G54" s="3">
-        <v>87600</v>
+        <v>98300</v>
       </c>
       <c r="H54" s="3">
-        <v>91400</v>
+        <v>93400</v>
       </c>
       <c r="I54" s="3">
+        <v>84900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>88600</v>
+      </c>
+      <c r="K54" s="3">
         <v>87400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>85100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>58300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>64600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>63100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>63000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>63500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>21700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>28600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>31700</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3613,8 +3865,14 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,62 +3925,64 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7700</v>
+        <v>7100</v>
       </c>
       <c r="E57" s="3">
-        <v>7300</v>
+        <v>9700</v>
       </c>
       <c r="F57" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G57" s="3">
+        <v>7100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>8400</v>
+      </c>
+      <c r="I57" s="3">
         <v>8700</v>
       </c>
-      <c r="G57" s="3">
-        <v>9000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>11500</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K57" s="3">
         <v>10100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>10200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>10000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>10900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>8800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>9400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>10400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>11100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>10900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>9600</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3733,53 +3995,59 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10500</v>
+        <v>1000</v>
       </c>
       <c r="E58" s="3">
-        <v>6000</v>
+        <v>8100</v>
       </c>
       <c r="F58" s="3">
-        <v>6500</v>
+        <v>10200</v>
       </c>
       <c r="G58" s="3">
-        <v>7100</v>
+        <v>5800</v>
       </c>
       <c r="H58" s="3">
-        <v>9800</v>
+        <v>6300</v>
       </c>
       <c r="I58" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K58" s="3">
         <v>8200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>5000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>5100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>5500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>6300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>6900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>3200</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3792,71 +4060,77 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>34700</v>
+        <v>30700</v>
       </c>
       <c r="E59" s="3">
-        <v>34900</v>
+        <v>30000</v>
       </c>
       <c r="F59" s="3">
-        <v>33400</v>
+        <v>33600</v>
       </c>
       <c r="G59" s="3">
-        <v>28900</v>
+        <v>33900</v>
       </c>
       <c r="H59" s="3">
-        <v>30800</v>
+        <v>32400</v>
       </c>
       <c r="I59" s="3">
+        <v>28100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>29900</v>
+      </c>
+      <c r="K59" s="3">
         <v>32400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>29500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>26400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>23800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>21700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>19500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>20900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>18500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>21000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>18100</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,62 +4143,68 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>52800</v>
+        <v>38800</v>
       </c>
       <c r="E60" s="3">
-        <v>48200</v>
+        <v>47900</v>
       </c>
       <c r="F60" s="3">
-        <v>48600</v>
+        <v>51200</v>
       </c>
       <c r="G60" s="3">
-        <v>45000</v>
+        <v>46700</v>
       </c>
       <c r="H60" s="3">
-        <v>52100</v>
+        <v>47100</v>
       </c>
       <c r="I60" s="3">
+        <v>43600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>50500</v>
+      </c>
+      <c r="K60" s="3">
         <v>50700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>44700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>41500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>40200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>36800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>35800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>34500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>29600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>31900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>27700</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3937,8 +4217,14 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,53 +4291,59 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F62" s="3">
         <v>1700</v>
       </c>
-      <c r="E62" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H62" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K62" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L62" s="3">
         <v>2500</v>
       </c>
-      <c r="G62" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H62" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J62" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>400</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4064,17 +4356,23 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
-      </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,62 +4587,68 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>54500</v>
+        <v>39200</v>
       </c>
       <c r="E66" s="3">
-        <v>50300</v>
+        <v>48800</v>
       </c>
       <c r="F66" s="3">
-        <v>51100</v>
+        <v>52900</v>
       </c>
       <c r="G66" s="3">
-        <v>48000</v>
+        <v>48700</v>
       </c>
       <c r="H66" s="3">
-        <v>55200</v>
+        <v>49500</v>
       </c>
       <c r="I66" s="3">
+        <v>46500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>53500</v>
+      </c>
+      <c r="K66" s="3">
         <v>53000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>47200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>42800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>41000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>37900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>37000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>34900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>29600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>31900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>27700</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4345,8 +4661,14 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4549,20 +4885,20 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>299800</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <v>257600</v>
       </c>
-      <c r="R70" s="3">
+      <c r="T70" s="3">
         <v>189100</v>
       </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
       <c r="U70" s="3">
         <v>0</v>
       </c>
@@ -4575,8 +4911,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,62 +4985,68 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-324100</v>
+        <v>-305500</v>
       </c>
       <c r="E72" s="3">
-        <v>-328600</v>
+        <v>-307300</v>
       </c>
       <c r="F72" s="3">
-        <v>-331400</v>
+        <v>-314100</v>
       </c>
       <c r="G72" s="3">
-        <v>-334100</v>
+        <v>-318500</v>
       </c>
       <c r="H72" s="3">
-        <v>-336400</v>
+        <v>-321200</v>
       </c>
       <c r="I72" s="3">
+        <v>-323800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-326100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-337700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-332400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-331700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-311700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-329100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-328200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-347900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-308400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-261800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-185800</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4711,8 +5059,14 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,62 +5281,68 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>55800</v>
+        <v>66300</v>
       </c>
       <c r="E76" s="3">
-        <v>51200</v>
+        <v>62300</v>
       </c>
       <c r="F76" s="3">
-        <v>45300</v>
+        <v>54100</v>
       </c>
       <c r="G76" s="3">
-        <v>39600</v>
+        <v>49600</v>
       </c>
       <c r="H76" s="3">
-        <v>36200</v>
+        <v>43900</v>
       </c>
       <c r="I76" s="3">
+        <v>38400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K76" s="3">
         <v>34400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>37900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>15600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>23600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>25200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>26000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>28600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-307700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-260900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-185100</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4983,8 +5355,14 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5429,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="E81" s="3">
-        <v>2800</v>
+        <v>6800</v>
       </c>
       <c r="F81" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G81" s="3">
         <v>2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I81" s="3">
         <v>2300</v>
       </c>
-      <c r="H81" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-5300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-4100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-10100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-3200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-31900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-46600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-78500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-18000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-22100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-8900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-13000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-9200</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5614,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5265,11 +5663,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
@@ -5286,8 +5684,14 @@
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +6054,14 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5673,11 +6107,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
@@ -5694,8 +6128,14 @@
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6160,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5767,11 +6209,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
@@ -5788,8 +6230,14 @@
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6378,14 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5971,11 +6431,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
@@ -5992,8 +6452,14 @@
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6484,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6554,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6776,14 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6358,8 +6850,14 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6405,11 +6903,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>3</v>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>3</v>
@@ -6426,8 +6924,14 @@
       <c r="X101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6473,11 +6977,11 @@
       <c r="Q102" s="3">
         <v>0</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
       </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
@@ -6492,6 +6996,12 @@
         <v>3</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LIZI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LIZI_QTR_FIN.xlsx
@@ -775,25 +775,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>81700</v>
+        <v>81900</v>
       </c>
       <c r="E8" s="3">
-        <v>86900</v>
+        <v>87100</v>
       </c>
       <c r="F8" s="3">
-        <v>81000</v>
+        <v>81100</v>
       </c>
       <c r="G8" s="3">
-        <v>77900</v>
+        <v>78000</v>
       </c>
       <c r="H8" s="3">
-        <v>71100</v>
+        <v>71200</v>
       </c>
       <c r="I8" s="3">
-        <v>71200</v>
+        <v>71300</v>
       </c>
       <c r="J8" s="3">
-        <v>77200</v>
+        <v>77400</v>
       </c>
       <c r="K8" s="3">
         <v>71800</v>
@@ -849,25 +849,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>57700</v>
+        <v>57800</v>
       </c>
       <c r="E9" s="3">
-        <v>59900</v>
+        <v>60000</v>
       </c>
       <c r="F9" s="3">
-        <v>55700</v>
+        <v>55800</v>
       </c>
       <c r="G9" s="3">
-        <v>51800</v>
+        <v>51900</v>
       </c>
       <c r="H9" s="3">
-        <v>46900</v>
+        <v>47000</v>
       </c>
       <c r="I9" s="3">
-        <v>48000</v>
+        <v>48100</v>
       </c>
       <c r="J9" s="3">
-        <v>52100</v>
+        <v>52300</v>
       </c>
       <c r="K9" s="3">
         <v>50300</v>
@@ -923,7 +923,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>24000</v>
+        <v>24100</v>
       </c>
       <c r="E10" s="3">
         <v>27100</v>
@@ -932,10 +932,10 @@
         <v>25300</v>
       </c>
       <c r="G10" s="3">
-        <v>26000</v>
+        <v>26100</v>
       </c>
       <c r="H10" s="3">
-        <v>24200</v>
+        <v>24300</v>
       </c>
       <c r="I10" s="3">
         <v>23200</v>
@@ -1043,7 +1043,7 @@
         <v>9800</v>
       </c>
       <c r="J12" s="3">
-        <v>10100</v>
+        <v>10200</v>
       </c>
       <c r="K12" s="3">
         <v>10400</v>
@@ -1346,25 +1346,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>80600</v>
+        <v>80800</v>
       </c>
       <c r="E17" s="3">
-        <v>81100</v>
+        <v>81200</v>
       </c>
       <c r="F17" s="3">
-        <v>77500</v>
+        <v>77600</v>
       </c>
       <c r="G17" s="3">
-        <v>76200</v>
+        <v>76300</v>
       </c>
       <c r="H17" s="3">
-        <v>69100</v>
+        <v>69300</v>
       </c>
       <c r="I17" s="3">
-        <v>69200</v>
+        <v>69300</v>
       </c>
       <c r="J17" s="3">
-        <v>76500</v>
+        <v>76600</v>
       </c>
       <c r="K17" s="3">
         <v>77500</v>
@@ -1750,7 +1750,7 @@
         <v>6700</v>
       </c>
       <c r="F23" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="G23" s="3">
         <v>2700</v>
@@ -2841,25 +2841,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>94600</v>
+        <v>94800</v>
       </c>
       <c r="E41" s="3">
-        <v>78600</v>
+        <v>78800</v>
       </c>
       <c r="F41" s="3">
-        <v>78300</v>
+        <v>78500</v>
       </c>
       <c r="G41" s="3">
-        <v>71300</v>
+        <v>71500</v>
       </c>
       <c r="H41" s="3">
-        <v>80300</v>
+        <v>80500</v>
       </c>
       <c r="I41" s="3">
-        <v>67500</v>
+        <v>67700</v>
       </c>
       <c r="J41" s="3">
-        <v>73500</v>
+        <v>73600</v>
       </c>
       <c r="K41" s="3">
         <v>72700</v>
@@ -2921,7 +2921,7 @@
         <v>20700</v>
       </c>
       <c r="F42" s="3">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="G42" s="3">
         <v>13800</v>
@@ -3211,25 +3211,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>105100</v>
+      </c>
+      <c r="F46" s="3">
         <v>99900</v>
       </c>
-      <c r="E46" s="3">
-        <v>104800</v>
-      </c>
-      <c r="F46" s="3">
-        <v>99700</v>
-      </c>
       <c r="G46" s="3">
-        <v>90300</v>
+        <v>90500</v>
       </c>
       <c r="H46" s="3">
-        <v>84800</v>
+        <v>85000</v>
       </c>
       <c r="I46" s="3">
-        <v>75600</v>
+        <v>75700</v>
       </c>
       <c r="J46" s="3">
-        <v>79600</v>
+        <v>79700</v>
       </c>
       <c r="K46" s="3">
         <v>79500</v>
@@ -3803,25 +3803,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>105400</v>
+        <v>105700</v>
       </c>
       <c r="E54" s="3">
-        <v>111100</v>
+        <v>111400</v>
       </c>
       <c r="F54" s="3">
-        <v>107000</v>
+        <v>107200</v>
       </c>
       <c r="G54" s="3">
-        <v>98300</v>
+        <v>98500</v>
       </c>
       <c r="H54" s="3">
-        <v>93400</v>
+        <v>93600</v>
       </c>
       <c r="I54" s="3">
-        <v>84900</v>
+        <v>85100</v>
       </c>
       <c r="J54" s="3">
-        <v>88600</v>
+        <v>88800</v>
       </c>
       <c r="K54" s="3">
         <v>87400</v>
@@ -3951,7 +3951,7 @@
         <v>8700</v>
       </c>
       <c r="J57" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="K57" s="3">
         <v>10100</v>
@@ -4010,7 +4010,7 @@
         <v>1000</v>
       </c>
       <c r="E58" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="F58" s="3">
         <v>10200</v>
@@ -4081,13 +4081,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>30700</v>
+        <v>30800</v>
       </c>
       <c r="E59" s="3">
-        <v>30000</v>
+        <v>30100</v>
       </c>
       <c r="F59" s="3">
-        <v>33600</v>
+        <v>33700</v>
       </c>
       <c r="G59" s="3">
         <v>33900</v>
@@ -4158,22 +4158,22 @@
         <v>38800</v>
       </c>
       <c r="E60" s="3">
-        <v>47900</v>
+        <v>48000</v>
       </c>
       <c r="F60" s="3">
-        <v>51200</v>
+        <v>51300</v>
       </c>
       <c r="G60" s="3">
-        <v>46700</v>
+        <v>46800</v>
       </c>
       <c r="H60" s="3">
-        <v>47100</v>
+        <v>47200</v>
       </c>
       <c r="I60" s="3">
-        <v>43600</v>
+        <v>43700</v>
       </c>
       <c r="J60" s="3">
-        <v>50500</v>
+        <v>50600</v>
       </c>
       <c r="K60" s="3">
         <v>50700</v>
@@ -4315,7 +4315,7 @@
         <v>2000</v>
       </c>
       <c r="H62" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="I62" s="3">
         <v>2900</v>
@@ -4599,25 +4599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>39200</v>
+        <v>39300</v>
       </c>
       <c r="E66" s="3">
+        <v>48900</v>
+      </c>
+      <c r="F66" s="3">
+        <v>53000</v>
+      </c>
+      <c r="G66" s="3">
         <v>48800</v>
       </c>
-      <c r="F66" s="3">
-        <v>52900</v>
-      </c>
-      <c r="G66" s="3">
-        <v>48700</v>
-      </c>
       <c r="H66" s="3">
-        <v>49500</v>
+        <v>49600</v>
       </c>
       <c r="I66" s="3">
-        <v>46500</v>
+        <v>46600</v>
       </c>
       <c r="J66" s="3">
-        <v>53500</v>
+        <v>53600</v>
       </c>
       <c r="K66" s="3">
         <v>53000</v>
@@ -4997,25 +4997,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-305500</v>
+        <v>-306200</v>
       </c>
       <c r="E72" s="3">
-        <v>-307300</v>
+        <v>-308000</v>
       </c>
       <c r="F72" s="3">
-        <v>-314100</v>
+        <v>-314800</v>
       </c>
       <c r="G72" s="3">
-        <v>-318500</v>
+        <v>-319200</v>
       </c>
       <c r="H72" s="3">
-        <v>-321200</v>
+        <v>-321900</v>
       </c>
       <c r="I72" s="3">
-        <v>-323800</v>
+        <v>-324500</v>
       </c>
       <c r="J72" s="3">
-        <v>-326100</v>
+        <v>-326800</v>
       </c>
       <c r="K72" s="3">
         <v>-337700</v>
@@ -5293,25 +5293,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>66300</v>
+        <v>66400</v>
       </c>
       <c r="E76" s="3">
-        <v>62300</v>
+        <v>62400</v>
       </c>
       <c r="F76" s="3">
-        <v>54100</v>
+        <v>54200</v>
       </c>
       <c r="G76" s="3">
-        <v>49600</v>
+        <v>49700</v>
       </c>
       <c r="H76" s="3">
-        <v>43900</v>
+        <v>44000</v>
       </c>
       <c r="I76" s="3">
         <v>38400</v>
       </c>
       <c r="J76" s="3">
-        <v>35100</v>
+        <v>35200</v>
       </c>
       <c r="K76" s="3">
         <v>34400</v>
